--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5169E61-8ADC-42F3-8697-C8A35E2301D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C371E0-6834-4C23-817C-ABD54950641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="356">
   <si>
     <t>Environment</t>
   </si>
@@ -46,9 +46,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>LB</t>
   </si>
   <si>
-    <t>Welcome@123</t>
-  </si>
-  <si>
     <t>https://lb.sogosurvey.com/</t>
   </si>
   <si>
@@ -185,6 +179,918 @@
   </si>
   <si>
     <t>Response Table report</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Condition que 1</t>
+  </si>
+  <si>
+    <t>Condition que 1 operand</t>
+  </si>
+  <si>
+    <t>Condition que 1 answers</t>
+  </si>
+  <si>
+    <t>Condition que 2</t>
+  </si>
+  <si>
+    <t>Condition que 2 operand</t>
+  </si>
+  <si>
+    <t>Condition que 2 answers</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Stub</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Filter Name</t>
+  </si>
+  <si>
+    <t>Grouping question</t>
+  </si>
+  <si>
+    <t>Segment question 1</t>
+  </si>
+  <si>
+    <t>Segment ques 1 operand</t>
+  </si>
+  <si>
+    <t>Segment ques 1 answers</t>
+  </si>
+  <si>
+    <t>Segment 1 name</t>
+  </si>
+  <si>
+    <t>Nmax</t>
+  </si>
+  <si>
+    <t>datasetCount</t>
+  </si>
+  <si>
+    <t>Engagement questions</t>
+  </si>
+  <si>
+    <t>Driver questions</t>
+  </si>
+  <si>
+    <t>toEmail</t>
+  </si>
+  <si>
+    <t>emailtemplate</t>
+  </si>
+  <si>
+    <t>selectlist</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>prepopdd</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>mapValues</t>
+  </si>
+  <si>
+    <t>emailaddcol</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>searchRec1</t>
+  </si>
+  <si>
+    <t>searchRec2</t>
+  </si>
+  <si>
+    <t>textBox1</t>
+  </si>
+  <si>
+    <t>dateFormat</t>
+  </si>
+  <si>
+    <t>Make all Charts Similar to this</t>
+  </si>
+  <si>
+    <t>Match Every Condition</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Every Condition</t>
+  </si>
+  <si>
+    <t>Match Any Condition</t>
+  </si>
+  <si>
+    <t>Any Condition</t>
+  </si>
+  <si>
+    <t>With 10 Vertical variable</t>
+  </si>
+  <si>
+    <t>With 1 Vertical variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Report </t>
+  </si>
+  <si>
+    <t>Normal Verbatim(Without Grouping )</t>
+  </si>
+  <si>
+    <t>With Filter having Two conditions</t>
+  </si>
+  <si>
+    <t>Grouping with 5 answer options</t>
+  </si>
+  <si>
+    <t>No Segmentation</t>
+  </si>
+  <si>
+    <t>Segment Based on 1 Question</t>
+  </si>
+  <si>
+    <t>Segment Based on more than 1 question</t>
+  </si>
+  <si>
+    <t>Segment 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 6 : Segmentation Report </t>
+  </si>
+  <si>
+    <t>Step 7 : Select Filter</t>
+  </si>
+  <si>
+    <t>Generate Report[PPT]</t>
+  </si>
+  <si>
+    <t>Generate Report[Excel]</t>
+  </si>
+  <si>
+    <t>2 Datasets</t>
+  </si>
+  <si>
+    <t>is/~/is</t>
+  </si>
+  <si>
+    <t>5 Datasets</t>
+  </si>
+  <si>
+    <t>is/~/is/~/is/~/is/~/is</t>
+  </si>
+  <si>
+    <t>Do not put IP</t>
+  </si>
+  <si>
+    <t>Step 6 : Customize Cover Page</t>
+  </si>
+  <si>
+    <t>Step 7 : Email Report</t>
+  </si>
+  <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t>Step 6: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>Step 7: Prepop mismatch</t>
+  </si>
+  <si>
+    <t>Step 8: Send or Schedule Invitation</t>
+  </si>
+  <si>
+    <t>Step 9: Send Now</t>
+  </si>
+  <si>
+    <t>DNT - Automation DMX Reading</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 1000 list</t>
+  </si>
+  <si>
+    <t>Email Address/~/First Name/~/Last Name</t>
+  </si>
+  <si>
+    <t>Step 6: Prepop mismatch</t>
+  </si>
+  <si>
+    <t>Step 7: Send or Schedule Invitation</t>
+  </si>
+  <si>
+    <t>Step 8: Send Now</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 1000 list.xls</t>
+  </si>
+  <si>
+    <t>Column1/~/Column2/~/Column3</t>
+  </si>
+  <si>
+    <t>Type Manually 1000 records.txt</t>
+  </si>
+  <si>
+    <t>DNT - Automation DMX Reading - Quick Send</t>
+  </si>
+  <si>
+    <t>Type Manually 999 records.txt</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Contact List Creation - 1000 Records.xls</t>
+  </si>
+  <si>
+    <t>Email Address/~/First Name/~/Last Name/~/Company</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>DMX Manual readings</t>
+  </si>
+  <si>
+    <t>1/~/2/~/3</t>
+  </si>
+  <si>
+    <t>DNT - Automation DMX Reading - Create New</t>
+  </si>
+  <si>
+    <t>Single Use Link</t>
+  </si>
+  <si>
+    <t>kabirtest1@bluwberry.com291</t>
+  </si>
+  <si>
+    <t>kabirtest1@bluwberry.com292</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 999 list.xls</t>
+  </si>
+  <si>
+    <t>dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 999 list</t>
+  </si>
+  <si>
+    <t>Step 6: Reminders ScheduledSelected (100) (diff pages 25 Email from Each page)</t>
+  </si>
+  <si>
+    <t>Step 6: Send/Schedule Invitations</t>
+  </si>
+  <si>
+    <t>SMS invitation numbers.txt</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC4</t>
+  </si>
+  <si>
+    <t>Frequency Table Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC5</t>
+  </si>
+  <si>
+    <t>Conditional Report (Match Every Condition)</t>
+  </si>
+  <si>
+    <t>Step 1 : Add Condition page (2 Conditions)</t>
+  </si>
+  <si>
+    <t>Step 2: Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 3: Re-order Questions</t>
+  </si>
+  <si>
+    <t>Step 4: Select Report Properties</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC6</t>
+  </si>
+  <si>
+    <t>Conditional Report (Match Any Condition)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC7</t>
+  </si>
+  <si>
+    <t>2 Level Cross Tab Report</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Report Properties</t>
+  </si>
+  <si>
+    <t>Step 3 : Select Filter</t>
+  </si>
+  <si>
+    <t>Generate Report (2 Level)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC8</t>
+  </si>
+  <si>
+    <t>3 Level Cross Tab Report</t>
+  </si>
+  <si>
+    <t>Generate Report (3 Level)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC9</t>
+  </si>
+  <si>
+    <t>Pivot Table (With 10 Vertical Variable)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC10</t>
+  </si>
+  <si>
+    <t>Pivot Table (With 1 Vertical Variable)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC11</t>
+  </si>
+  <si>
+    <t>Verbatim Report (Normal Verbatim without Filter)</t>
+  </si>
+  <si>
+    <t>Step 1 : Select Verbatim Questions</t>
+  </si>
+  <si>
+    <t>Step 2: Re-Order Questions</t>
+  </si>
+  <si>
+    <t>Step 4:Select Filter</t>
+  </si>
+  <si>
+    <t>Step 5:Select Grouping Questions</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC12</t>
+  </si>
+  <si>
+    <t>Verbatim Report (With Filter having two conditions)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC13</t>
+  </si>
+  <si>
+    <t>Verbatim Report (With Grouping)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC14</t>
+  </si>
+  <si>
+    <t>Assessment Summary Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC15</t>
+  </si>
+  <si>
+    <t>Response Trend Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC16</t>
+  </si>
+  <si>
+    <t>Statistical Report (No segmentation)</t>
+  </si>
+  <si>
+    <t>Step 3: Select Parameters to Display</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment (No Segment)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC17</t>
+  </si>
+  <si>
+    <t>Statistical Report (Segment based on 1 question)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment  (1 Segment with 5 answer opt)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC18</t>
+  </si>
+  <si>
+    <t>Statistical Report (Segment based on more than 1 question)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment (1 Segment with 1 condition )</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC19</t>
+  </si>
+  <si>
+    <t>Engagement Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Report Details</t>
+  </si>
+  <si>
+    <t>Step 2 : Identify Engagement Questions (8 Question)</t>
+  </si>
+  <si>
+    <t>Step 3: Identify Driver Questions (8 Question)</t>
+  </si>
+  <si>
+    <t>Step 4 : Specify Additional Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5 Composition Analysis </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC20</t>
+  </si>
+  <si>
+    <t>Comparison Report (2 Dataset)</t>
+  </si>
+  <si>
+    <t>Step 1:Select Survey Question</t>
+  </si>
+  <si>
+    <t>Step 3: Select Survey Dataset (Apply condition on both)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Report properties</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC21</t>
+  </si>
+  <si>
+    <t>Comparison Report (5 Dataset)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC22</t>
+  </si>
+  <si>
+    <t>Ballot Box Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Specify Internal IP Address</t>
+  </si>
+  <si>
+    <t>Step 2 : Number of Duplicate Allowed</t>
+  </si>
+  <si>
+    <t>Step 3: Data Review</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC23</t>
+  </si>
+  <si>
+    <t>Advance Pivot Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Select segmentation question</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Survey Question</t>
+  </si>
+  <si>
+    <t>Step 3: Merge answer option</t>
+  </si>
+  <si>
+    <t>Step 5 : Select Filter</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC24</t>
+  </si>
+  <si>
+    <t>Segmentation Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Segmentation Question</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 5: Comparison Segment Data</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC25</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t>DM Home Page</t>
+  </si>
+  <si>
+    <t>DMX Manual Readings</t>
+  </si>
+  <si>
+    <t>Home - DM page</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC26</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records via list)</t>
+  </si>
+  <si>
+    <t>Step 1: Select Type Of Survey URL To Be Sent</t>
+  </si>
+  <si>
+    <t>Step 2: Select Email Message</t>
+  </si>
+  <si>
+    <t>Step 3: Select source of email addresses</t>
+  </si>
+  <si>
+    <t>Step 4: Select List of 1000</t>
+  </si>
+  <si>
+    <t>Step 5 : Mail Merge</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC27</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records via file)</t>
+  </si>
+  <si>
+    <t>Step 4 : Mail Merge</t>
+  </si>
+  <si>
+    <t>Step 5: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC28</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records Type Manually)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC29</t>
+  </si>
+  <si>
+    <t>Quick Send (999 records)</t>
+  </si>
+  <si>
+    <t>Step 1: Send 999 records via Quick Send</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC30</t>
+  </si>
+  <si>
+    <t>List Creation (Import 1000 records with 3 attributes)</t>
+  </si>
+  <si>
+    <t>Step 1: List Manager Main page(account should have 30 list with 5000 records each)</t>
+  </si>
+  <si>
+    <t>Step 2: Define source (Import file of 1 k records)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Populate List </t>
+  </si>
+  <si>
+    <t>Step 4 : List Manager Main page  after List Creation</t>
+  </si>
+  <si>
+    <t>Step 5: Delete Same List</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC31</t>
+  </si>
+  <si>
+    <t>Offline invites for 999  records</t>
+  </si>
+  <si>
+    <t>Step 1: SAP Dashboard (Single URL)</t>
+  </si>
+  <si>
+    <t>Step 2: SAP Page</t>
+  </si>
+  <si>
+    <t>Step 3: Prepopulate survey</t>
+  </si>
+  <si>
+    <t>Step 4 : Template Selection Page</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC32</t>
+  </si>
+  <si>
+    <t>Email Manager Tab wizard</t>
+  </si>
+  <si>
+    <t>Step 1: DM Page-Email Manager Tab</t>
+  </si>
+  <si>
+    <t>Step 2: Select an Email Template (Create New)</t>
+  </si>
+  <si>
+    <t>Step 3: Save the Template</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC33</t>
+  </si>
+  <si>
+    <t>Delete a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Delete a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC34</t>
+  </si>
+  <si>
+    <t>Delete a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Delete a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC35</t>
+  </si>
+  <si>
+    <t>Copy a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Copy a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC36</t>
+  </si>
+  <si>
+    <t>Copy a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Copy a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC37</t>
+  </si>
+  <si>
+    <t>Preview a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Preview a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC38</t>
+  </si>
+  <si>
+    <t>Preview a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Preview a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC39</t>
+  </si>
+  <si>
+    <t>Track survey Search 1 user</t>
+  </si>
+  <si>
+    <t>Step 1: Track survey page load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Search record 1 </t>
+  </si>
+  <si>
+    <t>Step 3: Search record 2</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track survey Delete 100 records per page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Track survey Page Deletion </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC41</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (By File)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (By File)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC42</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (By List)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (By List)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC43</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (Type Manually)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (Type Manually)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC44</t>
+  </si>
+  <si>
+    <t>Reminder Wizard (999 Invites in Surveys)</t>
+  </si>
+  <si>
+    <t>DMX Manual Readings (999 Invites)</t>
+  </si>
+  <si>
+    <t>Step 1: Send/Schedule Reminder to all (Reminder Page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Select Reminder Message </t>
+  </si>
+  <si>
+    <t>Step 3: Schedule Reminders</t>
+  </si>
+  <si>
+    <t>Step 4 : Reminders Send/Schedule ALL (999 reminders)</t>
+  </si>
+  <si>
+    <t>Step 5: Reminders Scheduled Selected (100) (Total 999 reminders)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC45</t>
+  </si>
+  <si>
+    <t>Cancel reminders(1000)</t>
+  </si>
+  <si>
+    <t>DMX Manual Readings - Cancel 1000 Reminders</t>
+  </si>
+  <si>
+    <t>Step 1: Cancel 1000 Reminders</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC46</t>
+  </si>
+  <si>
+    <t>Publish on Facebook</t>
+  </si>
+  <si>
+    <t>Step 1: Facebook Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on Facebook</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC47</t>
+  </si>
+  <si>
+    <t>Publish on Twiiter</t>
+  </si>
+  <si>
+    <t>Step 1: Twiiter Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on Twitter</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC48</t>
+  </si>
+  <si>
+    <t>Publish on LinkedIn</t>
+  </si>
+  <si>
+    <t>Step 1: LinkedIn Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on LinkedIn</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC49</t>
+  </si>
+  <si>
+    <t>Send SMS Invite wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Enter Mobile Numbers </t>
+  </si>
+  <si>
+    <t>Step 2: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>Step 3: Prepop mismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4: Customize SMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5: Preview SMS </t>
+  </si>
+  <si>
+    <t>sogo_sshaikh</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Please select your child's school</t>
+  </si>
+  <si>
+    <t>Tonda Elementary School</t>
+  </si>
+  <si>
+    <t>Q1(b). Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>Q2. What is your primary work location? If you work at more than one buildin</t>
+  </si>
+  <si>
+    <t>Q3. Please rate the overall quality of your school this year.</t>
+  </si>
+  <si>
+    <t>What is your primary work location? If you work at more than one building, you are|Please rate the overall quality of your school this year.|Please select your child's school|Please rate the overall quality of the professional development you received this year.|Please rate the overall school cleanliness.: Excellent|Please rate the overall school cleanliness.: Good|Please rate the overall school cleanliness.: Fair|Please rate the overall school cleanliness.: Poor|How likely is it that you would recommend this company / brand / product / service to a|Select school logo</t>
+  </si>
+  <si>
+    <t>What is your primary work location? If you work at more than one building, you are welc</t>
+  </si>
+  <si>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>Q7(a). Please rate the overall school cleanliness.: Excellent</t>
+  </si>
+  <si>
+    <t>RMX1</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>All Questions available with Img and MM</t>
+  </si>
+  <si>
+    <t>Q7(a). Please rate the overall sch...: Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excellent/~/Good/~/Fair/~/Poor/~/The district provides instructional time and resources to support our school's goals and priorities./~/The district provides sufficient material resources to meet student needs./~/The district has planned for the acquisition and support of technology to support student learning (computer labs, educa/~/ The district provides adequate support for integrating 1:1 technology.</t>
+  </si>
+  <si>
+    <t>Teacher/~/Guidance counselor, media specialist, or other certified instructional specialist/~/Psychologist, social worker, speech pathologist or other auxiliary certified staff/~/Paraprofessional/~/Facilities and operations support staff/~/Food services/~/Administrative support staff, such as clerical/~/In our school, related learning support services are provided for all students based on their needs.</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin</t>
+  </si>
+  <si>
+    <t>Male/~/Allen Early Learning Academy</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin/~/Please select your child's school/~/Please rate the overall school cleanliness.: Excellent/~/Please rate the overall school cleanliness.: Good</t>
+  </si>
+  <si>
+    <t>Male/~/Allen Early Learning Academy/~/Tonda Elementary School/~/1 Star/~/1 Star</t>
+  </si>
+  <si>
+    <t>Q1(b). Gender</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -192,7 +1098,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +1133,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -253,7 +1182,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +1206,38 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -342,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -378,12 +1337,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -391,16 +1363,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -708,10 +1693,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -719,13 +1704,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +1749,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -783,8 +1768,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,41 +1796,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -854,8 +1839,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{D861E7AD-9DE1-4B0F-8186-FCBF4413BBD9}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{4E996C4D-9595-4A4C-8DAB-1BD93C3F2810}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{26721182-B2EF-4285-8C87-025E098BCBB1}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A02861A0-D706-47F4-96CB-5900419946A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -864,15 +1849,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:BE50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
@@ -882,225 +1867,4668 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="18" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="11" max="56" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="15" t="s">
-        <v>31</v>
+      <c r="J2" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" s="4">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="13" t="s">
-        <v>48</v>
+      <c r="J3" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3" s="4">
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="4"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="15" t="s">
-        <v>31</v>
+      <c r="J4" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="4">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="4"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="4"/>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="13"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="13"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="13"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="13"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="13"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="13"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="13"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="13"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="13"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="13"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2201</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="13"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="13"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="13"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="13"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="13"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="13"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="13"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="13"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="13"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="13"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="13"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="13"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="13"/>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" s="4">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="13"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="13"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="13"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" s="4">
+        <v>3</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
+      <c r="AU31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="13"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="13"/>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="13"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="13"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="13"/>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" s="4">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="8"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="13"/>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" s="4">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="13"/>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M38" s="4">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="13"/>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="8"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="13"/>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M40" s="4">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="8"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA40" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB40" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="13"/>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M41" s="4">
+        <v>3</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="13"/>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE42" s="13"/>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M43" s="4">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="9"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE43" s="13"/>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M44" s="4">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT44" s="8"/>
+      <c r="AU44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="9"/>
+      <c r="BB44" s="9"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE44" s="13"/>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M45" s="4">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="9"/>
+      <c r="BB45" s="9"/>
+      <c r="BC45" s="10">
+        <v>4</v>
+      </c>
+      <c r="BD45" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE45" s="13"/>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="M46" s="4">
+        <v>3</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="9"/>
+      <c r="BB46" s="9"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE46" s="13"/>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M47" s="4">
+        <v>3</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="9"/>
+      <c r="BB47" s="9"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="13"/>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M48" s="4">
+        <v>3</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
+      <c r="BC48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="13"/>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M49" s="4">
+        <v>3</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="8"/>
+      <c r="AT49" s="8"/>
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="9"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="13"/>
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M50" s="4">
+        <v>3</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="9"/>
+      <c r="BB50" s="9"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AR25" r:id="rId1" xr:uid="{290B0482-20FF-4A5D-AED1-CC54A70B98E6}"/>
+    <hyperlink ref="BA40" r:id="rId2" xr:uid="{C3A1B44B-AE53-4F99-AE19-43CE736F75D4}"/>
+    <hyperlink ref="BB40" r:id="rId3" xr:uid="{01721FD4-A864-4300-86EE-61435B1297D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C371E0-6834-4C23-817C-ABD54950641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857FC8A-F680-4272-A43F-49A4461AD4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="354">
   <si>
     <t>Environment</t>
   </si>
@@ -394,703 +394,697 @@
     <t>DNT - Automation DMX Reading</t>
   </si>
   <si>
+    <t>Step 6: Prepop mismatch</t>
+  </si>
+  <si>
+    <t>Step 7: Send or Schedule Invitation</t>
+  </si>
+  <si>
+    <t>Step 8: Send Now</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 1000 list.xls</t>
+  </si>
+  <si>
+    <t>Type Manually 1000 records.txt</t>
+  </si>
+  <si>
+    <t>Type Manually 999 records.txt</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Contact List Creation - 1000 Records.xls</t>
+  </si>
+  <si>
+    <t>Email Address/~/First Name/~/Last Name/~/Company</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Single Use Link</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 999 list.xls</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 999 list</t>
+  </si>
+  <si>
+    <t>Step 6: Reminders ScheduledSelected (100) (diff pages 25 Email from Each page)</t>
+  </si>
+  <si>
+    <t>Step 6: Send/Schedule Invitations</t>
+  </si>
+  <si>
+    <t>SMS invitation numbers.txt</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC4</t>
+  </si>
+  <si>
+    <t>Frequency Table Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC5</t>
+  </si>
+  <si>
+    <t>Conditional Report (Match Every Condition)</t>
+  </si>
+  <si>
+    <t>Step 1 : Add Condition page (2 Conditions)</t>
+  </si>
+  <si>
+    <t>Step 2: Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 3: Re-order Questions</t>
+  </si>
+  <si>
+    <t>Step 4: Select Report Properties</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC6</t>
+  </si>
+  <si>
+    <t>Conditional Report (Match Any Condition)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC7</t>
+  </si>
+  <si>
+    <t>2 Level Cross Tab Report</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Report Properties</t>
+  </si>
+  <si>
+    <t>Step 3 : Select Filter</t>
+  </si>
+  <si>
+    <t>Generate Report (2 Level)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC8</t>
+  </si>
+  <si>
+    <t>3 Level Cross Tab Report</t>
+  </si>
+  <si>
+    <t>Generate Report (3 Level)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC9</t>
+  </si>
+  <si>
+    <t>Pivot Table (With 10 Vertical Variable)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC10</t>
+  </si>
+  <si>
+    <t>Pivot Table (With 1 Vertical Variable)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC11</t>
+  </si>
+  <si>
+    <t>Verbatim Report (Normal Verbatim without Filter)</t>
+  </si>
+  <si>
+    <t>Step 1 : Select Verbatim Questions</t>
+  </si>
+  <si>
+    <t>Step 2: Re-Order Questions</t>
+  </si>
+  <si>
+    <t>Step 4:Select Filter</t>
+  </si>
+  <si>
+    <t>Step 5:Select Grouping Questions</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC12</t>
+  </si>
+  <si>
+    <t>Verbatim Report (With Filter having two conditions)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC13</t>
+  </si>
+  <si>
+    <t>Verbatim Report (With Grouping)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC14</t>
+  </si>
+  <si>
+    <t>Assessment Summary Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC15</t>
+  </si>
+  <si>
+    <t>Response Trend Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC16</t>
+  </si>
+  <si>
+    <t>Statistical Report (No segmentation)</t>
+  </si>
+  <si>
+    <t>Step 3: Select Parameters to Display</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment (No Segment)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC17</t>
+  </si>
+  <si>
+    <t>Statistical Report (Segment based on 1 question)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment  (1 Segment with 5 answer opt)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC18</t>
+  </si>
+  <si>
+    <t>Statistical Report (Segment based on more than 1 question)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment (1 Segment with 1 condition )</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC19</t>
+  </si>
+  <si>
+    <t>Engagement Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Report Details</t>
+  </si>
+  <si>
+    <t>Step 2 : Identify Engagement Questions (8 Question)</t>
+  </si>
+  <si>
+    <t>Step 3: Identify Driver Questions (8 Question)</t>
+  </si>
+  <si>
+    <t>Step 4 : Specify Additional Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5 Composition Analysis </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC20</t>
+  </si>
+  <si>
+    <t>Comparison Report (2 Dataset)</t>
+  </si>
+  <si>
+    <t>Step 1:Select Survey Question</t>
+  </si>
+  <si>
+    <t>Step 3: Select Survey Dataset (Apply condition on both)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Report properties</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC21</t>
+  </si>
+  <si>
+    <t>Comparison Report (5 Dataset)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC22</t>
+  </si>
+  <si>
+    <t>Ballot Box Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Specify Internal IP Address</t>
+  </si>
+  <si>
+    <t>Step 2 : Number of Duplicate Allowed</t>
+  </si>
+  <si>
+    <t>Step 3: Data Review</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC23</t>
+  </si>
+  <si>
+    <t>Advance Pivot Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Select segmentation question</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Survey Question</t>
+  </si>
+  <si>
+    <t>Step 3: Merge answer option</t>
+  </si>
+  <si>
+    <t>Step 5 : Select Filter</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC24</t>
+  </si>
+  <si>
+    <t>Segmentation Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Segmentation Question</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 5: Comparison Segment Data</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC25</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t>DM Home Page</t>
+  </si>
+  <si>
+    <t>Home - DM page</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC26</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records via list)</t>
+  </si>
+  <si>
+    <t>Step 1: Select Type Of Survey URL To Be Sent</t>
+  </si>
+  <si>
+    <t>Step 2: Select Email Message</t>
+  </si>
+  <si>
+    <t>Step 3: Select source of email addresses</t>
+  </si>
+  <si>
+    <t>Step 4: Select List of 1000</t>
+  </si>
+  <si>
+    <t>Step 5 : Mail Merge</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC27</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records via file)</t>
+  </si>
+  <si>
+    <t>Step 4 : Mail Merge</t>
+  </si>
+  <si>
+    <t>Step 5: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC28</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records Type Manually)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC29</t>
+  </si>
+  <si>
+    <t>Quick Send (999 records)</t>
+  </si>
+  <si>
+    <t>Step 1: Send 999 records via Quick Send</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC30</t>
+  </si>
+  <si>
+    <t>List Creation (Import 1000 records with 3 attributes)</t>
+  </si>
+  <si>
+    <t>Step 1: List Manager Main page(account should have 30 list with 5000 records each)</t>
+  </si>
+  <si>
+    <t>Step 2: Define source (Import file of 1 k records)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Populate List </t>
+  </si>
+  <si>
+    <t>Step 4 : List Manager Main page  after List Creation</t>
+  </si>
+  <si>
+    <t>Step 5: Delete Same List</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC31</t>
+  </si>
+  <si>
+    <t>Offline invites for 999  records</t>
+  </si>
+  <si>
+    <t>Step 1: SAP Dashboard (Single URL)</t>
+  </si>
+  <si>
+    <t>Step 2: SAP Page</t>
+  </si>
+  <si>
+    <t>Step 3: Prepopulate survey</t>
+  </si>
+  <si>
+    <t>Step 4 : Template Selection Page</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC32</t>
+  </si>
+  <si>
+    <t>Email Manager Tab wizard</t>
+  </si>
+  <si>
+    <t>Step 1: DM Page-Email Manager Tab</t>
+  </si>
+  <si>
+    <t>Step 2: Select an Email Template (Create New)</t>
+  </si>
+  <si>
+    <t>Step 3: Save the Template</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC33</t>
+  </si>
+  <si>
+    <t>Delete a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Delete a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC34</t>
+  </si>
+  <si>
+    <t>Delete a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Delete a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC35</t>
+  </si>
+  <si>
+    <t>Copy a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Copy a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC36</t>
+  </si>
+  <si>
+    <t>Copy a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Copy a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC37</t>
+  </si>
+  <si>
+    <t>Preview a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Preview a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC38</t>
+  </si>
+  <si>
+    <t>Preview a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Preview a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC39</t>
+  </si>
+  <si>
+    <t>Track survey Search 1 user</t>
+  </si>
+  <si>
+    <t>Step 1: Track survey page load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Search record 1 </t>
+  </si>
+  <si>
+    <t>Step 3: Search record 2</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track survey Delete 100 records per page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Track survey Page Deletion </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC41</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (By File)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (By File)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC42</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (By List)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (By List)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC43</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (Type Manually)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (Type Manually)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC44</t>
+  </si>
+  <si>
+    <t>Reminder Wizard (999 Invites in Surveys)</t>
+  </si>
+  <si>
+    <t>Step 1: Send/Schedule Reminder to all (Reminder Page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Select Reminder Message </t>
+  </si>
+  <si>
+    <t>Step 3: Schedule Reminders</t>
+  </si>
+  <si>
+    <t>Step 4 : Reminders Send/Schedule ALL (999 reminders)</t>
+  </si>
+  <si>
+    <t>Step 5: Reminders Scheduled Selected (100) (Total 999 reminders)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC45</t>
+  </si>
+  <si>
+    <t>Cancel reminders(1000)</t>
+  </si>
+  <si>
+    <t>Step 1: Cancel 1000 Reminders</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC46</t>
+  </si>
+  <si>
+    <t>Publish on Facebook</t>
+  </si>
+  <si>
+    <t>Step 1: Facebook Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on Facebook</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC47</t>
+  </si>
+  <si>
+    <t>Publish on Twiiter</t>
+  </si>
+  <si>
+    <t>Step 1: Twiiter Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on Twitter</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC48</t>
+  </si>
+  <si>
+    <t>Publish on LinkedIn</t>
+  </si>
+  <si>
+    <t>Step 1: LinkedIn Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on LinkedIn</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC49</t>
+  </si>
+  <si>
+    <t>Send SMS Invite wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Enter Mobile Numbers </t>
+  </si>
+  <si>
+    <t>Step 2: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>Step 3: Prepop mismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4: Customize SMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5: Preview SMS </t>
+  </si>
+  <si>
+    <t>sogo_sshaikh</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Please select your child's school</t>
+  </si>
+  <si>
+    <t>Tonda Elementary School</t>
+  </si>
+  <si>
+    <t>Q1(b). Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>Q2. What is your primary work location? If you work at more than one buildin</t>
+  </si>
+  <si>
+    <t>Q3. Please rate the overall quality of your school this year.</t>
+  </si>
+  <si>
+    <t>What is your primary work location? If you work at more than one building, you are|Please rate the overall quality of your school this year.|Please select your child's school|Please rate the overall quality of the professional development you received this year.|Please rate the overall school cleanliness.: Excellent|Please rate the overall school cleanliness.: Good|Please rate the overall school cleanliness.: Fair|Please rate the overall school cleanliness.: Poor|How likely is it that you would recommend this company / brand / product / service to a|Select school logo</t>
+  </si>
+  <si>
+    <t>What is your primary work location? If you work at more than one building, you are welc</t>
+  </si>
+  <si>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>Q7(a). Please rate the overall school cleanliness.: Excellent</t>
+  </si>
+  <si>
+    <t>RMX1</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>All Questions available with Img and MM</t>
+  </si>
+  <si>
+    <t>Q7(a). Please rate the overall sch...: Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excellent/~/Good/~/Fair/~/Poor/~/The district provides instructional time and resources to support our school's goals and priorities./~/The district provides sufficient material resources to meet student needs./~/The district has planned for the acquisition and support of technology to support student learning (computer labs, educa/~/ The district provides adequate support for integrating 1:1 technology.</t>
+  </si>
+  <si>
+    <t>Teacher/~/Guidance counselor, media specialist, or other certified instructional specialist/~/Psychologist, social worker, speech pathologist or other auxiliary certified staff/~/Paraprofessional/~/Facilities and operations support staff/~/Food services/~/Administrative support staff, such as clerical/~/In our school, related learning support services are provided for all students based on their needs.</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin</t>
+  </si>
+  <si>
+    <t>Male/~/Allen Early Learning Academy</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin/~/Please select your child's school/~/Please rate the overall school cleanliness.: Excellent/~/Please rate the overall school cleanliness.: Good</t>
+  </si>
+  <si>
+    <t>Male/~/Allen Early Learning Academy/~/Tonda Elementary School/~/1 Star/~/1 Star</t>
+  </si>
+  <si>
+    <t>Q1(b). Gender</t>
+  </si>
+  <si>
+    <t>QA LB</t>
+  </si>
+  <si>
+    <t>Email Address/~/First Name</t>
+  </si>
+  <si>
     <t>DNT- Automation DMX 1000 list</t>
   </si>
   <si>
-    <t>Email Address/~/First Name/~/Last Name</t>
-  </si>
-  <si>
-    <t>Step 6: Prepop mismatch</t>
-  </si>
-  <si>
-    <t>Step 7: Send or Schedule Invitation</t>
-  </si>
-  <si>
-    <t>Step 8: Send Now</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 1000 list.xls</t>
-  </si>
-  <si>
-    <t>Column1/~/Column2/~/Column3</t>
-  </si>
-  <si>
-    <t>Type Manually 1000 records.txt</t>
-  </si>
-  <si>
-    <t>DNT - Automation DMX Reading - Quick Send</t>
-  </si>
-  <si>
-    <t>Type Manually 999 records.txt</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Contact List Creation - 1000 Records.xls</t>
-  </si>
-  <si>
-    <t>Email Address/~/First Name/~/Last Name/~/Company</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>DMX Manual readings</t>
-  </si>
-  <si>
-    <t>1/~/2/~/3</t>
-  </si>
-  <si>
-    <t>DNT - Automation DMX Reading - Create New</t>
-  </si>
-  <si>
-    <t>Single Use Link</t>
-  </si>
-  <si>
-    <t>kabirtest1@bluwberry.com291</t>
-  </si>
-  <si>
-    <t>kabirtest1@bluwberry.com292</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 999 list.xls</t>
-  </si>
-  <si>
-    <t>dd/mm/yyyy</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 999 list</t>
-  </si>
-  <si>
-    <t>Step 6: Reminders ScheduledSelected (100) (diff pages 25 Email from Each page)</t>
-  </si>
-  <si>
-    <t>Step 6: Send/Schedule Invitations</t>
-  </si>
-  <si>
-    <t>SMS invitation numbers.txt</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC4</t>
-  </si>
-  <si>
-    <t>Frequency Table Report</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC5</t>
-  </si>
-  <si>
-    <t>Conditional Report (Match Every Condition)</t>
-  </si>
-  <si>
-    <t>Step 1 : Add Condition page (2 Conditions)</t>
-  </si>
-  <si>
-    <t>Step 2: Select Survey Questions</t>
-  </si>
-  <si>
-    <t>Step 3: Re-order Questions</t>
-  </si>
-  <si>
-    <t>Step 4: Select Report Properties</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC6</t>
-  </si>
-  <si>
-    <t>Conditional Report (Match Any Condition)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC7</t>
-  </si>
-  <si>
-    <t>2 Level Cross Tab Report</t>
-  </si>
-  <si>
-    <t>Step 2 : Select Report Properties</t>
-  </si>
-  <si>
-    <t>Step 3 : Select Filter</t>
-  </si>
-  <si>
-    <t>Generate Report (2 Level)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC8</t>
-  </si>
-  <si>
-    <t>3 Level Cross Tab Report</t>
-  </si>
-  <si>
-    <t>Generate Report (3 Level)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC9</t>
-  </si>
-  <si>
-    <t>Pivot Table (With 10 Vertical Variable)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC10</t>
-  </si>
-  <si>
-    <t>Pivot Table (With 1 Vertical Variable)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC11</t>
-  </si>
-  <si>
-    <t>Verbatim Report (Normal Verbatim without Filter)</t>
-  </si>
-  <si>
-    <t>Step 1 : Select Verbatim Questions</t>
-  </si>
-  <si>
-    <t>Step 2: Re-Order Questions</t>
-  </si>
-  <si>
-    <t>Step 4:Select Filter</t>
-  </si>
-  <si>
-    <t>Step 5:Select Grouping Questions</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC12</t>
-  </si>
-  <si>
-    <t>Verbatim Report (With Filter having two conditions)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC13</t>
-  </si>
-  <si>
-    <t>Verbatim Report (With Grouping)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC14</t>
-  </si>
-  <si>
-    <t>Assessment Summary Report</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC15</t>
-  </si>
-  <si>
-    <t>Response Trend Report</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC16</t>
-  </si>
-  <si>
-    <t>Statistical Report (No segmentation)</t>
-  </si>
-  <si>
-    <t>Step 3: Select Parameters to Display</t>
-  </si>
-  <si>
-    <t>Step 4: Select Segment (No Segment)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC17</t>
-  </si>
-  <si>
-    <t>Statistical Report (Segment based on 1 question)</t>
-  </si>
-  <si>
-    <t>Step 4: Select Segment  (1 Segment with 5 answer opt)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC18</t>
-  </si>
-  <si>
-    <t>Statistical Report (Segment based on more than 1 question)</t>
-  </si>
-  <si>
-    <t>Step 4: Select Segment (1 Segment with 1 condition )</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC19</t>
-  </si>
-  <si>
-    <t>Engagement Report</t>
-  </si>
-  <si>
-    <t>Step 1 : Report Details</t>
-  </si>
-  <si>
-    <t>Step 2 : Identify Engagement Questions (8 Question)</t>
-  </si>
-  <si>
-    <t>Step 3: Identify Driver Questions (8 Question)</t>
-  </si>
-  <si>
-    <t>Step 4 : Specify Additional Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5 Composition Analysis </t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC20</t>
-  </si>
-  <si>
-    <t>Comparison Report (2 Dataset)</t>
-  </si>
-  <si>
-    <t>Step 1:Select Survey Question</t>
-  </si>
-  <si>
-    <t>Step 3: Select Survey Dataset (Apply condition on both)</t>
-  </si>
-  <si>
-    <t>Step 4: Select Report properties</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC21</t>
-  </si>
-  <si>
-    <t>Comparison Report (5 Dataset)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC22</t>
-  </si>
-  <si>
-    <t>Ballot Box Report</t>
-  </si>
-  <si>
-    <t>Step 1 : Specify Internal IP Address</t>
-  </si>
-  <si>
-    <t>Step 2 : Number of Duplicate Allowed</t>
-  </si>
-  <si>
-    <t>Step 3: Data Review</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC23</t>
-  </si>
-  <si>
-    <t>Advance Pivot Report</t>
-  </si>
-  <si>
-    <t>Step 1 : Select segmentation question</t>
-  </si>
-  <si>
-    <t>Step 2 : Select Survey Question</t>
-  </si>
-  <si>
-    <t>Step 3: Merge answer option</t>
-  </si>
-  <si>
-    <t>Step 5 : Select Filter</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC24</t>
-  </si>
-  <si>
-    <t>Segmentation Report</t>
-  </si>
-  <si>
-    <t>Step 1: Select Segmentation Question</t>
-  </si>
-  <si>
-    <t>Step 2 : Select Survey Questions</t>
-  </si>
-  <si>
-    <t>Step 5: Comparison Segment Data</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC25</t>
-  </si>
-  <si>
-    <t>DMX</t>
-  </si>
-  <si>
-    <t>DM Home Page</t>
-  </si>
-  <si>
-    <t>DMX Manual Readings</t>
-  </si>
-  <si>
-    <t>Home - DM page</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC26</t>
-  </si>
-  <si>
-    <t>Invitation Wizard (1000 records via list)</t>
-  </si>
-  <si>
-    <t>Step 1: Select Type Of Survey URL To Be Sent</t>
-  </si>
-  <si>
-    <t>Step 2: Select Email Message</t>
-  </si>
-  <si>
-    <t>Step 3: Select source of email addresses</t>
-  </si>
-  <si>
-    <t>Step 4: Select List of 1000</t>
-  </si>
-  <si>
-    <t>Step 5 : Mail Merge</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC27</t>
-  </si>
-  <si>
-    <t>Invitation Wizard (1000 records via file)</t>
-  </si>
-  <si>
-    <t>Step 4 : Mail Merge</t>
-  </si>
-  <si>
-    <t>Step 5: Pre-Populate Survey</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC28</t>
-  </si>
-  <si>
-    <t>Invitation Wizard (1000 records Type Manually)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC29</t>
-  </si>
-  <si>
-    <t>Quick Send (999 records)</t>
-  </si>
-  <si>
-    <t>Step 1: Send 999 records via Quick Send</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC30</t>
-  </si>
-  <si>
-    <t>List Creation (Import 1000 records with 3 attributes)</t>
-  </si>
-  <si>
-    <t>Step 1: List Manager Main page(account should have 30 list with 5000 records each)</t>
-  </si>
-  <si>
-    <t>Step 2: Define source (Import file of 1 k records)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3: Populate List </t>
-  </si>
-  <si>
-    <t>Step 4 : List Manager Main page  after List Creation</t>
-  </si>
-  <si>
-    <t>Step 5: Delete Same List</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC31</t>
-  </si>
-  <si>
-    <t>Offline invites for 999  records</t>
-  </si>
-  <si>
-    <t>Step 1: SAP Dashboard (Single URL)</t>
-  </si>
-  <si>
-    <t>Step 2: SAP Page</t>
-  </si>
-  <si>
-    <t>Step 3: Prepopulate survey</t>
-  </si>
-  <si>
-    <t>Step 4 : Template Selection Page</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC32</t>
-  </si>
-  <si>
-    <t>Email Manager Tab wizard</t>
-  </si>
-  <si>
-    <t>Step 1: DM Page-Email Manager Tab</t>
-  </si>
-  <si>
-    <t>Step 2: Select an Email Template (Create New)</t>
-  </si>
-  <si>
-    <t>Step 3: Save the Template</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC33</t>
-  </si>
-  <si>
-    <t>Delete a Template Grid View</t>
-  </si>
-  <si>
-    <t>Step 1: Delete a Template Grid View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC34</t>
-  </si>
-  <si>
-    <t>Delete a Template List View</t>
-  </si>
-  <si>
-    <t>Step 1: Delete a Template List View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC35</t>
-  </si>
-  <si>
-    <t>Copy a Template Grid View</t>
-  </si>
-  <si>
-    <t>Step 1: Copy a Template Grid View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC36</t>
-  </si>
-  <si>
-    <t>Copy a Template List View</t>
-  </si>
-  <si>
-    <t>Step 1: Copy a Template List View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC37</t>
-  </si>
-  <si>
-    <t>Preview a Template Grid View</t>
-  </si>
-  <si>
-    <t>Step 1: Preview a Template Grid View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC38</t>
-  </si>
-  <si>
-    <t>Preview a Template List View</t>
-  </si>
-  <si>
-    <t>Step 1: Preview a Template List View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC39</t>
-  </si>
-  <si>
-    <t>Track survey Search 1 user</t>
-  </si>
-  <si>
-    <t>Step 1: Track survey page load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 2: Search record 1 </t>
-  </si>
-  <si>
-    <t>Step 3: Search record 2</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Track survey Delete 100 records per page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Track survey Page Deletion </t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC41</t>
-  </si>
-  <si>
-    <t>Schedule 999 records (By File)</t>
-  </si>
-  <si>
-    <t>Step 1: Schedule 999 records (By File)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC42</t>
-  </si>
-  <si>
-    <t>Schedule 999 records (By List)</t>
-  </si>
-  <si>
-    <t>Step 1: Schedule 999 records (By List)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC43</t>
-  </si>
-  <si>
-    <t>Schedule 999 records (Type Manually)</t>
-  </si>
-  <si>
-    <t>Step 1: Schedule 999 records (Type Manually)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC44</t>
-  </si>
-  <si>
-    <t>Reminder Wizard (999 Invites in Surveys)</t>
-  </si>
-  <si>
-    <t>DMX Manual Readings (999 Invites)</t>
-  </si>
-  <si>
-    <t>Step 1: Send/Schedule Reminder to all (Reminder Page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 2: Select Reminder Message </t>
-  </si>
-  <si>
-    <t>Step 3: Schedule Reminders</t>
-  </si>
-  <si>
-    <t>Step 4 : Reminders Send/Schedule ALL (999 reminders)</t>
-  </si>
-  <si>
-    <t>Step 5: Reminders Scheduled Selected (100) (Total 999 reminders)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC45</t>
-  </si>
-  <si>
-    <t>Cancel reminders(1000)</t>
-  </si>
-  <si>
-    <t>DMX Manual Readings - Cancel 1000 Reminders</t>
-  </si>
-  <si>
-    <t>Step 1: Cancel 1000 Reminders</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC46</t>
-  </si>
-  <si>
-    <t>Publish on Facebook</t>
-  </si>
-  <si>
-    <t>Step 1: Facebook Post Preview</t>
-  </si>
-  <si>
-    <t>Step 2: Publish on Facebook</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC47</t>
-  </si>
-  <si>
-    <t>Publish on Twiiter</t>
-  </si>
-  <si>
-    <t>Step 1: Twiiter Post Preview</t>
-  </si>
-  <si>
-    <t>Step 2: Publish on Twitter</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC48</t>
-  </si>
-  <si>
-    <t>Publish on LinkedIn</t>
-  </si>
-  <si>
-    <t>Step 1: LinkedIn Post Preview</t>
-  </si>
-  <si>
-    <t>Step 2: Publish on LinkedIn</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC49</t>
-  </si>
-  <si>
-    <t>Send SMS Invite wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Enter Mobile Numbers </t>
-  </si>
-  <si>
-    <t>Step 2: Pre-Populate Survey</t>
-  </si>
-  <si>
-    <t>Step 3: Prepop mismatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 4: Customize SMS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5: Preview SMS </t>
-  </si>
-  <si>
-    <t>sogo_sshaikh</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>Please provide your details: Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Please select your child's school</t>
-  </si>
-  <si>
-    <t>Tonda Elementary School</t>
-  </si>
-  <si>
-    <t>Q1(b). Please provide your details: Gender</t>
-  </si>
-  <si>
-    <t>Q2. What is your primary work location? If you work at more than one buildin</t>
-  </si>
-  <si>
-    <t>Q3. Please rate the overall quality of your school this year.</t>
-  </si>
-  <si>
-    <t>What is your primary work location? If you work at more than one building, you are|Please rate the overall quality of your school this year.|Please select your child's school|Please rate the overall quality of the professional development you received this year.|Please rate the overall school cleanliness.: Excellent|Please rate the overall school cleanliness.: Good|Please rate the overall school cleanliness.: Fair|Please rate the overall school cleanliness.: Poor|How likely is it that you would recommend this company / brand / product / service to a|Select school logo</t>
-  </si>
-  <si>
-    <t>What is your primary work location? If you work at more than one building, you are welc</t>
-  </si>
-  <si>
-    <t>Readings</t>
-  </si>
-  <si>
-    <t>Q7(a). Please rate the overall school cleanliness.: Excellent</t>
-  </si>
-  <si>
-    <t>RMX1</t>
-  </si>
-  <si>
-    <t>RMX2</t>
-  </si>
-  <si>
-    <t>All Questions available with Img and MM</t>
-  </si>
-  <si>
-    <t>Q7(a). Please rate the overall sch...: Excellent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excellent/~/Good/~/Fair/~/Poor/~/The district provides instructional time and resources to support our school's goals and priorities./~/The district provides sufficient material resources to meet student needs./~/The district has planned for the acquisition and support of technology to support student learning (computer labs, educa/~/ The district provides adequate support for integrating 1:1 technology.</t>
-  </si>
-  <si>
-    <t>Teacher/~/Guidance counselor, media specialist, or other certified instructional specialist/~/Psychologist, social worker, speech pathologist or other auxiliary certified staff/~/Paraprofessional/~/Facilities and operations support staff/~/Food services/~/Administrative support staff, such as clerical/~/In our school, related learning support services are provided for all students based on their needs.</t>
-  </si>
-  <si>
-    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin</t>
-  </si>
-  <si>
-    <t>Male/~/Allen Early Learning Academy</t>
-  </si>
-  <si>
-    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin/~/Please select your child's school/~/Please rate the overall school cleanliness.: Excellent/~/Please rate the overall school cleanliness.: Good</t>
-  </si>
-  <si>
-    <t>Male/~/Allen Early Learning Academy/~/Tonda Elementary School/~/1 Star/~/1 Star</t>
-  </si>
-  <si>
-    <t>Q1(b). Gender</t>
+    <t>Column1/~/Column3/~/Column4</t>
+  </si>
+  <si>
+    <t>Quick Send Template</t>
+  </si>
+  <si>
+    <t>kabirtest89@burlingtontechnology.net</t>
+  </si>
+  <si>
+    <t>kabirtest88@burlingtontechnology.net</t>
+  </si>
+  <si>
+    <t>dd-MMM-yyyy</t>
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Password - Label text not present on page.</t>
+  </si>
+  <si>
+    <t>DNT - SAP Readings</t>
+  </si>
+  <si>
+    <t>TB Email/~/LB/~/CB</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1092,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1118,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1143,6 +1138,122 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1170,19 +1281,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1201,32 +1301,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -1241,7 +1316,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1251,8 +1326,108 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1261,13 +1436,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1355,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1370,22 +1541,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1796,7 +1983,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -1810,7 +1997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -1824,13 +2011,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1851,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
   <dimension ref="A1:BE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2236,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2058,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -2068,7 +2255,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="37" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6"/>
@@ -2140,7 +2327,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2149,7 +2336,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
@@ -2159,7 +2346,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="37" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="6"/>
@@ -2229,7 +2416,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2238,7 +2425,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -2248,7 +2435,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="37" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="6"/>
@@ -2315,10 +2502,10 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2327,20 +2514,20 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="4" t="s">
         <v>33</v>
       </c>
@@ -2400,11 +2587,11 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="13"/>
+      <c r="BE5" s="12"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2416,20 +2603,20 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="J6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
@@ -2437,16 +2624,16 @@
         <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>37</v>
@@ -2459,22 +2646,22 @@
         <v>91</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>93</v>
@@ -2505,14 +2692,14 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="13"/>
+      <c r="BE6" s="12"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2521,20 +2708,20 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2542,16 +2729,16 @@
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>37</v>
@@ -2564,22 +2751,22 @@
         <v>94</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>95</v>
@@ -2610,14 +2797,14 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-      <c r="BE7" s="13"/>
+      <c r="BE7" s="12"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -2626,20 +2813,20 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2650,13 +2837,13 @@
         <v>38</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2672,10 +2859,10 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -2701,14 +2888,14 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="BE8" s="13"/>
+      <c r="BE8" s="12"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2717,20 +2904,20 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2741,13 +2928,13 @@
         <v>38</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2763,13 +2950,13 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -2794,14 +2981,14 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-      <c r="BE9" s="13"/>
+      <c r="BE9" s="12"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2810,20 +2997,20 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2834,10 +3021,10 @@
         <v>38</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>37</v>
@@ -2858,10 +3045,10 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -2887,14 +3074,14 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-      <c r="BE10" s="13"/>
+      <c r="BE10" s="12"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -2903,20 +3090,20 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2927,10 +3114,10 @@
         <v>38</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>37</v>
@@ -2951,10 +3138,10 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -2980,14 +3167,14 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-      <c r="BE11" s="13"/>
+      <c r="BE11" s="12"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -2996,20 +3183,20 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="4" t="s">
         <v>33</v>
       </c>
@@ -3017,19 +3204,19 @@
         <v>3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>98</v>
@@ -3073,14 +3260,14 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-      <c r="BE12" s="13"/>
+      <c r="BE12" s="12"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -3089,20 +3276,20 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="4" t="s">
         <v>33</v>
       </c>
@@ -3110,19 +3297,19 @@
         <v>3</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>98</v>
@@ -3144,7 +3331,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
@@ -3168,14 +3355,14 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
-      <c r="BE13" s="13"/>
+      <c r="BE13" s="12"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -3184,20 +3371,20 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="4" t="s">
         <v>33</v>
       </c>
@@ -3205,19 +3392,19 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>98</v>
@@ -3240,7 +3427,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -3263,14 +3450,14 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
-      <c r="BE14" s="13"/>
+      <c r="BE14" s="12"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -3279,22 +3466,22 @@
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
-        <v>346</v>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="M15" s="4">
         <v>2201</v>
@@ -3352,14 +3539,14 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="BE15" s="13"/>
+      <c r="BE15" s="12"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -3368,20 +3555,20 @@
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
@@ -3433,14 +3620,14 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
-      <c r="BE16" s="13"/>
+      <c r="BE16" s="12"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -3449,20 +3636,20 @@
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="4" t="s">
         <v>33</v>
       </c>
@@ -3476,10 +3663,10 @@
         <v>34</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>98</v>
@@ -3524,14 +3711,14 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
-      <c r="BE17" s="13"/>
+      <c r="BE17" s="12"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -3540,20 +3727,20 @@
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="4" t="s">
         <v>33</v>
       </c>
@@ -3567,10 +3754,10 @@
         <v>34</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>98</v>
@@ -3595,7 +3782,7 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -3617,14 +3804,14 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
-      <c r="BE18" s="13"/>
+      <c r="BE18" s="12"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -3633,20 +3820,20 @@
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
         <v>33</v>
       </c>
@@ -3660,10 +3847,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>98</v>
@@ -3688,13 +3875,13 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>105</v>
@@ -3716,14 +3903,14 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
-      <c r="BE19" s="13"/>
+      <c r="BE19" s="12"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -3732,20 +3919,20 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3753,19 +3940,19 @@
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>106</v>
@@ -3801,10 +3988,10 @@
       </c>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -3819,14 +4006,14 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-      <c r="BE20" s="13"/>
+      <c r="BE20" s="12"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -3835,20 +4022,20 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="13"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3856,16 +4043,16 @@
         <v>3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>98</v>
@@ -3878,13 +4065,13 @@
         <v>110</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -3918,14 +4105,14 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="BE21" s="13"/>
+      <c r="BE21" s="12"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -3934,20 +4121,20 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
         <v>33</v>
       </c>
@@ -3955,16 +4142,16 @@
         <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>98</v>
@@ -3977,13 +4164,13 @@
         <v>112</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -4017,14 +4204,14 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
-      <c r="BE22" s="13"/>
+      <c r="BE22" s="12"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -4033,20 +4220,20 @@
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
         <v>33</v>
       </c>
@@ -4054,13 +4241,13 @@
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>37</v>
@@ -4108,14 +4295,14 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
-      <c r="BE23" s="13"/>
+      <c r="BE23" s="12"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -4124,20 +4311,20 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="4" t="s">
         <v>33</v>
       </c>
@@ -4145,19 +4332,19 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>98</v>
@@ -4199,14 +4386,14 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
-      <c r="BE24" s="13"/>
+      <c r="BE24" s="12"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -4215,20 +4402,20 @@
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
         <v>33</v>
       </c>
@@ -4236,19 +4423,19 @@
         <v>3</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>115</v>
@@ -4274,7 +4461,7 @@
       <c r="AH25" s="7"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -4298,14 +4485,14 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
-      <c r="BE25" s="13"/>
+      <c r="BE25" s="12"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -4314,28 +4501,28 @@
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="M26" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -4379,14 +4566,14 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
-      <c r="BE26" s="13"/>
+      <c r="BE26" s="12"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -4395,40 +4582,40 @@
         <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
       <c r="J27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13" t="s">
-        <v>229</v>
+      <c r="K27" s="12"/>
+      <c r="L27" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M27" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>118</v>
@@ -4468,11 +4655,11 @@
         <v>122</v>
       </c>
       <c r="AT27" s="8" t="s">
-        <v>123</v>
+        <v>344</v>
       </c>
       <c r="AU27" s="8"/>
       <c r="AV27" s="1" t="s">
-        <v>124</v>
+        <v>343</v>
       </c>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
@@ -4482,14 +4669,14 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
-      <c r="BE27" s="13"/>
+      <c r="BE27" s="12"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -4498,49 +4685,49 @@
         <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13" t="s">
+      <c r="J28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M28" s="4">
+        <v>780</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M28" s="4">
-        <v>3</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="S28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="7"/>
@@ -4570,10 +4757,10 @@
       </c>
       <c r="AT28" s="8"/>
       <c r="AU28" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
@@ -4583,14 +4770,14 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
-      <c r="BE28" s="13"/>
+      <c r="BE28" s="12"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -4599,49 +4786,49 @@
         <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M29" s="4">
+        <v>780</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M29" s="4">
-        <v>3</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="R29" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="S29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="7"/>
@@ -4671,10 +4858,10 @@
       </c>
       <c r="AT29" s="8"/>
       <c r="AU29" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
@@ -4684,14 +4871,14 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
-      <c r="BE29" s="13"/>
+      <c r="BE29" s="12"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -4700,28 +4887,28 @@
         <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13" t="s">
-        <v>229</v>
+      <c r="J30" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M30" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -4754,15 +4941,15 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="8" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="AT30" s="8"/>
       <c r="AU30" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
@@ -4771,14 +4958,14 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
-      <c r="BE30" s="13"/>
+      <c r="BE30" s="12"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -4787,40 +4974,40 @@
         <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13" t="s">
-        <v>229</v>
+      <c r="J31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M31" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -4851,29 +5038,29 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="8"/>
       <c r="AU31" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
-      <c r="BE31" s="13"/>
+      <c r="BE31" s="12"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>254</v>
+      <c r="A32" s="39" t="s">
+        <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -4882,37 +5069,39 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13" t="s">
-        <v>229</v>
+      <c r="J32" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M32" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4943,11 +5132,11 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="AU32" s="8"/>
       <c r="AV32" s="1" t="s">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -4957,14 +5146,14 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
-      <c r="BE32" s="13"/>
+      <c r="BE32" s="12"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -4973,34 +5162,34 @@
         <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13" t="s">
-        <v>229</v>
+      <c r="J33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M33" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -5031,7 +5220,7 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT33" s="8"/>
       <c r="AU33" s="8"/>
@@ -5044,14 +5233,14 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
-      <c r="BE33" s="13"/>
+      <c r="BE33" s="12"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5060,28 +5249,28 @@
         <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13" t="s">
-        <v>229</v>
+      <c r="K34" s="12"/>
+      <c r="L34" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M34" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -5114,7 +5303,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT34" s="8"/>
       <c r="AU34" s="8"/>
@@ -5127,14 +5316,14 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
-      <c r="BE34" s="13"/>
+      <c r="BE34" s="12"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -5143,28 +5332,28 @@
         <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13" t="s">
-        <v>229</v>
+      <c r="K35" s="12"/>
+      <c r="L35" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M35" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -5197,7 +5386,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT35" s="8"/>
       <c r="AU35" s="8"/>
@@ -5210,14 +5399,14 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
-      <c r="BE35" s="13"/>
+      <c r="BE35" s="12"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -5226,28 +5415,28 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13" t="s">
-        <v>229</v>
+      <c r="J36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M36" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -5280,7 +5469,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT36" s="8"/>
       <c r="AU36" s="8"/>
@@ -5293,14 +5482,14 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
-      <c r="BE36" s="13"/>
+      <c r="BE36" s="12"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -5309,28 +5498,28 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13" t="s">
-        <v>229</v>
+      <c r="J37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M37" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -5363,7 +5552,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="2"/>
       <c r="AS37" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT37" s="8"/>
       <c r="AU37" s="8"/>
@@ -5376,14 +5565,14 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
-      <c r="BE37" s="13"/>
+      <c r="BE37" s="12"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -5392,28 +5581,28 @@
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13" t="s">
-        <v>229</v>
+      <c r="J38" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M38" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -5446,7 +5635,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT38" s="8"/>
       <c r="AU38" s="8"/>
@@ -5459,14 +5648,14 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
-      <c r="BE38" s="13"/>
+      <c r="BE38" s="12"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -5475,28 +5664,28 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13" t="s">
-        <v>229</v>
+      <c r="J39" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M39" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -5529,7 +5718,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="2"/>
       <c r="AS39" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AT39" s="8"/>
       <c r="AU39" s="8"/>
@@ -5542,14 +5731,14 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
-      <c r="BE39" s="13"/>
+      <c r="BE39" s="12"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -5558,34 +5747,34 @@
         <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13" t="s">
-        <v>229</v>
+      <c r="J40" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M40" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -5623,24 +5812,24 @@
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="BA40" s="9" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="BB40" s="9" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
-      <c r="BE40" s="13"/>
+      <c r="BE40" s="12"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -5649,28 +5838,28 @@
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13" t="s">
-        <v>229</v>
+      <c r="J41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M41" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -5710,22 +5899,22 @@
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
       <c r="BC41" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="BD41" s="10"/>
-      <c r="BE41" s="13"/>
+      <c r="BE41" s="12"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -5734,28 +5923,28 @@
         <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13" t="s">
-        <v>229</v>
+      <c r="J42" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M42" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -5792,10 +5981,10 @@
       </c>
       <c r="AT42" s="8"/>
       <c r="AU42" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
@@ -5805,16 +5994,16 @@
       <c r="BB42" s="9"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE42" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="BE42" s="12"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -5823,28 +6012,28 @@
         <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13" t="s">
-        <v>229</v>
+      <c r="J43" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M43" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -5880,11 +6069,11 @@
         <v>122</v>
       </c>
       <c r="AT43" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AU43" s="8"/>
       <c r="AV43" s="1" t="s">
-        <v>124</v>
+        <v>343</v>
       </c>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
@@ -5894,16 +6083,16 @@
       <c r="BB43" s="9"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE43" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="BE43" s="12"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -5912,28 +6101,28 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13" t="s">
-        <v>229</v>
+      <c r="J44" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M44" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -5970,10 +6159,10 @@
       </c>
       <c r="AT44" s="8"/>
       <c r="AU44" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
@@ -5983,16 +6172,16 @@
       <c r="BB44" s="9"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE44" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="BE44" s="12"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -6001,43 +6190,43 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13" t="s">
-        <v>302</v>
+      <c r="J45" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M45" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -6071,10 +6260,10 @@
       </c>
       <c r="AT45" s="8"/>
       <c r="AU45" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AV45" s="1" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
@@ -6086,16 +6275,16 @@
         <v>4</v>
       </c>
       <c r="BD45" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE45" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="BE45" s="12"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -6104,28 +6293,28 @@
         <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13" t="s">
-        <v>310</v>
+      <c r="K46" s="12"/>
+      <c r="L46" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M46" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -6162,10 +6351,10 @@
       </c>
       <c r="AT46" s="8"/>
       <c r="AU46" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AV46" s="1" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
@@ -6175,16 +6364,16 @@
       <c r="BB46" s="9"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE46" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="BE46" s="12"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -6193,31 +6382,31 @@
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13" t="s">
-        <v>229</v>
+      <c r="J47" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M47" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -6260,14 +6449,14 @@
       <c r="BB47" s="9"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
-      <c r="BE47" s="13"/>
+      <c r="BE47" s="12"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -6276,31 +6465,31 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13" t="s">
-        <v>229</v>
+      <c r="J48" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="12"/>
+      <c r="L48" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M48" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -6343,14 +6532,14 @@
       <c r="BB48" s="9"/>
       <c r="BC48" s="10"/>
       <c r="BD48" s="10"/>
-      <c r="BE48" s="13"/>
+      <c r="BE48" s="12"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -6359,31 +6548,31 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13" t="s">
-        <v>229</v>
+      <c r="J49" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M49" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -6426,14 +6615,14 @@
       <c r="BB49" s="9"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
-      <c r="BE49" s="13"/>
+      <c r="BE49" s="12"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -6442,43 +6631,43 @@
         <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13" t="s">
-        <v>229</v>
+      <c r="J50" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M50" s="4">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -6508,7 +6697,7 @@
       <c r="AS50" s="8"/>
       <c r="AT50" s="8"/>
       <c r="AU50" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
@@ -6519,7 +6708,7 @@
       <c r="BB50" s="9"/>
       <c r="BC50" s="10"/>
       <c r="BD50" s="10"/>
-      <c r="BE50" s="13"/>
+      <c r="BE50" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857FC8A-F680-4272-A43F-49A4461AD4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21CAF7-A94B-4349-89E5-A2C1DA2E9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="362">
   <si>
     <t>Environment</t>
   </si>
@@ -1075,16 +1075,40 @@
     <t>dd-MMM-yyyy</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number of Password - Label text not present on page.</t>
-  </si>
-  <si>
     <t>DNT - SAP Readings</t>
   </si>
   <si>
     <t>TB Email/~/LB/~/CB</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC50</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC51</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Response Rate Report</t>
+  </si>
+  <si>
+    <t>Advance Frequency Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Response Rate question</t>
+  </si>
+  <si>
+    <t>Step 2: Enter Maximum Count</t>
+  </si>
+  <si>
+    <t>Step 1: Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 2: Re-order Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4:  Data Sources and Filters </t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,127 +1167,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1281,8 +1184,19 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,117 +1221,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1432,13 +1237,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1526,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1542,37 +1376,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1956,7 +1772,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:BE50"/>
+  <dimension ref="A1:BE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU51" sqref="AU51:AU52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,8 +2071,8 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="37" t="s">
-        <v>29</v>
+      <c r="J2" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
@@ -2327,7 +2143,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2346,7 +2162,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="6"/>
@@ -2416,7 +2232,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2435,7 +2251,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="6"/>
@@ -2505,7 +2321,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2524,7 +2340,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="12"/>
@@ -2594,7 +2410,7 @@
         <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2613,7 +2429,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="12"/>
@@ -2699,7 +2515,7 @@
         <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2718,7 +2534,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="12"/>
@@ -2804,7 +2620,7 @@
         <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -2823,7 +2639,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="12"/>
@@ -2895,7 +2711,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2914,7 +2730,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="12"/>
@@ -2988,7 +2804,7 @@
         <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -3007,7 +2823,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="12"/>
@@ -3081,7 +2897,7 @@
         <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -3100,7 +2916,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="12"/>
@@ -3174,7 +2990,7 @@
         <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -3193,7 +3009,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="12"/>
@@ -3267,7 +3083,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -3286,7 +3102,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="12"/>
@@ -3362,7 +3178,7 @@
         <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -3381,7 +3197,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="12"/>
@@ -3457,7 +3273,7 @@
         <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -3476,7 +3292,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="12"/>
@@ -3546,7 +3362,7 @@
         <v>174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -3565,7 +3381,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="12"/>
@@ -3627,7 +3443,7 @@
         <v>176</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -3646,7 +3462,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="12"/>
@@ -3718,7 +3534,7 @@
         <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -3737,7 +3553,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="12"/>
@@ -3811,7 +3627,7 @@
         <v>183</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -3830,7 +3646,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="12"/>
@@ -3910,7 +3726,7 @@
         <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -3929,7 +3745,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="12"/>
@@ -4013,7 +3829,7 @@
         <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -4032,7 +3848,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="12"/>
@@ -4112,7 +3928,7 @@
         <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -4131,7 +3947,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="12"/>
@@ -4211,7 +4027,7 @@
         <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -4230,7 +4046,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K23" s="12"/>
@@ -4302,7 +4118,7 @@
         <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -4321,7 +4137,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="12"/>
@@ -4393,7 +4209,7 @@
         <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -4412,7 +4228,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="12"/>
@@ -4504,14 +4320,14 @@
         <v>217</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>218</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="16" t="s">
         <v>46</v>
       </c>
       <c r="K26" s="12"/>
@@ -4573,7 +4389,7 @@
         <v>220</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -4585,15 +4401,15 @@
         <v>217</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="14" t="s">
-        <v>46</v>
+      <c r="J27" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
@@ -4676,7 +4492,7 @@
         <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -4688,15 +4504,15 @@
         <v>217</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="15" t="s">
-        <v>46</v>
+      <c r="J28" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
@@ -4777,7 +4593,7 @@
         <v>231</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -4789,15 +4605,15 @@
         <v>217</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>232</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="16" t="s">
-        <v>46</v>
+      <c r="J29" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
@@ -4878,7 +4694,7 @@
         <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -4890,15 +4706,15 @@
         <v>217</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>234</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="18" t="s">
-        <v>46</v>
+      <c r="J30" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="4" t="s">
@@ -4965,7 +4781,7 @@
         <v>236</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -4977,7 +4793,7 @@
         <v>217</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>237</v>
@@ -4985,7 +4801,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
       <c r="J31" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="4" t="s">
@@ -5056,11 +4872,11 @@
       <c r="BE31" s="12"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -5072,19 +4888,17 @@
         <v>217</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>351</v>
-      </c>
+      <c r="J32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="12"/>
       <c r="L32" s="4" t="s">
         <v>342</v>
       </c>
@@ -5132,11 +4946,11 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AU32" s="8"/>
       <c r="AV32" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -5153,7 +4967,7 @@
         <v>249</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -5165,15 +4979,15 @@
         <v>217</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>250</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="19" t="s">
-        <v>46</v>
+      <c r="J33" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="4" t="s">
@@ -5240,7 +5054,7 @@
         <v>254</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5252,15 +5066,15 @@
         <v>217</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>255</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="20" t="s">
-        <v>46</v>
+      <c r="J34" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="4" t="s">
@@ -5323,7 +5137,7 @@
         <v>257</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -5335,15 +5149,15 @@
         <v>217</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>258</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="21" t="s">
-        <v>46</v>
+      <c r="J35" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="4" t="s">
@@ -5406,7 +5220,7 @@
         <v>260</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -5418,15 +5232,15 @@
         <v>217</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>261</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="22" t="s">
-        <v>46</v>
+      <c r="J36" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="4" t="s">
@@ -5489,7 +5303,7 @@
         <v>263</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -5501,15 +5315,15 @@
         <v>217</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>264</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="23" t="s">
-        <v>46</v>
+      <c r="J37" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="4" t="s">
@@ -5572,7 +5386,7 @@
         <v>266</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -5584,15 +5398,15 @@
         <v>217</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>267</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="24" t="s">
-        <v>46</v>
+      <c r="J38" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="4" t="s">
@@ -5655,7 +5469,7 @@
         <v>269</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -5667,15 +5481,15 @@
         <v>217</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>270</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="25" t="s">
-        <v>46</v>
+      <c r="J39" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="4" t="s">
@@ -5738,7 +5552,7 @@
         <v>272</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -5750,15 +5564,15 @@
         <v>217</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>273</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="30" t="s">
-        <v>46</v>
+      <c r="J40" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="4" t="s">
@@ -5829,7 +5643,7 @@
         <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -5841,15 +5655,15 @@
         <v>217</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>278</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="31" t="s">
-        <v>46</v>
+      <c r="J41" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="4" t="s">
@@ -5914,7 +5728,7 @@
         <v>280</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -5926,15 +5740,15 @@
         <v>217</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>281</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="32" t="s">
-        <v>46</v>
+      <c r="J42" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="4" t="s">
@@ -6003,7 +5817,7 @@
         <v>283</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -6015,15 +5829,15 @@
         <v>217</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>284</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="33" t="s">
-        <v>46</v>
+      <c r="J43" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="4" t="s">
@@ -6092,7 +5906,7 @@
         <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -6104,15 +5918,15 @@
         <v>217</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="34" t="s">
-        <v>46</v>
+      <c r="J44" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="4" t="s">
@@ -6181,7 +5995,7 @@
         <v>289</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -6193,15 +6007,15 @@
         <v>217</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>290</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="35" t="s">
-        <v>46</v>
+      <c r="J45" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="4" t="s">
@@ -6284,7 +6098,7 @@
         <v>296</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -6296,15 +6110,15 @@
         <v>217</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>297</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="36" t="s">
-        <v>46</v>
+      <c r="J46" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="4" t="s">
@@ -6373,7 +6187,7 @@
         <v>299</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -6385,15 +6199,15 @@
         <v>217</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>300</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="26" t="s">
-        <v>46</v>
+      <c r="J47" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="4" t="s">
@@ -6456,7 +6270,7 @@
         <v>303</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -6468,15 +6282,15 @@
         <v>217</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>304</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="27" t="s">
-        <v>46</v>
+      <c r="J48" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="4" t="s">
@@ -6539,7 +6353,7 @@
         <v>307</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -6551,15 +6365,15 @@
         <v>217</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>308</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="28" t="s">
-        <v>46</v>
+      <c r="J49" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="4" t="s">
@@ -6622,7 +6436,7 @@
         <v>311</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -6634,15 +6448,15 @@
         <v>217</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>312</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="29" t="s">
-        <v>46</v>
+      <c r="J50" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="4" t="s">
@@ -6710,6 +6524,184 @@
       <c r="BD50" s="10"/>
       <c r="BE50" s="12"/>
     </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="4">
+        <v>3</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="9"/>
+      <c r="BB51" s="9"/>
+      <c r="BC51" s="10"/>
+      <c r="BD51" s="10"/>
+      <c r="BE51" s="12"/>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="4">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="8"/>
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="9"/>
+      <c r="BB52" s="9"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="10"/>
+      <c r="BE52" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21CAF7-A94B-4349-89E5-A2C1DA2E9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F1FD8-CAB7-43D0-8354-1CD2C6F6249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="414">
   <si>
     <t>Environment</t>
   </si>
@@ -163,960 +163,1115 @@
     <t>PlatformReadings_TC1</t>
   </si>
   <si>
+    <t>PlatformReadings_TC2</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC3</t>
+  </si>
+  <si>
+    <t>Individual Report</t>
+  </si>
+  <si>
+    <t>Bar Graph Report</t>
+  </si>
+  <si>
+    <t>Response Table report</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Condition que 1</t>
+  </si>
+  <si>
+    <t>Condition que 1 operand</t>
+  </si>
+  <si>
+    <t>Condition que 1 answers</t>
+  </si>
+  <si>
+    <t>Condition que 2</t>
+  </si>
+  <si>
+    <t>Condition que 2 operand</t>
+  </si>
+  <si>
+    <t>Condition que 2 answers</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Stub</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Filter Name</t>
+  </si>
+  <si>
+    <t>Grouping question</t>
+  </si>
+  <si>
+    <t>Segment question 1</t>
+  </si>
+  <si>
+    <t>Segment ques 1 operand</t>
+  </si>
+  <si>
+    <t>Segment ques 1 answers</t>
+  </si>
+  <si>
+    <t>Segment 1 name</t>
+  </si>
+  <si>
+    <t>Nmax</t>
+  </si>
+  <si>
+    <t>datasetCount</t>
+  </si>
+  <si>
+    <t>Engagement questions</t>
+  </si>
+  <si>
+    <t>Driver questions</t>
+  </si>
+  <si>
+    <t>toEmail</t>
+  </si>
+  <si>
+    <t>emailtemplate</t>
+  </si>
+  <si>
+    <t>selectlist</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>prepopdd</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>mapValues</t>
+  </si>
+  <si>
+    <t>emailaddcol</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>searchRec1</t>
+  </si>
+  <si>
+    <t>searchRec2</t>
+  </si>
+  <si>
+    <t>textBox1</t>
+  </si>
+  <si>
+    <t>dateFormat</t>
+  </si>
+  <si>
+    <t>Make all Charts Similar to this</t>
+  </si>
+  <si>
+    <t>Match Every Condition</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Every Condition</t>
+  </si>
+  <si>
+    <t>Match Any Condition</t>
+  </si>
+  <si>
+    <t>Any Condition</t>
+  </si>
+  <si>
+    <t>With 10 Vertical variable</t>
+  </si>
+  <si>
+    <t>With 1 Vertical variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Report </t>
+  </si>
+  <si>
+    <t>Normal Verbatim(Without Grouping )</t>
+  </si>
+  <si>
+    <t>With Filter having Two conditions</t>
+  </si>
+  <si>
+    <t>Grouping with 5 answer options</t>
+  </si>
+  <si>
+    <t>No Segmentation</t>
+  </si>
+  <si>
+    <t>Segment Based on 1 Question</t>
+  </si>
+  <si>
+    <t>Segment Based on more than 1 question</t>
+  </si>
+  <si>
+    <t>Segment 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 6 : Segmentation Report </t>
+  </si>
+  <si>
+    <t>Step 7 : Select Filter</t>
+  </si>
+  <si>
+    <t>Generate Report[PPT]</t>
+  </si>
+  <si>
+    <t>Generate Report[Excel]</t>
+  </si>
+  <si>
+    <t>2 Datasets</t>
+  </si>
+  <si>
+    <t>is/~/is</t>
+  </si>
+  <si>
+    <t>5 Datasets</t>
+  </si>
+  <si>
+    <t>is/~/is/~/is/~/is/~/is</t>
+  </si>
+  <si>
+    <t>Do not put IP</t>
+  </si>
+  <si>
+    <t>Step 6 : Customize Cover Page</t>
+  </si>
+  <si>
+    <t>Step 7 : Email Report</t>
+  </si>
+  <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t>Step 6: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>Step 7: Prepop mismatch</t>
+  </si>
+  <si>
+    <t>Step 8: Send or Schedule Invitation</t>
+  </si>
+  <si>
+    <t>Step 9: Send Now</t>
+  </si>
+  <si>
+    <t>DNT - Automation DMX Reading</t>
+  </si>
+  <si>
+    <t>Step 6: Prepop mismatch</t>
+  </si>
+  <si>
+    <t>Step 7: Send or Schedule Invitation</t>
+  </si>
+  <si>
+    <t>Step 8: Send Now</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 1000 list.xls</t>
+  </si>
+  <si>
+    <t>Type Manually 1000 records.txt</t>
+  </si>
+  <si>
+    <t>Type Manually 999 records.txt</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Contact List Creation - 1000 Records.xls</t>
+  </si>
+  <si>
+    <t>Email Address/~/First Name/~/Last Name/~/Company</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Single Use Link</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 999 list.xls</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 999 list</t>
+  </si>
+  <si>
+    <t>Step 6: Reminders ScheduledSelected (100) (diff pages 25 Email from Each page)</t>
+  </si>
+  <si>
+    <t>Step 6: Send/Schedule Invitations</t>
+  </si>
+  <si>
+    <t>SMS invitation numbers.txt</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC4</t>
+  </si>
+  <si>
+    <t>Frequency Table Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC5</t>
+  </si>
+  <si>
+    <t>Conditional Report (Match Every Condition)</t>
+  </si>
+  <si>
+    <t>Step 1 : Add Condition page (2 Conditions)</t>
+  </si>
+  <si>
+    <t>Step 2: Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 3: Re-order Questions</t>
+  </si>
+  <si>
+    <t>Step 4: Select Report Properties</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC6</t>
+  </si>
+  <si>
+    <t>Conditional Report (Match Any Condition)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC7</t>
+  </si>
+  <si>
+    <t>2 Level Cross Tab Report</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Report Properties</t>
+  </si>
+  <si>
+    <t>Step 3 : Select Filter</t>
+  </si>
+  <si>
+    <t>Generate Report (2 Level)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC8</t>
+  </si>
+  <si>
+    <t>3 Level Cross Tab Report</t>
+  </si>
+  <si>
+    <t>Generate Report (3 Level)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC9</t>
+  </si>
+  <si>
+    <t>Pivot Table (With 10 Vertical Variable)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC10</t>
+  </si>
+  <si>
+    <t>Pivot Table (With 1 Vertical Variable)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC11</t>
+  </si>
+  <si>
+    <t>Verbatim Report (Normal Verbatim without Filter)</t>
+  </si>
+  <si>
+    <t>Step 1 : Select Verbatim Questions</t>
+  </si>
+  <si>
+    <t>Step 2: Re-Order Questions</t>
+  </si>
+  <si>
+    <t>Step 4:Select Filter</t>
+  </si>
+  <si>
+    <t>Step 5:Select Grouping Questions</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC12</t>
+  </si>
+  <si>
+    <t>Verbatim Report (With Filter having two conditions)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC13</t>
+  </si>
+  <si>
+    <t>Verbatim Report (With Grouping)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC14</t>
+  </si>
+  <si>
+    <t>Assessment Summary Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC15</t>
+  </si>
+  <si>
+    <t>Response Trend Report</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC16</t>
+  </si>
+  <si>
+    <t>Statistical Report (No segmentation)</t>
+  </si>
+  <si>
+    <t>Step 3: Select Parameters to Display</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment (No Segment)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC17</t>
+  </si>
+  <si>
+    <t>Statistical Report (Segment based on 1 question)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment  (1 Segment with 5 answer opt)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC18</t>
+  </si>
+  <si>
+    <t>Statistical Report (Segment based on more than 1 question)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Segment (1 Segment with 1 condition )</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC19</t>
+  </si>
+  <si>
+    <t>Engagement Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Report Details</t>
+  </si>
+  <si>
+    <t>Step 2 : Identify Engagement Questions (8 Question)</t>
+  </si>
+  <si>
+    <t>Step 3: Identify Driver Questions (8 Question)</t>
+  </si>
+  <si>
+    <t>Step 4 : Specify Additional Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5 Composition Analysis </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC20</t>
+  </si>
+  <si>
+    <t>Comparison Report (2 Dataset)</t>
+  </si>
+  <si>
+    <t>Step 1:Select Survey Question</t>
+  </si>
+  <si>
+    <t>Step 3: Select Survey Dataset (Apply condition on both)</t>
+  </si>
+  <si>
+    <t>Step 4: Select Report properties</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC21</t>
+  </si>
+  <si>
+    <t>Comparison Report (5 Dataset)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC22</t>
+  </si>
+  <si>
+    <t>Ballot Box Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Specify Internal IP Address</t>
+  </si>
+  <si>
+    <t>Step 2 : Number of Duplicate Allowed</t>
+  </si>
+  <si>
+    <t>Step 3: Data Review</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC23</t>
+  </si>
+  <si>
+    <t>Advance Pivot Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Select segmentation question</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Survey Question</t>
+  </si>
+  <si>
+    <t>Step 3: Merge answer option</t>
+  </si>
+  <si>
+    <t>Step 5 : Select Filter</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC24</t>
+  </si>
+  <si>
+    <t>Segmentation Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Segmentation Question</t>
+  </si>
+  <si>
+    <t>Step 2 : Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 5: Comparison Segment Data</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC25</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t>DM Home Page</t>
+  </si>
+  <si>
+    <t>Home - DM page</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC26</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records via list)</t>
+  </si>
+  <si>
+    <t>Step 1: Select Type Of Survey URL To Be Sent</t>
+  </si>
+  <si>
+    <t>Step 2: Select Email Message</t>
+  </si>
+  <si>
+    <t>Step 3: Select source of email addresses</t>
+  </si>
+  <si>
+    <t>Step 4: Select List of 1000</t>
+  </si>
+  <si>
+    <t>Step 5 : Mail Merge</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC27</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records via file)</t>
+  </si>
+  <si>
+    <t>Step 4 : Mail Merge</t>
+  </si>
+  <si>
+    <t>Step 5: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC28</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (1000 records Type Manually)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC29</t>
+  </si>
+  <si>
+    <t>Quick Send (999 records)</t>
+  </si>
+  <si>
+    <t>Step 1: Send 999 records via Quick Send</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC30</t>
+  </si>
+  <si>
+    <t>List Creation (Import 1000 records with 3 attributes)</t>
+  </si>
+  <si>
+    <t>Step 1: List Manager Main page(account should have 30 list with 5000 records each)</t>
+  </si>
+  <si>
+    <t>Step 2: Define source (Import file of 1 k records)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Populate List </t>
+  </si>
+  <si>
+    <t>Step 4 : List Manager Main page  after List Creation</t>
+  </si>
+  <si>
+    <t>Step 5: Delete Same List</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC31</t>
+  </si>
+  <si>
+    <t>Offline invites for 999  records</t>
+  </si>
+  <si>
+    <t>Step 1: SAP Dashboard (Single URL)</t>
+  </si>
+  <si>
+    <t>Step 2: SAP Page</t>
+  </si>
+  <si>
+    <t>Step 3: Prepopulate survey</t>
+  </si>
+  <si>
+    <t>Step 4 : Template Selection Page</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC32</t>
+  </si>
+  <si>
+    <t>Email Manager Tab wizard</t>
+  </si>
+  <si>
+    <t>Step 1: DM Page-Email Manager Tab</t>
+  </si>
+  <si>
+    <t>Step 2: Select an Email Template (Create New)</t>
+  </si>
+  <si>
+    <t>Step 3: Save the Template</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC33</t>
+  </si>
+  <si>
+    <t>Delete a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Delete a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC34</t>
+  </si>
+  <si>
+    <t>Delete a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Delete a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC35</t>
+  </si>
+  <si>
+    <t>Copy a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Copy a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC36</t>
+  </si>
+  <si>
+    <t>Copy a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Copy a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC37</t>
+  </si>
+  <si>
+    <t>Preview a Template Grid View</t>
+  </si>
+  <si>
+    <t>Step 1: Preview a Template Grid View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC38</t>
+  </si>
+  <si>
+    <t>Preview a Template List View</t>
+  </si>
+  <si>
+    <t>Step 1: Preview a Template List View</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC39</t>
+  </si>
+  <si>
+    <t>Track survey Search 1 user</t>
+  </si>
+  <si>
+    <t>Step 1: Track survey page load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Search record 1 </t>
+  </si>
+  <si>
+    <t>Step 3: Search record 2</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track survey Delete 100 records per page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Track survey Page Deletion </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC41</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (By File)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (By File)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC42</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (By List)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (By List)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC43</t>
+  </si>
+  <si>
+    <t>Schedule 999 records (Type Manually)</t>
+  </si>
+  <si>
+    <t>Step 1: Schedule 999 records (Type Manually)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC44</t>
+  </si>
+  <si>
+    <t>Reminder Wizard (999 Invites in Surveys)</t>
+  </si>
+  <si>
+    <t>Step 1: Send/Schedule Reminder to all (Reminder Page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: Select Reminder Message </t>
+  </si>
+  <si>
+    <t>Step 3: Schedule Reminders</t>
+  </si>
+  <si>
+    <t>Step 4 : Reminders Send/Schedule ALL (999 reminders)</t>
+  </si>
+  <si>
+    <t>Step 5: Reminders Scheduled Selected (100) (Total 999 reminders)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC45</t>
+  </si>
+  <si>
+    <t>Cancel reminders(1000)</t>
+  </si>
+  <si>
+    <t>Step 1: Cancel 1000 Reminders</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC46</t>
+  </si>
+  <si>
+    <t>Publish on Facebook</t>
+  </si>
+  <si>
+    <t>Step 1: Facebook Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on Facebook</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC47</t>
+  </si>
+  <si>
+    <t>Publish on Twiiter</t>
+  </si>
+  <si>
+    <t>Step 1: Twiiter Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on Twitter</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC48</t>
+  </si>
+  <si>
+    <t>Publish on LinkedIn</t>
+  </si>
+  <si>
+    <t>Step 1: LinkedIn Post Preview</t>
+  </si>
+  <si>
+    <t>Step 2: Publish on LinkedIn</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC49</t>
+  </si>
+  <si>
+    <t>Send SMS Invite wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Enter Mobile Numbers </t>
+  </si>
+  <si>
+    <t>Step 2: Pre-Populate Survey</t>
+  </si>
+  <si>
+    <t>Step 3: Prepop mismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4: Customize SMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5: Preview SMS </t>
+  </si>
+  <si>
+    <t>sogo_sshaikh</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Please select your child's school</t>
+  </si>
+  <si>
+    <t>Tonda Elementary School</t>
+  </si>
+  <si>
+    <t>Q1(b). Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>Q2. What is your primary work location? If you work at more than one buildin</t>
+  </si>
+  <si>
+    <t>Q3. Please rate the overall quality of your school this year.</t>
+  </si>
+  <si>
+    <t>What is your primary work location? If you work at more than one building, you are|Please rate the overall quality of your school this year.|Please select your child's school|Please rate the overall quality of the professional development you received this year.|Please rate the overall school cleanliness.: Excellent|Please rate the overall school cleanliness.: Good|Please rate the overall school cleanliness.: Fair|Please rate the overall school cleanliness.: Poor|How likely is it that you would recommend this company / brand / product / service to a|Select school logo</t>
+  </si>
+  <si>
+    <t>What is your primary work location? If you work at more than one building, you are welc</t>
+  </si>
+  <si>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>Q7(a). Please rate the overall school cleanliness.: Excellent</t>
+  </si>
+  <si>
+    <t>RMX1</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>All Questions available with Img and MM</t>
+  </si>
+  <si>
+    <t>Q7(a). Please rate the overall sch...: Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excellent/~/Good/~/Fair/~/Poor/~/The district provides instructional time and resources to support our school's goals and priorities./~/The district provides sufficient material resources to meet student needs./~/The district has planned for the acquisition and support of technology to support student learning (computer labs, educa/~/ The district provides adequate support for integrating 1:1 technology.</t>
+  </si>
+  <si>
+    <t>Teacher/~/Guidance counselor, media specialist, or other certified instructional specialist/~/Psychologist, social worker, speech pathologist or other auxiliary certified staff/~/Paraprofessional/~/Facilities and operations support staff/~/Food services/~/Administrative support staff, such as clerical/~/In our school, related learning support services are provided for all students based on their needs.</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin</t>
+  </si>
+  <si>
+    <t>Male/~/Allen Early Learning Academy</t>
+  </si>
+  <si>
+    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin/~/Please select your child's school/~/Please rate the overall school cleanliness.: Excellent/~/Please rate the overall school cleanliness.: Good</t>
+  </si>
+  <si>
+    <t>Male/~/Allen Early Learning Academy/~/Tonda Elementary School/~/1 Star/~/1 Star</t>
+  </si>
+  <si>
+    <t>Q1(b). Gender</t>
+  </si>
+  <si>
+    <t>QA LB</t>
+  </si>
+  <si>
+    <t>Email Address/~/First Name</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 1000 list</t>
+  </si>
+  <si>
+    <t>Column1/~/Column3/~/Column4</t>
+  </si>
+  <si>
+    <t>Quick Send Template</t>
+  </si>
+  <si>
+    <t>kabirtest89@burlingtontechnology.net</t>
+  </si>
+  <si>
+    <t>kabirtest88@burlingtontechnology.net</t>
+  </si>
+  <si>
+    <t>dd-MMM-yyyy</t>
+  </si>
+  <si>
+    <t>DNT - SAP Readings</t>
+  </si>
+  <si>
+    <t>TB Email/~/LB/~/CB</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC50</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC51</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Response Rate Report</t>
+  </si>
+  <si>
+    <t>Advance Frequency Report</t>
+  </si>
+  <si>
+    <t>Step 1: Select Response Rate question</t>
+  </si>
+  <si>
+    <t>Step 2: Enter Maximum Count</t>
+  </si>
+  <si>
+    <t>Step 1: Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Step 2: Re-order Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4:  Data Sources and Filters </t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC52</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>sogo_godwinent</t>
+  </si>
+  <si>
+    <t>Welcome@7890</t>
+  </si>
+  <si>
+    <t>Home Page to Data Module</t>
+  </si>
+  <si>
+    <t>All Q Survey Fruits EXE after 17.0 live</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to Data module from Home Page using 'All survey Dashboard'.</t>
+  </si>
+  <si>
+    <t>Step 2: Navigate to Data module from Home Page using Data module icon from Recent Surveys.</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>PlatformReadings_TC2</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC3</t>
-  </si>
-  <si>
-    <t>Individual Report</t>
-  </si>
-  <si>
-    <t>Bar Graph Report</t>
-  </si>
-  <si>
-    <t>Response Table report</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Condition que 1</t>
-  </si>
-  <si>
-    <t>Condition que 1 operand</t>
-  </si>
-  <si>
-    <t>Condition que 1 answers</t>
-  </si>
-  <si>
-    <t>Condition que 2</t>
-  </si>
-  <si>
-    <t>Condition que 2 operand</t>
-  </si>
-  <si>
-    <t>Condition que 2 answers</t>
-  </si>
-  <si>
-    <t>Logic</t>
-  </si>
-  <si>
-    <t>Stub</t>
-  </si>
-  <si>
-    <t>Banner</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Filter Name</t>
-  </si>
-  <si>
-    <t>Grouping question</t>
-  </si>
-  <si>
-    <t>Segment question 1</t>
-  </si>
-  <si>
-    <t>Segment ques 1 operand</t>
-  </si>
-  <si>
-    <t>Segment ques 1 answers</t>
-  </si>
-  <si>
-    <t>Segment 1 name</t>
-  </si>
-  <si>
-    <t>Nmax</t>
-  </si>
-  <si>
-    <t>datasetCount</t>
-  </si>
-  <si>
-    <t>Engagement questions</t>
-  </si>
-  <si>
-    <t>Driver questions</t>
-  </si>
-  <si>
-    <t>toEmail</t>
-  </si>
-  <si>
-    <t>emailtemplate</t>
-  </si>
-  <si>
-    <t>selectlist</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>prepopdd</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>mapValues</t>
-  </si>
-  <si>
-    <t>emailaddcol</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>searchRec1</t>
-  </si>
-  <si>
-    <t>searchRec2</t>
-  </si>
-  <si>
-    <t>textBox1</t>
-  </si>
-  <si>
-    <t>dateFormat</t>
-  </si>
-  <si>
-    <t>Make all Charts Similar to this</t>
-  </si>
-  <si>
-    <t>Match Every Condition</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>Every Condition</t>
-  </si>
-  <si>
-    <t>Match Any Condition</t>
-  </si>
-  <si>
-    <t>Any Condition</t>
-  </si>
-  <si>
-    <t>With 10 Vertical variable</t>
-  </si>
-  <si>
-    <t>With 1 Vertical variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Report </t>
-  </si>
-  <si>
-    <t>Normal Verbatim(Without Grouping )</t>
-  </si>
-  <si>
-    <t>With Filter having Two conditions</t>
-  </si>
-  <si>
-    <t>Grouping with 5 answer options</t>
-  </si>
-  <si>
-    <t>No Segmentation</t>
-  </si>
-  <si>
-    <t>Segment Based on 1 Question</t>
-  </si>
-  <si>
-    <t>Segment Based on more than 1 question</t>
-  </si>
-  <si>
-    <t>Segment 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 6 : Segmentation Report </t>
-  </si>
-  <si>
-    <t>Step 7 : Select Filter</t>
-  </si>
-  <si>
-    <t>Generate Report[PPT]</t>
-  </si>
-  <si>
-    <t>Generate Report[Excel]</t>
-  </si>
-  <si>
-    <t>2 Datasets</t>
-  </si>
-  <si>
-    <t>is/~/is</t>
-  </si>
-  <si>
-    <t>5 Datasets</t>
-  </si>
-  <si>
-    <t>is/~/is/~/is/~/is/~/is</t>
-  </si>
-  <si>
-    <t>Do not put IP</t>
-  </si>
-  <si>
-    <t>Step 6 : Customize Cover Page</t>
-  </si>
-  <si>
-    <t>Step 7 : Email Report</t>
-  </si>
-  <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
-    <t>Step 6: Pre-Populate Survey</t>
-  </si>
-  <si>
-    <t>Step 7: Prepop mismatch</t>
-  </si>
-  <si>
-    <t>Step 8: Send or Schedule Invitation</t>
-  </si>
-  <si>
-    <t>Step 9: Send Now</t>
-  </si>
-  <si>
-    <t>DNT - Automation DMX Reading</t>
-  </si>
-  <si>
-    <t>Step 6: Prepop mismatch</t>
-  </si>
-  <si>
-    <t>Step 7: Send or Schedule Invitation</t>
-  </si>
-  <si>
-    <t>Step 8: Send Now</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 1000 list.xls</t>
-  </si>
-  <si>
-    <t>Type Manually 1000 records.txt</t>
-  </si>
-  <si>
-    <t>Type Manually 999 records.txt</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Contact List Creation - 1000 Records.xls</t>
-  </si>
-  <si>
-    <t>Email Address/~/First Name/~/Last Name/~/Company</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Single Use Link</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 999 list.xls</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 999 list</t>
-  </si>
-  <si>
-    <t>Step 6: Reminders ScheduledSelected (100) (diff pages 25 Email from Each page)</t>
-  </si>
-  <si>
-    <t>Step 6: Send/Schedule Invitations</t>
-  </si>
-  <si>
-    <t>SMS invitation numbers.txt</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC4</t>
-  </si>
-  <si>
-    <t>Frequency Table Report</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC5</t>
-  </si>
-  <si>
-    <t>Conditional Report (Match Every Condition)</t>
-  </si>
-  <si>
-    <t>Step 1 : Add Condition page (2 Conditions)</t>
-  </si>
-  <si>
-    <t>Step 2: Select Survey Questions</t>
-  </si>
-  <si>
-    <t>Step 3: Re-order Questions</t>
-  </si>
-  <si>
-    <t>Step 4: Select Report Properties</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC6</t>
-  </si>
-  <si>
-    <t>Conditional Report (Match Any Condition)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC7</t>
-  </si>
-  <si>
-    <t>2 Level Cross Tab Report</t>
-  </si>
-  <si>
-    <t>Step 2 : Select Report Properties</t>
-  </si>
-  <si>
-    <t>Step 3 : Select Filter</t>
-  </si>
-  <si>
-    <t>Generate Report (2 Level)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC8</t>
-  </si>
-  <si>
-    <t>3 Level Cross Tab Report</t>
-  </si>
-  <si>
-    <t>Generate Report (3 Level)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC9</t>
-  </si>
-  <si>
-    <t>Pivot Table (With 10 Vertical Variable)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC10</t>
-  </si>
-  <si>
-    <t>Pivot Table (With 1 Vertical Variable)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC11</t>
-  </si>
-  <si>
-    <t>Verbatim Report (Normal Verbatim without Filter)</t>
-  </si>
-  <si>
-    <t>Step 1 : Select Verbatim Questions</t>
-  </si>
-  <si>
-    <t>Step 2: Re-Order Questions</t>
-  </si>
-  <si>
-    <t>Step 4:Select Filter</t>
-  </si>
-  <si>
-    <t>Step 5:Select Grouping Questions</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC12</t>
-  </si>
-  <si>
-    <t>Verbatim Report (With Filter having two conditions)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC13</t>
-  </si>
-  <si>
-    <t>Verbatim Report (With Grouping)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC14</t>
-  </si>
-  <si>
-    <t>Assessment Summary Report</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC15</t>
-  </si>
-  <si>
-    <t>Response Trend Report</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC16</t>
-  </si>
-  <si>
-    <t>Statistical Report (No segmentation)</t>
-  </si>
-  <si>
-    <t>Step 3: Select Parameters to Display</t>
-  </si>
-  <si>
-    <t>Step 4: Select Segment (No Segment)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC17</t>
-  </si>
-  <si>
-    <t>Statistical Report (Segment based on 1 question)</t>
-  </si>
-  <si>
-    <t>Step 4: Select Segment  (1 Segment with 5 answer opt)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC18</t>
-  </si>
-  <si>
-    <t>Statistical Report (Segment based on more than 1 question)</t>
-  </si>
-  <si>
-    <t>Step 4: Select Segment (1 Segment with 1 condition )</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC19</t>
-  </si>
-  <si>
-    <t>Engagement Report</t>
-  </si>
-  <si>
-    <t>Step 1 : Report Details</t>
-  </si>
-  <si>
-    <t>Step 2 : Identify Engagement Questions (8 Question)</t>
-  </si>
-  <si>
-    <t>Step 3: Identify Driver Questions (8 Question)</t>
-  </si>
-  <si>
-    <t>Step 4 : Specify Additional Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5 Composition Analysis </t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC20</t>
-  </si>
-  <si>
-    <t>Comparison Report (2 Dataset)</t>
-  </si>
-  <si>
-    <t>Step 1:Select Survey Question</t>
-  </si>
-  <si>
-    <t>Step 3: Select Survey Dataset (Apply condition on both)</t>
-  </si>
-  <si>
-    <t>Step 4: Select Report properties</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC21</t>
-  </si>
-  <si>
-    <t>Comparison Report (5 Dataset)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC22</t>
-  </si>
-  <si>
-    <t>Ballot Box Report</t>
-  </si>
-  <si>
-    <t>Step 1 : Specify Internal IP Address</t>
-  </si>
-  <si>
-    <t>Step 2 : Number of Duplicate Allowed</t>
-  </si>
-  <si>
-    <t>Step 3: Data Review</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC23</t>
-  </si>
-  <si>
-    <t>Advance Pivot Report</t>
-  </si>
-  <si>
-    <t>Step 1 : Select segmentation question</t>
-  </si>
-  <si>
-    <t>Step 2 : Select Survey Question</t>
-  </si>
-  <si>
-    <t>Step 3: Merge answer option</t>
-  </si>
-  <si>
-    <t>Step 5 : Select Filter</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC24</t>
-  </si>
-  <si>
-    <t>Segmentation Report</t>
-  </si>
-  <si>
-    <t>Step 1: Select Segmentation Question</t>
-  </si>
-  <si>
-    <t>Step 2 : Select Survey Questions</t>
-  </si>
-  <si>
-    <t>Step 5: Comparison Segment Data</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC25</t>
-  </si>
-  <si>
-    <t>DMX</t>
-  </si>
-  <si>
-    <t>DM Home Page</t>
-  </si>
-  <si>
-    <t>Home - DM page</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC26</t>
-  </si>
-  <si>
-    <t>Invitation Wizard (1000 records via list)</t>
-  </si>
-  <si>
-    <t>Step 1: Select Type Of Survey URL To Be Sent</t>
-  </si>
-  <si>
-    <t>Step 2: Select Email Message</t>
-  </si>
-  <si>
-    <t>Step 3: Select source of email addresses</t>
-  </si>
-  <si>
-    <t>Step 4: Select List of 1000</t>
-  </si>
-  <si>
-    <t>Step 5 : Mail Merge</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC27</t>
-  </si>
-  <si>
-    <t>Invitation Wizard (1000 records via file)</t>
-  </si>
-  <si>
-    <t>Step 4 : Mail Merge</t>
-  </si>
-  <si>
-    <t>Step 5: Pre-Populate Survey</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC28</t>
-  </si>
-  <si>
-    <t>Invitation Wizard (1000 records Type Manually)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC29</t>
-  </si>
-  <si>
-    <t>Quick Send (999 records)</t>
-  </si>
-  <si>
-    <t>Step 1: Send 999 records via Quick Send</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC30</t>
-  </si>
-  <si>
-    <t>List Creation (Import 1000 records with 3 attributes)</t>
-  </si>
-  <si>
-    <t>Step 1: List Manager Main page(account should have 30 list with 5000 records each)</t>
-  </si>
-  <si>
-    <t>Step 2: Define source (Import file of 1 k records)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3: Populate List </t>
-  </si>
-  <si>
-    <t>Step 4 : List Manager Main page  after List Creation</t>
-  </si>
-  <si>
-    <t>Step 5: Delete Same List</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC31</t>
-  </si>
-  <si>
-    <t>Offline invites for 999  records</t>
-  </si>
-  <si>
-    <t>Step 1: SAP Dashboard (Single URL)</t>
-  </si>
-  <si>
-    <t>Step 2: SAP Page</t>
-  </si>
-  <si>
-    <t>Step 3: Prepopulate survey</t>
-  </si>
-  <si>
-    <t>Step 4 : Template Selection Page</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC32</t>
-  </si>
-  <si>
-    <t>Email Manager Tab wizard</t>
-  </si>
-  <si>
-    <t>Step 1: DM Page-Email Manager Tab</t>
-  </si>
-  <si>
-    <t>Step 2: Select an Email Template (Create New)</t>
-  </si>
-  <si>
-    <t>Step 3: Save the Template</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC33</t>
-  </si>
-  <si>
-    <t>Delete a Template Grid View</t>
-  </si>
-  <si>
-    <t>Step 1: Delete a Template Grid View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC34</t>
-  </si>
-  <si>
-    <t>Delete a Template List View</t>
-  </si>
-  <si>
-    <t>Step 1: Delete a Template List View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC35</t>
-  </si>
-  <si>
-    <t>Copy a Template Grid View</t>
-  </si>
-  <si>
-    <t>Step 1: Copy a Template Grid View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC36</t>
-  </si>
-  <si>
-    <t>Copy a Template List View</t>
-  </si>
-  <si>
-    <t>Step 1: Copy a Template List View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC37</t>
-  </si>
-  <si>
-    <t>Preview a Template Grid View</t>
-  </si>
-  <si>
-    <t>Step 1: Preview a Template Grid View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC38</t>
-  </si>
-  <si>
-    <t>Preview a Template List View</t>
-  </si>
-  <si>
-    <t>Step 1: Preview a Template List View</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC39</t>
-  </si>
-  <si>
-    <t>Track survey Search 1 user</t>
-  </si>
-  <si>
-    <t>Step 1: Track survey page load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 2: Search record 1 </t>
-  </si>
-  <si>
-    <t>Step 3: Search record 2</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Track survey Delete 100 records per page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Track survey Page Deletion </t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC41</t>
-  </si>
-  <si>
-    <t>Schedule 999 records (By File)</t>
-  </si>
-  <si>
-    <t>Step 1: Schedule 999 records (By File)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC42</t>
-  </si>
-  <si>
-    <t>Schedule 999 records (By List)</t>
-  </si>
-  <si>
-    <t>Step 1: Schedule 999 records (By List)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC43</t>
-  </si>
-  <si>
-    <t>Schedule 999 records (Type Manually)</t>
-  </si>
-  <si>
-    <t>Step 1: Schedule 999 records (Type Manually)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC44</t>
-  </si>
-  <si>
-    <t>Reminder Wizard (999 Invites in Surveys)</t>
-  </si>
-  <si>
-    <t>Step 1: Send/Schedule Reminder to all (Reminder Page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 2: Select Reminder Message </t>
-  </si>
-  <si>
-    <t>Step 3: Schedule Reminders</t>
-  </si>
-  <si>
-    <t>Step 4 : Reminders Send/Schedule ALL (999 reminders)</t>
-  </si>
-  <si>
-    <t>Step 5: Reminders Scheduled Selected (100) (Total 999 reminders)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC45</t>
-  </si>
-  <si>
-    <t>Cancel reminders(1000)</t>
-  </si>
-  <si>
-    <t>Step 1: Cancel 1000 Reminders</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC46</t>
-  </si>
-  <si>
-    <t>Publish on Facebook</t>
-  </si>
-  <si>
-    <t>Step 1: Facebook Post Preview</t>
-  </si>
-  <si>
-    <t>Step 2: Publish on Facebook</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC47</t>
-  </si>
-  <si>
-    <t>Publish on Twiiter</t>
-  </si>
-  <si>
-    <t>Step 1: Twiiter Post Preview</t>
-  </si>
-  <si>
-    <t>Step 2: Publish on Twitter</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC48</t>
-  </si>
-  <si>
-    <t>Publish on LinkedIn</t>
-  </si>
-  <si>
-    <t>Step 1: LinkedIn Post Preview</t>
-  </si>
-  <si>
-    <t>Step 2: Publish on LinkedIn</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC49</t>
-  </si>
-  <si>
-    <t>Send SMS Invite wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Enter Mobile Numbers </t>
-  </si>
-  <si>
-    <t>Step 2: Pre-Populate Survey</t>
-  </si>
-  <si>
-    <t>Step 3: Prepop mismatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 4: Customize SMS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5: Preview SMS </t>
-  </si>
-  <si>
-    <t>sogo_sshaikh</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>Please provide your details: Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Please select your child's school</t>
-  </si>
-  <si>
-    <t>Tonda Elementary School</t>
-  </si>
-  <si>
-    <t>Q1(b). Please provide your details: Gender</t>
-  </si>
-  <si>
-    <t>Q2. What is your primary work location? If you work at more than one buildin</t>
-  </si>
-  <si>
-    <t>Q3. Please rate the overall quality of your school this year.</t>
-  </si>
-  <si>
-    <t>What is your primary work location? If you work at more than one building, you are|Please rate the overall quality of your school this year.|Please select your child's school|Please rate the overall quality of the professional development you received this year.|Please rate the overall school cleanliness.: Excellent|Please rate the overall school cleanliness.: Good|Please rate the overall school cleanliness.: Fair|Please rate the overall school cleanliness.: Poor|How likely is it that you would recommend this company / brand / product / service to a|Select school logo</t>
-  </si>
-  <si>
-    <t>What is your primary work location? If you work at more than one building, you are welc</t>
-  </si>
-  <si>
-    <t>Readings</t>
-  </si>
-  <si>
-    <t>Q7(a). Please rate the overall school cleanliness.: Excellent</t>
-  </si>
-  <si>
-    <t>RMX1</t>
-  </si>
-  <si>
-    <t>RMX2</t>
-  </si>
-  <si>
-    <t>All Questions available with Img and MM</t>
-  </si>
-  <si>
-    <t>Q7(a). Please rate the overall sch...: Excellent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excellent/~/Good/~/Fair/~/Poor/~/The district provides instructional time and resources to support our school's goals and priorities./~/The district provides sufficient material resources to meet student needs./~/The district has planned for the acquisition and support of technology to support student learning (computer labs, educa/~/ The district provides adequate support for integrating 1:1 technology.</t>
-  </si>
-  <si>
-    <t>Teacher/~/Guidance counselor, media specialist, or other certified instructional specialist/~/Psychologist, social worker, speech pathologist or other auxiliary certified staff/~/Paraprofessional/~/Facilities and operations support staff/~/Food services/~/Administrative support staff, such as clerical/~/In our school, related learning support services are provided for all students based on their needs.</t>
-  </si>
-  <si>
-    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin</t>
-  </si>
-  <si>
-    <t>Male/~/Allen Early Learning Academy</t>
-  </si>
-  <si>
-    <t>Please provide your details: Gender/~/What is your primary work location? If you work at more than one buildin/~/Please select your child's school/~/Please rate the overall school cleanliness.: Excellent/~/Please rate the overall school cleanliness.: Good</t>
-  </si>
-  <si>
-    <t>Male/~/Allen Early Learning Academy/~/Tonda Elementary School/~/1 Star/~/1 Star</t>
-  </si>
-  <si>
-    <t>Q1(b). Gender</t>
-  </si>
-  <si>
-    <t>QA LB</t>
-  </si>
-  <si>
-    <t>Email Address/~/First Name</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 1000 list</t>
-  </si>
-  <si>
-    <t>Column1/~/Column3/~/Column4</t>
-  </si>
-  <si>
-    <t>Quick Send Template</t>
-  </si>
-  <si>
-    <t>kabirtest89@burlingtontechnology.net</t>
-  </si>
-  <si>
-    <t>kabirtest88@burlingtontechnology.net</t>
-  </si>
-  <si>
-    <t>dd-MMM-yyyy</t>
-  </si>
-  <si>
-    <t>DNT - SAP Readings</t>
-  </si>
-  <si>
-    <t>TB Email/~/LB/~/CB</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC50</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC51</t>
-  </si>
-  <si>
-    <t>Publish</t>
-  </si>
-  <si>
-    <t>Response Rate Report</t>
-  </si>
-  <si>
-    <t>Advance Frequency Report</t>
-  </si>
-  <si>
-    <t>Step 1: Select Response Rate question</t>
-  </si>
-  <si>
-    <t>Step 2: Enter Maximum Count</t>
-  </si>
-  <si>
-    <t>Step 1: Select Survey Questions</t>
-  </si>
-  <si>
-    <t>Step 2: Re-order Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 4:  Data Sources and Filters </t>
+    <t>toggleData</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>respPeriodCond</t>
+  </si>
+  <si>
+    <t>IP,emailAddr,browserType,OS,screenRes,startEndTime</t>
+  </si>
+  <si>
+    <t>01-Jan-2018</t>
+  </si>
+  <si>
+    <t>07-Dec-2021</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC53</t>
+  </si>
+  <si>
+    <t>Export Excel</t>
+  </si>
+  <si>
+    <t>Step 1: Select Excel format</t>
+  </si>
+  <si>
+    <t>Step 2: Select Survey Questions and Click Continue.</t>
+  </si>
+  <si>
+    <t>Step 3: Toggle 'ON' all Respondent Attributes and Response Attributes  and Click Continue.</t>
+  </si>
+  <si>
+    <t>Step 4: Apply 1 condition and any Date filter and Click Continue.</t>
+  </si>
+  <si>
+    <t>Step 5:  Toggle 'ON' Assign code and Click Continue.</t>
+  </si>
+  <si>
+    <t>Q1. What's your Name?</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>Godwin</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC54</t>
+  </si>
+  <si>
+    <t>Export CSV</t>
+  </si>
+  <si>
+    <t>Step 1: Select CSV format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC55</t>
+  </si>
+  <si>
+    <t>Export XML</t>
+  </si>
+  <si>
+    <t>Step 1: Select XML format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC56</t>
+  </si>
+  <si>
+    <t>Export Access</t>
+  </si>
+  <si>
+    <t>Step 1: Select Access format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC57</t>
+  </si>
+  <si>
+    <t>Export Word</t>
+  </si>
+  <si>
+    <t>Step 1: Select Word format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC58</t>
+  </si>
+  <si>
+    <t>Export HTML</t>
+  </si>
+  <si>
+    <t>Step 1: Select HTML format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC59</t>
+  </si>
+  <si>
+    <t>Export SPSS</t>
+  </si>
+  <si>
+    <t>Step 1: Select SPSS format</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC60</t>
+  </si>
+  <si>
+    <t>Export SoGo1</t>
+  </si>
+  <si>
+    <t>Step 1: Export sogosurvey1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Search Bar on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Mismatch Text not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Prepop fields are not same as prepop values provided in excel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Main Folder on page.</t>
+  </si>
+  <si>
+    <t>Step 6: Click any range and click Export. (Note the time until download is completed)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,29 +1329,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,8 +1364,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1238,66 +1376,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1360,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1377,18 +1455,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1679,8 +1751,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1734,9 +1806,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,18 +1841,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,7 +1871,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -1813,7 +1885,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -1827,15 +1899,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1844,37 +1930,38 @@
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{26721182-B2EF-4285-8C87-025E098BCBB1}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{A02861A0-D706-47F4-96CB-5900419946A3}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{5161C1A0-0944-478E-82A0-218E060D3EE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:BE52"/>
+  <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU51" sqref="AU51:AU52"/>
+    <sheetView tabSelected="1" topLeftCell="P50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54:S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="56" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="60" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="18.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1930,129 +2017,141 @@
         <v>44</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BE1" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BI1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2061,18 +2160,18 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="14" t="s">
-        <v>46</v>
+      <c r="J2" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
@@ -2097,7 +2196,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2136,11 +2235,15 @@
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
-      <c r="BE2" s="4"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="4"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -2152,17 +2255,17 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="6"/>
@@ -2225,11 +2328,15 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="4"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="4"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -2241,17 +2348,17 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="6"/>
@@ -2314,11 +2421,15 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="4"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="4"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -2330,17 +2441,17 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="12"/>
@@ -2403,11 +2514,15 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="12"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="12"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -2419,17 +2534,17 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="12"/>
@@ -2440,16 +2555,16 @@
         <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>37</v>
@@ -2459,28 +2574,28 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -2508,11 +2623,15 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="12"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="12"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -2524,17 +2643,17 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="12"/>
@@ -2545,16 +2664,16 @@
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>37</v>
@@ -2564,28 +2683,28 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -2613,11 +2732,15 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-      <c r="BE7" s="12"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="12"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2629,17 +2752,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="12"/>
@@ -2653,13 +2776,13 @@
         <v>38</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2675,10 +2798,10 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -2704,11 +2827,15 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="BE8" s="12"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="12"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2720,17 +2847,17 @@
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="12"/>
@@ -2744,13 +2871,13 @@
         <v>38</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2766,13 +2893,13 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF9" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -2797,11 +2924,15 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-      <c r="BE9" s="12"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2813,17 +2944,17 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="12"/>
@@ -2837,10 +2968,10 @@
         <v>38</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>37</v>
@@ -2851,7 +2982,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -2861,10 +2992,10 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -2890,11 +3021,15 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-      <c r="BE10" s="12"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="12"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -2906,17 +3041,17 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="12"/>
@@ -2930,10 +3065,10 @@
         <v>38</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>37</v>
@@ -2944,7 +3079,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -2954,10 +3089,10 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -2983,11 +3118,15 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-      <c r="BE11" s="12"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="12"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2999,17 +3138,17 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="12"/>
@@ -3020,28 +3159,28 @@
         <v>3</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -3076,11 +3215,15 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-      <c r="BE12" s="12"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="12"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -3092,17 +3235,17 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="12"/>
@@ -3113,28 +3256,28 @@
         <v>3</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -3147,7 +3290,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
@@ -3171,11 +3314,15 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
-      <c r="BE13" s="12"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="12"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
@@ -3187,17 +3334,17 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="12"/>
@@ -3208,28 +3355,28 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -3243,7 +3390,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -3266,11 +3413,15 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
-      <c r="BE14" s="12"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="12"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -3282,22 +3433,22 @@
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M15" s="4">
         <v>2201</v>
@@ -3355,11 +3506,15 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="BE15" s="12"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="12"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -3371,17 +3526,17 @@
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="12"/>
@@ -3436,11 +3591,15 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
-      <c r="BE16" s="12"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="12"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -3452,17 +3611,17 @@
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="12"/>
@@ -3479,20 +3638,20 @@
         <v>34</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -3527,11 +3686,15 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
-      <c r="BE17" s="12"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="12"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -3543,17 +3706,17 @@
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="12"/>
@@ -3570,20 +3733,20 @@
         <v>34</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -3598,7 +3761,7 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -3620,11 +3783,15 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
-      <c r="BE18" s="12"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="12"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -3636,17 +3803,17 @@
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="12"/>
@@ -3663,20 +3830,20 @@
         <v>34</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -3691,16 +3858,16 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL19" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AK19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="AM19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -3719,11 +3886,15 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
-      <c r="BE19" s="12"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="12"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -3735,17 +3906,17 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="12"/>
@@ -3756,31 +3927,31 @@
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="S20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -3804,10 +3975,10 @@
       </c>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -3822,11 +3993,15 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-      <c r="BE20" s="12"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="12"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -3838,17 +4013,17 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="12"/>
@@ -3859,35 +4034,35 @@
         <v>3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -3921,11 +4096,15 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="BE21" s="12"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="12"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -3937,17 +4116,17 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="12"/>
@@ -3958,35 +4137,35 @@
         <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="R22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -4020,11 +4199,15 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
-      <c r="BE22" s="12"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="12"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -4036,17 +4219,17 @@
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K23" s="12"/>
@@ -4057,13 +4240,13 @@
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>37</v>
@@ -4074,7 +4257,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -4111,11 +4294,15 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
-      <c r="BE23" s="12"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="12"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -4127,17 +4314,17 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="12"/>
@@ -4148,22 +4335,22 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="S24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -4202,11 +4389,15 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
-      <c r="BE24" s="12"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="12"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -4218,17 +4409,17 @@
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="12"/>
@@ -4239,28 +4430,28 @@
         <v>3</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="S25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="U25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="7"/>
@@ -4277,7 +4468,7 @@
       <c r="AH25" s="7"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -4287,7 +4478,7 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
@@ -4301,11 +4492,15 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
-      <c r="BE25" s="12"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="12"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -4317,28 +4512,28 @@
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="16" t="s">
-        <v>46</v>
+      <c r="J26" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M26" s="4">
         <v>780</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -4382,14 +4577,18 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
-      <c r="BE26" s="12"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="12"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -4398,52 +4597,54 @@
         <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="12"/>
+      <c r="J27" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>410</v>
+      </c>
       <c r="L27" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M27" s="4">
         <v>780</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="S27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="W27" s="7"/>
       <c r="X27" s="1"/>
@@ -4468,14 +4669,14 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT27" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU27" s="8"/>
       <c r="AV27" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
@@ -4485,14 +4686,18 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
-      <c r="BE27" s="12"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="12"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -4501,49 +4706,49 @@
         <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="17" t="s">
-        <v>29</v>
+      <c r="J28" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M28" s="4">
         <v>780</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="Q28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="S28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="7"/>
@@ -4569,14 +4774,14 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT28" s="8"/>
       <c r="AU28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
@@ -4586,14 +4791,18 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
-      <c r="BE28" s="12"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="12"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -4602,49 +4811,49 @@
         <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="17" t="s">
-        <v>29</v>
+      <c r="J29" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M29" s="4">
         <v>780</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="Q29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="S29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="7"/>
@@ -4670,14 +4879,14 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT29" s="8"/>
       <c r="AU29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
@@ -4687,14 +4896,18 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
-      <c r="BE29" s="12"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="12"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -4703,28 +4916,28 @@
         <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="17" t="s">
-        <v>29</v>
+      <c r="J30" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M30" s="4">
         <v>780</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -4757,15 +4970,15 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AT30" s="8"/>
       <c r="AU30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
@@ -4774,14 +4987,18 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
-      <c r="BE30" s="12"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="12"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -4790,40 +5007,40 @@
         <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="17" t="s">
-        <v>29</v>
+      <c r="J31" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M31" s="4">
         <v>780</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -4854,29 +5071,33 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="8"/>
       <c r="AU31" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY31" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
-      <c r="BE31" s="12"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="12"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -4885,37 +5106,39 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="12"/>
+      <c r="J32" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>411</v>
+      </c>
       <c r="L32" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M32" s="4">
         <v>780</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4946,11 +5169,11 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AU32" s="8"/>
       <c r="AV32" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -4960,14 +5183,18 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
-      <c r="BE32" s="12"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="12"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -4976,34 +5203,34 @@
         <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="17" t="s">
-        <v>29</v>
+      <c r="J33" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M33" s="4">
         <v>780</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -5034,7 +5261,7 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT33" s="8"/>
       <c r="AU33" s="8"/>
@@ -5047,14 +5274,18 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
-      <c r="BE33" s="12"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="12"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5063,28 +5294,28 @@
         <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="17" t="s">
-        <v>29</v>
+      <c r="J34" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M34" s="4">
         <v>780</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -5117,7 +5348,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT34" s="8"/>
       <c r="AU34" s="8"/>
@@ -5130,14 +5361,18 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
-      <c r="BE34" s="12"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="12"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -5146,28 +5381,28 @@
         <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="17" t="s">
-        <v>29</v>
+      <c r="J35" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M35" s="4">
         <v>780</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -5200,7 +5435,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT35" s="8"/>
       <c r="AU35" s="8"/>
@@ -5213,14 +5448,18 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
-      <c r="BE35" s="12"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="12"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -5229,28 +5468,28 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="17" t="s">
-        <v>29</v>
+      <c r="J36" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M36" s="4">
         <v>780</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -5283,7 +5522,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT36" s="8"/>
       <c r="AU36" s="8"/>
@@ -5296,14 +5535,18 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
-      <c r="BE36" s="12"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="12"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -5312,28 +5555,28 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="17" t="s">
-        <v>29</v>
+      <c r="J37" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M37" s="4">
         <v>780</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -5366,7 +5609,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="2"/>
       <c r="AS37" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT37" s="8"/>
       <c r="AU37" s="8"/>
@@ -5379,14 +5622,18 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
-      <c r="BE37" s="12"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="12"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -5395,28 +5642,28 @@
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="17" t="s">
-        <v>29</v>
+      <c r="J38" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M38" s="4">
         <v>780</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -5449,7 +5696,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT38" s="8"/>
       <c r="AU38" s="8"/>
@@ -5462,14 +5709,18 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
-      <c r="BE38" s="12"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="12"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -5478,28 +5729,28 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="17" t="s">
-        <v>29</v>
+      <c r="J39" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M39" s="4">
         <v>780</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -5532,7 +5783,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="2"/>
       <c r="AS39" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT39" s="8"/>
       <c r="AU39" s="8"/>
@@ -5545,14 +5796,18 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
-      <c r="BE39" s="12"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="12"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -5561,34 +5816,36 @@
         <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="12"/>
+      <c r="J40" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>412</v>
+      </c>
       <c r="L40" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M40" s="4">
         <v>780</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -5626,24 +5883,28 @@
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BA40" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="BB40" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="BB40" s="9" t="s">
-        <v>348</v>
       </c>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
-      <c r="BE40" s="12"/>
+      <c r="BE40" s="10"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BI40" s="12"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -5652,28 +5913,30 @@
         <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="12"/>
+      <c r="J41" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>412</v>
+      </c>
       <c r="L41" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M41" s="4">
         <v>780</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -5713,22 +5976,26 @@
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
       <c r="BC41" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BD41" s="10"/>
-      <c r="BE41" s="12"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="12"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -5737,28 +6004,28 @@
         <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="17" t="s">
-        <v>29</v>
+      <c r="J42" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M42" s="4">
         <v>780</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -5791,14 +6058,14 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="2"/>
       <c r="AS42" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT42" s="8"/>
       <c r="AU42" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
@@ -5808,16 +6075,20 @@
       <c r="BB42" s="9"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE42" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="BE42" s="10"/>
+      <c r="BF42" s="10"/>
+      <c r="BG42" s="10"/>
+      <c r="BH42" s="10"/>
+      <c r="BI42" s="12"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -5826,28 +6097,30 @@
         <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="12"/>
+      <c r="J43" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>410</v>
+      </c>
       <c r="L43" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M43" s="4">
         <v>780</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -5880,14 +6153,14 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="2"/>
       <c r="AS43" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT43" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AU43" s="8"/>
       <c r="AV43" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
@@ -5897,16 +6170,20 @@
       <c r="BB43" s="9"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE43" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="BE43" s="10"/>
+      <c r="BF43" s="10"/>
+      <c r="BG43" s="10"/>
+      <c r="BH43" s="10"/>
+      <c r="BI43" s="12"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -5915,28 +6192,28 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="17" t="s">
-        <v>29</v>
+      <c r="J44" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M44" s="4">
         <v>780</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -5969,14 +6246,14 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="2"/>
       <c r="AS44" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT44" s="8"/>
       <c r="AU44" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
@@ -5986,16 +6263,20 @@
       <c r="BB44" s="9"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE44" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="BE44" s="10"/>
+      <c r="BF44" s="10"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="12"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -6004,43 +6285,45 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="12"/>
+      <c r="J45" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>409</v>
+      </c>
       <c r="L45" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M45" s="4">
         <v>780</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="R45" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="S45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -6070,14 +6353,14 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT45" s="8"/>
       <c r="AU45" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AV45" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
@@ -6089,16 +6372,20 @@
         <v>4</v>
       </c>
       <c r="BD45" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE45" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="BE45" s="10"/>
+      <c r="BF45" s="10"/>
+      <c r="BG45" s="10"/>
+      <c r="BH45" s="10"/>
+      <c r="BI45" s="12"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -6107,28 +6394,28 @@
         <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="17" t="s">
-        <v>29</v>
+      <c r="J46" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M46" s="4">
         <v>780</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -6161,14 +6448,14 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT46" s="8"/>
       <c r="AU46" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV46" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
@@ -6178,16 +6465,20 @@
       <c r="BB46" s="9"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE46" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="BE46" s="10"/>
+      <c r="BF46" s="10"/>
+      <c r="BG46" s="10"/>
+      <c r="BH46" s="10"/>
+      <c r="BI46" s="12"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -6196,31 +6487,31 @@
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="17" t="s">
-        <v>29</v>
+      <c r="J47" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M47" s="4">
         <v>780</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -6263,14 +6554,18 @@
       <c r="BB47" s="9"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
-      <c r="BE47" s="12"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="12"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -6279,31 +6574,31 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="17" t="s">
-        <v>29</v>
+      <c r="J48" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M48" s="4">
         <v>780</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -6346,14 +6641,18 @@
       <c r="BB48" s="9"/>
       <c r="BC48" s="10"/>
       <c r="BD48" s="10"/>
-      <c r="BE48" s="12"/>
+      <c r="BE48" s="10"/>
+      <c r="BF48" s="10"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="10"/>
+      <c r="BI48" s="12"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -6362,31 +6661,31 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="17" t="s">
-        <v>29</v>
+      <c r="J49" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M49" s="4">
         <v>780</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -6429,14 +6728,18 @@
       <c r="BB49" s="9"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
-      <c r="BE49" s="12"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="12"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -6445,43 +6748,43 @@
         <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="17" t="s">
-        <v>29</v>
+      <c r="J50" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M50" s="4">
         <v>780</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="R50" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="S50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -6511,7 +6814,7 @@
       <c r="AS50" s="8"/>
       <c r="AT50" s="8"/>
       <c r="AU50" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
@@ -6522,14 +6825,18 @@
       <c r="BB50" s="9"/>
       <c r="BC50" s="10"/>
       <c r="BD50" s="10"/>
-      <c r="BE50" s="12"/>
+      <c r="BE50" s="10"/>
+      <c r="BF50" s="10"/>
+      <c r="BG50" s="10"/>
+      <c r="BH50" s="10"/>
+      <c r="BI50" s="12"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -6538,18 +6845,18 @@
         <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="18" t="s">
-        <v>46</v>
+      <c r="J51" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="4" t="s">
@@ -6559,10 +6866,10 @@
         <v>3</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>35</v>
@@ -6577,7 +6884,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="7"/>
       <c r="X51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
@@ -6611,14 +6918,18 @@
       <c r="BB51" s="9"/>
       <c r="BC51" s="10"/>
       <c r="BD51" s="10"/>
-      <c r="BE51" s="12"/>
+      <c r="BE51" s="10"/>
+      <c r="BF51" s="10"/>
+      <c r="BG51" s="10"/>
+      <c r="BH51" s="10"/>
+      <c r="BI51" s="12"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -6627,18 +6938,18 @@
         <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="22" t="s">
-        <v>46</v>
+      <c r="J52" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="4" t="s">
@@ -6648,16 +6959,16 @@
         <v>3</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>37</v>
@@ -6700,7 +7011,946 @@
       <c r="BB52" s="9"/>
       <c r="BC52" s="10"/>
       <c r="BD52" s="10"/>
-      <c r="BE52" s="12"/>
+      <c r="BE52" s="10"/>
+      <c r="BF52" s="10"/>
+      <c r="BG52" s="10"/>
+      <c r="BH52" s="10"/>
+      <c r="BI52" s="12"/>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" s="16">
+        <v>250</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="8"/>
+      <c r="AT53" s="8"/>
+      <c r="AU53" s="8"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="10"/>
+      <c r="BD53" s="10"/>
+      <c r="BE53" s="10"/>
+      <c r="BF53" s="10"/>
+      <c r="BG53" s="10"/>
+      <c r="BH53" s="10"/>
+      <c r="BI53" s="16"/>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M54" s="16">
+        <v>250</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="8"/>
+      <c r="AT54" s="8"/>
+      <c r="AU54" s="8"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="10"/>
+      <c r="BD54" s="10"/>
+      <c r="BE54" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF54" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG54" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH54" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI54" s="16"/>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" s="16">
+        <v>250</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="8"/>
+      <c r="AT55" s="8"/>
+      <c r="AU55" s="8"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="9"/>
+      <c r="BC55" s="10"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF55" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG55" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH55" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI55" s="16"/>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" s="16">
+        <v>250</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="8"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="10"/>
+      <c r="BE56" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF56" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG56" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH56" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI56" s="16"/>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" s="16">
+        <v>250</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="8"/>
+      <c r="AT57" s="8"/>
+      <c r="AU57" s="8"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="9"/>
+      <c r="BB57" s="9"/>
+      <c r="BC57" s="10"/>
+      <c r="BD57" s="10"/>
+      <c r="BE57" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF57" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG57" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH57" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI57" s="16"/>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M58" s="16">
+        <v>250</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="8"/>
+      <c r="AT58" s="8"/>
+      <c r="AU58" s="8"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="9"/>
+      <c r="BB58" s="9"/>
+      <c r="BC58" s="10"/>
+      <c r="BD58" s="10"/>
+      <c r="BE58" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF58" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG58" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH58" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI58" s="16"/>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M59" s="16">
+        <v>250</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="8"/>
+      <c r="AT59" s="8"/>
+      <c r="AU59" s="8"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="9"/>
+      <c r="BB59" s="9"/>
+      <c r="BC59" s="10"/>
+      <c r="BD59" s="10"/>
+      <c r="BE59" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF59" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG59" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH59" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI59" s="16"/>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M60" s="16">
+        <v>250</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="8"/>
+      <c r="AT60" s="8"/>
+      <c r="AU60" s="8"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="9"/>
+      <c r="BB60" s="9"/>
+      <c r="BC60" s="10"/>
+      <c r="BD60" s="10"/>
+      <c r="BE60" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF60" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG60" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH60" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="BI60" s="16"/>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M61" s="16">
+        <v>250</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="8"/>
+      <c r="AT61" s="8"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="9"/>
+      <c r="BB61" s="9"/>
+      <c r="BC61" s="10"/>
+      <c r="BD61" s="10"/>
+      <c r="BE61" s="10"/>
+      <c r="BF61" s="14"/>
+      <c r="BG61" s="15"/>
+      <c r="BH61" s="10"/>
+      <c r="BI61" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F1FD8-CAB7-43D0-8354-1CD2C6F6249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F460F9-581F-420F-AA18-A46277944409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="540">
   <si>
     <t>Environment</t>
   </si>
@@ -1252,26 +1252,405 @@
     <t>Step 1: Export sogosurvey1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Not able to find element Search Bar on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Data Mismatch Text not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number of Prepop fields are not same as prepop values provided in excel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not able to find element Main Folder on page.</t>
-  </si>
-  <si>
     <t>Step 6: Click any range and click Export. (Note the time until download is completed)*</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>https://beta.sogosurvey.com/</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC61</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>sogo_performance</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>Dashboard with 75 to 100 Surveys</t>
+  </si>
+  <si>
+    <t>Create new survey</t>
+  </si>
+  <si>
+    <t>foldername</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>secondarylanguage</t>
+  </si>
+  <si>
+    <t>primarylanguage</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC62</t>
+  </si>
+  <si>
+    <t>new question performance</t>
+  </si>
+  <si>
+    <t>Radio button - load</t>
+  </si>
+  <si>
+    <t>Radio button - save</t>
+  </si>
+  <si>
+    <t>Drop down - load</t>
+  </si>
+  <si>
+    <t>Drop down - save</t>
+  </si>
+  <si>
+    <t>Horizontal Radio button - load</t>
+  </si>
+  <si>
+    <t>Horizontal Radio button - save</t>
+  </si>
+  <si>
+    <t>Multiple select check box - load</t>
+  </si>
+  <si>
+    <t>Multiple select check box - save</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Text box - load</t>
+  </si>
+  <si>
+    <t>Text box - save</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Multiple select list box - load</t>
+  </si>
+  <si>
+    <t>Multiple select list box - save</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>Step 14</t>
+  </si>
+  <si>
+    <t>Numeric Allocation - load</t>
+  </si>
+  <si>
+    <t>Numeric Allocation - save</t>
+  </si>
+  <si>
+    <t>Step 15</t>
+  </si>
+  <si>
+    <t>Step 16</t>
+  </si>
+  <si>
+    <t>Ranking - load</t>
+  </si>
+  <si>
+    <t>Ranking - save</t>
+  </si>
+  <si>
+    <t>Step 17</t>
+  </si>
+  <si>
+    <t>Step 18</t>
+  </si>
+  <si>
+    <t>Rating - load (Rating radio button)</t>
+  </si>
+  <si>
+    <t>Rating - save (Rating radio button)</t>
+  </si>
+  <si>
+    <t>Step 19</t>
+  </si>
+  <si>
+    <t>Step 20</t>
+  </si>
+  <si>
+    <t>Rating scale - load</t>
+  </si>
+  <si>
+    <t>Rating scale - save</t>
+  </si>
+  <si>
+    <t>Step 21</t>
+  </si>
+  <si>
+    <t>Step 22</t>
+  </si>
+  <si>
+    <t>Date - load</t>
+  </si>
+  <si>
+    <t>Date - save</t>
+  </si>
+  <si>
+    <t>Step 23</t>
+  </si>
+  <si>
+    <t>Step 24</t>
+  </si>
+  <si>
+    <t>Multiple textbox (with 50 sub questions) - load</t>
+  </si>
+  <si>
+    <t>Multiple textbox (with 50 sub questions) - save</t>
+  </si>
+  <si>
+    <t>Step 25</t>
+  </si>
+  <si>
+    <t>Step 26</t>
+  </si>
+  <si>
+    <t>Multiple Drop down(with 50 sub questions and 10 options in drop down) - load</t>
+  </si>
+  <si>
+    <t>Multiple Drop down(with 50 sub questions and 10 options in drop down) - save</t>
+  </si>
+  <si>
+    <t>Step 27</t>
+  </si>
+  <si>
+    <t>Step 28</t>
+  </si>
+  <si>
+    <t>Demographic Question (with all fields) - load</t>
+  </si>
+  <si>
+    <t>Demographic Question (with all fields) - save</t>
+  </si>
+  <si>
+    <t>Step 29</t>
+  </si>
+  <si>
+    <t>Step 30</t>
+  </si>
+  <si>
+    <t>Matrix Grid(with 10 sub questions and 5 grids, having 5 answer option columns each) - load</t>
+  </si>
+  <si>
+    <t>Matrix Grid(with 10 sub questions and 5 grids, having 5 answer option columns each) - save</t>
+  </si>
+  <si>
+    <t>Step 31</t>
+  </si>
+  <si>
+    <t>Step 32</t>
+  </si>
+  <si>
+    <t>Comment(with 2000 characters) - load</t>
+  </si>
+  <si>
+    <t>Comment(with 2000 characters) - save</t>
+  </si>
+  <si>
+    <t>Attachment(with 5 sub questions) - load</t>
+  </si>
+  <si>
+    <t>Attachment(with 5 sub questions) - save</t>
+  </si>
+  <si>
+    <t>Step 33</t>
+  </si>
+  <si>
+    <t>Step 34</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC63</t>
+  </si>
+  <si>
+    <t>ML page - load(1487 Survey copied from )  (sid - 157)</t>
+  </si>
+  <si>
+    <t>Autotranslate all question and messages(Arabic language) - completion</t>
+  </si>
+  <si>
+    <t>Autotranslate all question and messages(Arabic language) - save</t>
+  </si>
+  <si>
+    <t>Autotranslate all question and messages(Arabic language) - reset</t>
+  </si>
+  <si>
+    <t>Spell check on Entire survey - load  (SID 157)</t>
+  </si>
+  <si>
+    <t>Spell check on Entire survey - save (SID 157)</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Readings - 20-Apr-2022 20:42:36</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC64</t>
+  </si>
+  <si>
+    <t>SMX reading survey</t>
+  </si>
+  <si>
+    <t>Question Display Logic (load page without CQ) - load (sid - 157) (Use last page in the survey)</t>
+  </si>
+  <si>
+    <t>Add 1 CQ and save - save</t>
+  </si>
+  <si>
+    <t>Open Page with 1 CQ - load</t>
+  </si>
+  <si>
+    <t>Create 9 CQs and Save page - save</t>
+  </si>
+  <si>
+    <t>Open Page with 9 CQs - load</t>
+  </si>
+  <si>
+    <t>Q4. Occupation/~/Q5. Countries/~/Q6. Time Zone/~/Q7. Details of participant/~/Q9. Date of registration for vaccine./~/Q10. Symbol Rating Scale: How was the performance of Unit during vaccine./~/Q11. Did you like the unit which you have visited for vaccination./~/Q12. Did you like the service of visited Unit./~/Q13. Which Unit you will prefer for vaccination/~/Q14. MTB - Describe below</t>
+  </si>
+  <si>
+    <t>Select all options/~~/Accountant/~/Consultant/~~/Select all options/~~/Select all options/~~/Select all options/~~/Select all options/~~/Select all options/~~/Select all options/~~/Select all options/~~/Select all options</t>
+  </si>
+  <si>
+    <t>is one of the following/~/Is all of the following/~/is one of the following/~/is one of the following/~/is one of the following/~/is one of the following/~/is one of the following/~/is one of the following/~/is one of the following/~/is one of the following</t>
+  </si>
+  <si>
+    <t>Q3. Influence/~/Q4. Occupation/~/Q3. Influence/~/Q3. Influence/~/Q3. Influence/~/Q3. Influence/~/Q3. Influence/~/Q3. Influence/~/Q3. Influence/~/Q3. Influence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiry Rules - load  (sid - 157) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiry Rules - save  (sid - 157) </t>
+  </si>
+  <si>
+    <t>Web - load</t>
+  </si>
+  <si>
+    <t>Web - save</t>
+  </si>
+  <si>
+    <t>Mobile - load</t>
+  </si>
+  <si>
+    <t>Mobile - save</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC65</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Scanner Ready</t>
+  </si>
+  <si>
+    <t>Download Survey Reading</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View all Pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View all Pages - load (sid - 157) </t>
+  </si>
+  <si>
+    <t>Copy any page before Page 1 (Use last page to copy)</t>
+  </si>
+  <si>
+    <t>Delete 1st Question</t>
+  </si>
+  <si>
+    <t>Delete 1st Page</t>
+  </si>
+  <si>
+    <t>Move last page before Page 1 (Use last page to copy)</t>
+  </si>
+  <si>
+    <t>Go to any other page</t>
+  </si>
+  <si>
+    <t>Go to any other question (Last Page first grid question)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC67</t>
+  </si>
+  <si>
+    <t>Quota Readings</t>
+  </si>
+  <si>
+    <t>Quota Management - load  (sid - 157)  (Page 1)</t>
+  </si>
+  <si>
+    <t>Set quota on 5 questions - save  (sid - 157)  page 1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC68</t>
+  </si>
+  <si>
+    <t>Copy Survey Readings</t>
+  </si>
+  <si>
+    <t>Copy Survey to Same account</t>
+  </si>
+  <si>
+    <t>Copy Survey to Another account</t>
+  </si>
+  <si>
+    <t>sogo_abhandi</t>
+  </si>
+  <si>
+    <t>Survey Creation Readings</t>
+  </si>
+  <si>
+    <t>All question type readings</t>
+  </si>
+  <si>
+    <t>AutoTranslation Readings</t>
+  </si>
+  <si>
+    <t>QDL Readings</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iframe Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loader did not disappear.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1333,8 +1712,145 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="84">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,7 +1891,377 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1438,7 +2324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1461,6 +2347,56 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1743,16 +2679,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,9 +2724,21 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{132B2354-4A9B-4433-94FC-F96C1CCDE7E2}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{A0A92BDC-5AF5-4CFD-8ACF-3EF7B429F3AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1806,9 +2754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,18 +2789,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,6 +2870,20 @@
         <v>364</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1931,37 +2893,38 @@
     <hyperlink ref="C4" r:id="rId1" xr:uid="{26721182-B2EF-4285-8C87-025E098BCBB1}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{A02861A0-D706-47F4-96CB-5900419946A3}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{5161C1A0-0944-478E-82A0-218E060D3EE6}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{515E96A0-C3E7-4898-A6F4-FEA2ACFCBF2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:BI61"/>
+  <dimension ref="A1:CK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54:S60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="60" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="88" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2029,124 +2992,208 @@
         <v>54</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="CK1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -2170,7 +3217,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6"/>
@@ -2239,9 +3286,37 @@
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
-      <c r="BI2" s="4"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="4"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -2265,7 +3340,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="6"/>
@@ -2332,9 +3407,37 @@
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
-      <c r="BI3" s="4"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="4"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -2358,7 +3461,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="6"/>
@@ -2425,9 +3528,37 @@
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="4"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="4"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -2451,7 +3582,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="12"/>
@@ -2518,9 +3649,37 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="12"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="12"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -2544,7 +3703,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="12"/>
@@ -2573,30 +3732,14 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
@@ -2614,22 +3757,66 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
+      <c r="AV6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="12"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="12"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>147</v>
       </c>
@@ -2653,7 +3840,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="12"/>
@@ -2682,30 +3869,14 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -2723,22 +3894,66 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
+      <c r="AV7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BI7" s="12"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="12"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
@@ -2762,7 +3977,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="12"/>
@@ -2797,12 +4012,8 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -2826,14 +4037,46 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
+      <c r="BD8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
-      <c r="BI8" s="12"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="12"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -2857,7 +4100,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="12"/>
@@ -2892,15 +4135,9 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -2923,14 +4160,48 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
+      <c r="BD9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
-      <c r="BI9" s="12"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="12"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>157</v>
       </c>
@@ -2954,7 +4225,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="12"/>
@@ -2981,9 +4252,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -2991,12 +4260,8 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -3012,7 +4277,9 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
+      <c r="AV10" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
@@ -3020,14 +4287,46 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
+      <c r="BD10" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
-      <c r="BI10" s="12"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="12"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>159</v>
       </c>
@@ -3051,7 +4350,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="12"/>
@@ -3078,9 +4377,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -3088,12 +4385,8 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -3109,7 +4402,9 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
+      <c r="AV11" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
@@ -3117,14 +4412,46 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
+      <c r="BD11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
-      <c r="BI11" s="12"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="12"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>161</v>
       </c>
@@ -3148,7 +4475,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="12"/>
@@ -3179,9 +4506,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -3206,7 +4531,9 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
+      <c r="AV12" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
@@ -3219,9 +4546,37 @@
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
-      <c r="BI12" s="12"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="12"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>167</v>
       </c>
@@ -3245,7 +4600,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="12"/>
@@ -3276,9 +4631,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -3289,38 +4642,68 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="7" t="s">
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
-      <c r="BI13" s="12"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7"/>
+      <c r="CJ13" s="7"/>
+      <c r="CK13" s="12"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>169</v>
       </c>
@@ -3344,7 +4727,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="12"/>
@@ -3375,9 +4758,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -3388,10 +4769,8 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -3404,7 +4783,9 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
+      <c r="AV14" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
@@ -3415,11 +4796,41 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="12"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="12"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -3443,7 +4854,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="12"/>
@@ -3483,7 +4894,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -3508,11 +4919,39 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
+      <c r="BG15" s="7"/>
       <c r="BH15" s="1"/>
-      <c r="BI15" s="12"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="12"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
@@ -3536,7 +4975,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="12"/>
@@ -3568,7 +5007,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="7"/>
+      <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -3593,11 +5032,39 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
+      <c r="BG16" s="7"/>
       <c r="BH16" s="1"/>
-      <c r="BI16" s="12"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="12"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -3621,7 +5088,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="12"/>
@@ -3650,9 +5117,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -3663,7 +5128,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="7"/>
+      <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -3677,7 +5142,9 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
+      <c r="AV17" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
@@ -3688,11 +5155,39 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
+      <c r="BG17" s="7"/>
       <c r="BH17" s="1"/>
-      <c r="BI17" s="12"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="12"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>179</v>
       </c>
@@ -3716,7 +5211,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="12"/>
@@ -3745,9 +5240,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -3758,11 +5251,9 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="7"/>
+      <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3774,7 +5265,9 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
+      <c r="AV18" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
@@ -3785,11 +5278,41 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
+      <c r="BG18" s="7"/>
       <c r="BH18" s="1"/>
-      <c r="BI18" s="12"/>
+      <c r="BI18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="12"/>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>182</v>
       </c>
@@ -3813,7 +5336,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="12"/>
@@ -3842,9 +5365,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -3855,20 +5376,12 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="7"/>
+      <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
@@ -3877,7 +5390,9 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
+      <c r="AV19" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
@@ -3888,11 +5403,47 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
+      <c r="BG19" s="7"/>
       <c r="BH19" s="1"/>
-      <c r="BI19" s="12"/>
+      <c r="BI19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="12"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>185</v>
       </c>
@@ -3916,7 +5467,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="12"/>
@@ -3964,22 +5515,16 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="7"/>
+      <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
-      <c r="AN20" s="1">
-        <v>10000</v>
-      </c>
+      <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="AP20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
@@ -3995,11 +5540,45 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
+      <c r="BG20" s="7"/>
       <c r="BH20" s="1"/>
-      <c r="BI20" s="12"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="12"/>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
@@ -4023,7 +5602,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="12"/>
@@ -4052,18 +5631,10 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -4071,26 +5642,32 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-      <c r="AH21" s="7"/>
+      <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="1">
-        <v>2</v>
-      </c>
+      <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
+      <c r="AV21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
@@ -4098,11 +5675,41 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
+      <c r="BG21" s="7"/>
       <c r="BH21" s="1"/>
-      <c r="BI21" s="12"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="12"/>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -4126,7 +5733,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="12"/>
@@ -4155,18 +5762,10 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>339</v>
-      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -4174,26 +5773,32 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="7"/>
+      <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
-      <c r="AO22" s="1">
-        <v>5</v>
-      </c>
+      <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
+      <c r="AV22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
@@ -4201,11 +5806,41 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
+      <c r="BG22" s="7"/>
       <c r="BH22" s="1"/>
-      <c r="BI22" s="12"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="12"/>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>199</v>
       </c>
@@ -4229,7 +5864,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K23" s="12"/>
@@ -4256,9 +5891,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="7" t="s">
-        <v>113</v>
-      </c>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
@@ -4269,15 +5902,13 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="7"/>
+      <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
-      <c r="AN23" s="1">
-        <v>2</v>
-      </c>
+      <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
@@ -4285,7 +5916,9 @@
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
+      <c r="AV23" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
@@ -4296,11 +5929,41 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
+      <c r="BG23" s="7"/>
       <c r="BH23" s="1"/>
-      <c r="BI23" s="12"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="12"/>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>204</v>
       </c>
@@ -4324,7 +5987,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="12"/>
@@ -4355,7 +6018,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="7"/>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -4366,7 +6029,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="7"/>
+      <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -4380,7 +6043,7 @@
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
+      <c r="AV24" s="7"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
@@ -4391,11 +6054,39 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
+      <c r="BG24" s="7"/>
       <c r="BH24" s="1"/>
-      <c r="BI24" s="12"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="12"/>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>210</v>
       </c>
@@ -4419,7 +6110,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="12"/>
@@ -4454,7 +6145,7 @@
         <v>97</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="7"/>
+      <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -4465,11 +6156,9 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="7"/>
+      <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -4477,33 +6166,63 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="2" t="s">
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="12"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="2"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="2"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="12"/>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -4522,8 +6241,8 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="18" t="s">
-        <v>369</v>
+      <c r="J26" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
@@ -4543,7 +6262,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="7"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -4554,7 +6273,7 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="7"/>
+      <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -4564,31 +6283,59 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="12"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="2"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+      <c r="CF26" s="2"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
+      <c r="CJ26" s="2"/>
+      <c r="CK26" s="12"/>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -4607,12 +6354,10 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>410</v>
-      </c>
+      <c r="J27" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
         <v>341</v>
       </c>
@@ -4646,7 +6391,7 @@
       <c r="V27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W27" s="7"/>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -4657,7 +6402,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="7"/>
+      <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -4667,17 +6412,11 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT27" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="7"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
@@ -4688,16 +6427,50 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
+      <c r="BG27" s="7"/>
       <c r="BH27" s="1"/>
-      <c r="BI27" s="12"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS27" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="BT27" s="8"/>
+      <c r="BU27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="12"/>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -4716,8 +6489,8 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="18" t="s">
-        <v>369</v>
+      <c r="J28" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
@@ -4751,7 +6524,7 @@
         <v>124</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="7"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -4762,7 +6535,7 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="7"/>
+      <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -4772,17 +6545,11 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV28" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="7"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
@@ -4793,16 +6560,50 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
+      <c r="BG28" s="7"/>
       <c r="BH28" s="1"/>
-      <c r="BI28" s="12"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS28" s="8"/>
+      <c r="BT28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU28" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="12"/>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -4821,8 +6622,8 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="18" t="s">
-        <v>369</v>
+      <c r="J29" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
@@ -4856,7 +6657,7 @@
         <v>124</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="7"/>
+      <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -4867,7 +6668,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="7"/>
+      <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -4877,17 +6678,11 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT29" s="8"/>
-      <c r="AU29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV29" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="7"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
@@ -4898,16 +6693,50 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
+      <c r="BG29" s="7"/>
       <c r="BH29" s="1"/>
-      <c r="BI29" s="12"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS29" s="8"/>
+      <c r="BT29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU29" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="12"/>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -4926,8 +6755,8 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="18" t="s">
-        <v>369</v>
+      <c r="J30" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="4" t="s">
@@ -4947,7 +6776,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="7"/>
+      <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
@@ -4958,7 +6787,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="7"/>
+      <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -4968,18 +6797,12 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
@@ -4989,16 +6812,50 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
+      <c r="BG30" s="7"/>
       <c r="BH30" s="1"/>
-      <c r="BI30" s="12"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="12"/>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -5017,8 +6874,8 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="18" t="s">
-        <v>369</v>
+      <c r="J31" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="4" t="s">
@@ -5046,7 +6903,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="7"/>
+      <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -5057,7 +6914,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="7"/>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -5067,20 +6924,14 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
-      <c r="AU31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="7"/>
       <c r="AW31" s="1"/>
-      <c r="AX31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
@@ -5088,16 +6939,50 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
+      <c r="BG31" s="7"/>
       <c r="BH31" s="1"/>
-      <c r="BI31" s="12"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="12"/>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -5116,12 +7001,10 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>411</v>
-      </c>
+      <c r="J32" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="12"/>
       <c r="L32" s="4" t="s">
         <v>341</v>
       </c>
@@ -5145,7 +7028,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="7"/>
+      <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -5156,7 +7039,7 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="7"/>
+      <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -5166,15 +7049,11 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="8"/>
-      <c r="AT32" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="AU32" s="8"/>
-      <c r="AV32" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="7"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
@@ -5185,16 +7064,48 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
+      <c r="BG32" s="7"/>
       <c r="BH32" s="1"/>
-      <c r="BI32" s="12"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="8"/>
+      <c r="BS32" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="BT32" s="8"/>
+      <c r="BU32" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="12"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -5213,8 +7124,8 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="18" t="s">
-        <v>369</v>
+      <c r="J33" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="4" t="s">
@@ -5238,7 +7149,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="7"/>
+      <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -5249,7 +7160,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="7"/>
+      <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -5259,13 +7170,11 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
-      <c r="AV33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="7"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
@@ -5276,16 +7185,46 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
+      <c r="BG33" s="7"/>
       <c r="BH33" s="1"/>
-      <c r="BI33" s="12"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS33" s="8"/>
+      <c r="BT33" s="8"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="12"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -5304,8 +7243,8 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="18" t="s">
-        <v>369</v>
+      <c r="J34" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="4" t="s">
@@ -5325,7 +7264,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="7"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -5336,7 +7275,7 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
-      <c r="AH34" s="7"/>
+      <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -5346,13 +7285,11 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT34" s="8"/>
-      <c r="AU34" s="8"/>
-      <c r="AV34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="7"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
@@ -5363,16 +7300,46 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
+      <c r="BG34" s="7"/>
       <c r="BH34" s="1"/>
-      <c r="BI34" s="12"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS34" s="8"/>
+      <c r="BT34" s="8"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="12"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -5391,8 +7358,8 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="18" t="s">
-        <v>369</v>
+      <c r="J35" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="4" t="s">
@@ -5412,7 +7379,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="7"/>
+      <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -5423,7 +7390,7 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
-      <c r="AH35" s="7"/>
+      <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -5433,13 +7400,11 @@
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT35" s="8"/>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="7"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
@@ -5450,16 +7415,46 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
+      <c r="BG35" s="7"/>
       <c r="BH35" s="1"/>
-      <c r="BI35" s="12"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS35" s="8"/>
+      <c r="BT35" s="8"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="12"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -5478,8 +7473,8 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="18" t="s">
-        <v>369</v>
+      <c r="J36" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="4" t="s">
@@ -5499,7 +7494,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="7"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -5510,7 +7505,7 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="7"/>
+      <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -5520,13 +7515,11 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT36" s="8"/>
-      <c r="AU36" s="8"/>
-      <c r="AV36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="7"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
@@ -5537,16 +7530,46 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
+      <c r="BG36" s="7"/>
       <c r="BH36" s="1"/>
-      <c r="BI36" s="12"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS36" s="8"/>
+      <c r="BT36" s="8"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="12"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -5565,8 +7588,8 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="18" t="s">
-        <v>369</v>
+      <c r="J37" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="4" t="s">
@@ -5586,7 +7609,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="7"/>
+      <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -5597,7 +7620,7 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="7"/>
+      <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -5607,13 +7630,11 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT37" s="8"/>
-      <c r="AU37" s="8"/>
-      <c r="AV37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="7"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
@@ -5624,16 +7645,46 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
+      <c r="BG37" s="7"/>
       <c r="BH37" s="1"/>
-      <c r="BI37" s="12"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS37" s="8"/>
+      <c r="BT37" s="8"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="12"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -5652,8 +7703,8 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="18" t="s">
-        <v>369</v>
+      <c r="J38" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="4" t="s">
@@ -5673,7 +7724,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="7"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -5684,7 +7735,7 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
-      <c r="AH38" s="7"/>
+      <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -5694,13 +7745,11 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT38" s="8"/>
-      <c r="AU38" s="8"/>
-      <c r="AV38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="7"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
@@ -5711,16 +7760,46 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
+      <c r="BG38" s="7"/>
       <c r="BH38" s="1"/>
-      <c r="BI38" s="12"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS38" s="8"/>
+      <c r="BT38" s="8"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="12"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -5739,8 +7818,8 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="18" t="s">
-        <v>369</v>
+      <c r="J39" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="4" t="s">
@@ -5760,7 +7839,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="7"/>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -5771,7 +7850,7 @@
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
-      <c r="AH39" s="7"/>
+      <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -5781,13 +7860,11 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT39" s="8"/>
-      <c r="AU39" s="8"/>
-      <c r="AV39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="7"/>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
@@ -5798,16 +7875,46 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
+      <c r="BG39" s="7"/>
       <c r="BH39" s="1"/>
-      <c r="BI39" s="12"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS39" s="8"/>
+      <c r="BT39" s="8"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="12"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -5826,12 +7933,10 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>412</v>
-      </c>
+      <c r="J40" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="4" t="s">
         <v>341</v>
       </c>
@@ -5853,7 +7958,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="7"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -5864,7 +7969,7 @@
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
-      <c r="AH40" s="7"/>
+      <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -5874,37 +7979,65 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="8"/>
-      <c r="AT40" s="8"/>
-      <c r="AU40" s="8"/>
-      <c r="AV40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="7"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
-      <c r="AZ40" s="1" t="s">
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="7"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="8"/>
+      <c r="BS40" s="8"/>
+      <c r="BT40" s="8"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BA40" s="9" t="s">
+      <c r="BZ40" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="BB40" s="9" t="s">
+      <c r="CA40" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
-      <c r="BF40" s="10"/>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="12"/>
+      <c r="CB40" s="10"/>
+      <c r="CC40" s="10"/>
+      <c r="CD40" s="10"/>
+      <c r="CE40" s="10"/>
+      <c r="CF40" s="10"/>
+      <c r="CG40" s="10"/>
+      <c r="CH40" s="10"/>
+      <c r="CI40" s="10"/>
+      <c r="CJ40" s="10"/>
+      <c r="CK40" s="12"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -5923,12 +8056,10 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>412</v>
-      </c>
+      <c r="J41" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="4" t="s">
         <v>341</v>
       </c>
@@ -5946,7 +8077,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="7"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -5957,7 +8088,7 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
-      <c r="AH41" s="7"/>
+      <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -5967,35 +8098,63 @@
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="8"/>
-      <c r="AT41" s="8"/>
-      <c r="AU41" s="8"/>
-      <c r="AV41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="7"/>
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
-      <c r="AZ41" s="1" t="s">
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="7"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="8"/>
+      <c r="BS41" s="8"/>
+      <c r="BT41" s="8"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BA41" s="9"/>
-      <c r="BB41" s="9"/>
-      <c r="BC41" s="10" t="s">
+      <c r="BZ41" s="9"/>
+      <c r="CA41" s="9"/>
+      <c r="CB41" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
-      <c r="BF41" s="10"/>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="10"/>
-      <c r="BI41" s="12"/>
+      <c r="CC41" s="10"/>
+      <c r="CD41" s="10"/>
+      <c r="CE41" s="10"/>
+      <c r="CF41" s="10"/>
+      <c r="CG41" s="10"/>
+      <c r="CH41" s="10"/>
+      <c r="CI41" s="10"/>
+      <c r="CJ41" s="10"/>
+      <c r="CK41" s="12"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -6014,8 +8173,8 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="18" t="s">
-        <v>369</v>
+      <c r="J42" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="4" t="s">
@@ -6035,7 +8194,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="7"/>
+      <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -6046,7 +8205,7 @@
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
-      <c r="AH42" s="7"/>
+      <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -6056,39 +8215,67 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT42" s="8"/>
-      <c r="AU42" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV42" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="7"/>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
-      <c r="BA42" s="9"/>
-      <c r="BB42" s="9"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10" t="s">
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="7"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS42" s="8"/>
+      <c r="BT42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="9"/>
+      <c r="CA42" s="9"/>
+      <c r="CB42" s="10"/>
+      <c r="CC42" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="BE42" s="10"/>
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BI42" s="12"/>
+      <c r="CD42" s="10"/>
+      <c r="CE42" s="10"/>
+      <c r="CF42" s="10"/>
+      <c r="CG42" s="10"/>
+      <c r="CH42" s="10"/>
+      <c r="CI42" s="10"/>
+      <c r="CJ42" s="10"/>
+      <c r="CK42" s="12"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -6107,12 +8294,10 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>410</v>
-      </c>
+      <c r="J43" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="12"/>
       <c r="L43" s="4" t="s">
         <v>341</v>
       </c>
@@ -6130,7 +8315,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="7"/>
+      <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -6141,7 +8326,7 @@
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
-      <c r="AH43" s="7"/>
+      <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -6151,39 +8336,67 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU43" s="8"/>
-      <c r="AV43" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="7"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
-      <c r="BA43" s="9"/>
-      <c r="BB43" s="9"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10" t="s">
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="7"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT43" s="8"/>
+      <c r="BU43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="9"/>
+      <c r="CA43" s="9"/>
+      <c r="CB43" s="10"/>
+      <c r="CC43" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10"/>
-      <c r="BH43" s="10"/>
-      <c r="BI43" s="12"/>
+      <c r="CD43" s="10"/>
+      <c r="CE43" s="10"/>
+      <c r="CF43" s="10"/>
+      <c r="CG43" s="10"/>
+      <c r="CH43" s="10"/>
+      <c r="CI43" s="10"/>
+      <c r="CJ43" s="10"/>
+      <c r="CK43" s="12"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -6202,8 +8415,8 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="18" t="s">
-        <v>369</v>
+      <c r="J44" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="4" t="s">
@@ -6223,7 +8436,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="7"/>
+      <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -6234,7 +8447,7 @@
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
-      <c r="AH44" s="7"/>
+      <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -6244,39 +8457,67 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT44" s="8"/>
-      <c r="AU44" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV44" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="7"/>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
-      <c r="BA44" s="9"/>
-      <c r="BB44" s="9"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10" t="s">
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="7"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="2"/>
+      <c r="BR44" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS44" s="8"/>
+      <c r="BT44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU44" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="9"/>
+      <c r="CA44" s="9"/>
+      <c r="CB44" s="10"/>
+      <c r="CC44" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="BE44" s="10"/>
-      <c r="BF44" s="10"/>
-      <c r="BG44" s="10"/>
-      <c r="BH44" s="10"/>
-      <c r="BI44" s="12"/>
+      <c r="CD44" s="10"/>
+      <c r="CE44" s="10"/>
+      <c r="CF44" s="10"/>
+      <c r="CG44" s="10"/>
+      <c r="CH44" s="10"/>
+      <c r="CI44" s="10"/>
+      <c r="CJ44" s="10"/>
+      <c r="CK44" s="12"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -6295,12 +8536,10 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>409</v>
-      </c>
+      <c r="J45" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="4" t="s">
         <v>341</v>
       </c>
@@ -6328,7 +8567,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="7"/>
+      <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -6339,53 +8578,81 @@
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
-      <c r="AH45" s="7"/>
+      <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
-      <c r="AN45" s="1">
-        <v>25</v>
-      </c>
+      <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT45" s="8"/>
-      <c r="AU45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV45" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="7"/>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
-      <c r="BA45" s="9"/>
-      <c r="BB45" s="9"/>
-      <c r="BC45" s="10">
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="7"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS45" s="8"/>
+      <c r="BT45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU45" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="9"/>
+      <c r="CA45" s="9"/>
+      <c r="CB45" s="10">
         <v>4</v>
       </c>
-      <c r="BD45" s="10" t="s">
+      <c r="CC45" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="BE45" s="10"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="10"/>
-      <c r="BH45" s="10"/>
-      <c r="BI45" s="12"/>
+      <c r="CD45" s="10"/>
+      <c r="CE45" s="10"/>
+      <c r="CF45" s="10"/>
+      <c r="CG45" s="10"/>
+      <c r="CH45" s="10"/>
+      <c r="CI45" s="10"/>
+      <c r="CJ45" s="10"/>
+      <c r="CK45" s="12"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -6404,8 +8671,8 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="18" t="s">
-        <v>369</v>
+      <c r="J46" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="4" t="s">
@@ -6425,7 +8692,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="7"/>
+      <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -6436,7 +8703,7 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
-      <c r="AH46" s="7"/>
+      <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -6446,39 +8713,67 @@
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT46" s="8"/>
-      <c r="AU46" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV46" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="7"/>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
-      <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
-      <c r="BC46" s="10"/>
-      <c r="BD46" s="10" t="s">
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="2"/>
+      <c r="BR46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="9"/>
+      <c r="CA46" s="9"/>
+      <c r="CB46" s="10"/>
+      <c r="CC46" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="BE46" s="10"/>
-      <c r="BF46" s="10"/>
-      <c r="BG46" s="10"/>
-      <c r="BH46" s="10"/>
-      <c r="BI46" s="12"/>
+      <c r="CD46" s="10"/>
+      <c r="CE46" s="10"/>
+      <c r="CF46" s="10"/>
+      <c r="CG46" s="10"/>
+      <c r="CH46" s="10"/>
+      <c r="CI46" s="10"/>
+      <c r="CJ46" s="10"/>
+      <c r="CK46" s="12"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -6497,8 +8792,8 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="18" t="s">
-        <v>369</v>
+      <c r="J47" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="4" t="s">
@@ -6520,7 +8815,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="7"/>
+      <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -6531,7 +8826,7 @@
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
-      <c r="AH47" s="7"/>
+      <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -6541,31 +8836,59 @@
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
       <c r="AQ47" s="1"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="8"/>
-      <c r="AT47" s="8"/>
-      <c r="AU47" s="8"/>
-      <c r="AV47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="7"/>
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
-      <c r="BA47" s="9"/>
-      <c r="BB47" s="9"/>
-      <c r="BC47" s="10"/>
-      <c r="BD47" s="10"/>
-      <c r="BE47" s="10"/>
-      <c r="BF47" s="10"/>
-      <c r="BG47" s="10"/>
-      <c r="BH47" s="10"/>
-      <c r="BI47" s="12"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="8"/>
+      <c r="BS47" s="8"/>
+      <c r="BT47" s="8"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="9"/>
+      <c r="CA47" s="9"/>
+      <c r="CB47" s="10"/>
+      <c r="CC47" s="10"/>
+      <c r="CD47" s="10"/>
+      <c r="CE47" s="10"/>
+      <c r="CF47" s="10"/>
+      <c r="CG47" s="10"/>
+      <c r="CH47" s="10"/>
+      <c r="CI47" s="10"/>
+      <c r="CJ47" s="10"/>
+      <c r="CK47" s="12"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -6584,8 +8907,8 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="18" t="s">
-        <v>369</v>
+      <c r="J48" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="4" t="s">
@@ -6607,7 +8930,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="7"/>
+      <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -6618,7 +8941,7 @@
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
-      <c r="AH48" s="7"/>
+      <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
@@ -6628,31 +8951,59 @@
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="8"/>
-      <c r="AT48" s="8"/>
-      <c r="AU48" s="8"/>
-      <c r="AV48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="7"/>
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
-      <c r="BA48" s="9"/>
-      <c r="BB48" s="9"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="10"/>
-      <c r="BI48" s="12"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="2"/>
+      <c r="BR48" s="8"/>
+      <c r="BS48" s="8"/>
+      <c r="BT48" s="8"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="9"/>
+      <c r="CA48" s="9"/>
+      <c r="CB48" s="10"/>
+      <c r="CC48" s="10"/>
+      <c r="CD48" s="10"/>
+      <c r="CE48" s="10"/>
+      <c r="CF48" s="10"/>
+      <c r="CG48" s="10"/>
+      <c r="CH48" s="10"/>
+      <c r="CI48" s="10"/>
+      <c r="CJ48" s="10"/>
+      <c r="CK48" s="12"/>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -6671,8 +9022,8 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="18" t="s">
-        <v>369</v>
+      <c r="J49" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="4" t="s">
@@ -6694,7 +9045,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="7"/>
+      <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -6705,7 +9056,7 @@
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
-      <c r="AH49" s="7"/>
+      <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
@@ -6715,31 +9066,59 @@
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
       <c r="AQ49" s="1"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="8"/>
-      <c r="AT49" s="8"/>
-      <c r="AU49" s="8"/>
-      <c r="AV49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="7"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
-      <c r="BA49" s="9"/>
-      <c r="BB49" s="9"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
-      <c r="BF49" s="10"/>
-      <c r="BG49" s="10"/>
-      <c r="BH49" s="10"/>
-      <c r="BI49" s="12"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="7"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="8"/>
+      <c r="BS49" s="8"/>
+      <c r="BT49" s="8"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="9"/>
+      <c r="CA49" s="9"/>
+      <c r="CB49" s="10"/>
+      <c r="CC49" s="10"/>
+      <c r="CD49" s="10"/>
+      <c r="CE49" s="10"/>
+      <c r="CF49" s="10"/>
+      <c r="CG49" s="10"/>
+      <c r="CH49" s="10"/>
+      <c r="CI49" s="10"/>
+      <c r="CJ49" s="10"/>
+      <c r="CK49" s="12"/>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -6758,8 +9137,8 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="18" t="s">
-        <v>369</v>
+      <c r="J50" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="4" t="s">
@@ -6789,7 +9168,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="7"/>
+      <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -6800,7 +9179,7 @@
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
-      <c r="AH50" s="7"/>
+      <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
@@ -6810,28 +9189,56 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="8"/>
-      <c r="AT50" s="8"/>
-      <c r="AU50" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="7"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
-      <c r="BA50" s="9"/>
-      <c r="BB50" s="9"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="10"/>
-      <c r="BE50" s="10"/>
-      <c r="BF50" s="10"/>
-      <c r="BG50" s="10"/>
-      <c r="BH50" s="10"/>
-      <c r="BI50" s="12"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="7"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="2"/>
+      <c r="BR50" s="8"/>
+      <c r="BS50" s="8"/>
+      <c r="BT50" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="9"/>
+      <c r="CA50" s="9"/>
+      <c r="CB50" s="10"/>
+      <c r="CC50" s="10"/>
+      <c r="CD50" s="10"/>
+      <c r="CE50" s="10"/>
+      <c r="CF50" s="10"/>
+      <c r="CG50" s="10"/>
+      <c r="CH50" s="10"/>
+      <c r="CI50" s="10"/>
+      <c r="CJ50" s="10"/>
+      <c r="CK50" s="12"/>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>351</v>
       </c>
@@ -6855,7 +9262,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K51" s="12"/>
@@ -6882,10 +9289,8 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
@@ -6895,7 +9300,7 @@
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
-      <c r="AH51" s="7"/>
+      <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
@@ -6905,26 +9310,56 @@
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
       <c r="AQ51" s="1"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="8"/>
-      <c r="AT51" s="8"/>
-      <c r="AU51" s="8"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
-      <c r="BA51" s="9"/>
-      <c r="BB51" s="9"/>
-      <c r="BC51" s="10"/>
-      <c r="BD51" s="10"/>
-      <c r="BE51" s="10"/>
-      <c r="BF51" s="10"/>
-      <c r="BG51" s="10"/>
-      <c r="BH51" s="10"/>
-      <c r="BI51" s="12"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="2"/>
+      <c r="BR51" s="8"/>
+      <c r="BS51" s="8"/>
+      <c r="BT51" s="8"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="9"/>
+      <c r="CA51" s="9"/>
+      <c r="CB51" s="10"/>
+      <c r="CC51" s="10"/>
+      <c r="CD51" s="10"/>
+      <c r="CE51" s="10"/>
+      <c r="CF51" s="10"/>
+      <c r="CG51" s="10"/>
+      <c r="CH51" s="10"/>
+      <c r="CI51" s="10"/>
+      <c r="CJ51" s="10"/>
+      <c r="CK51" s="12"/>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>352</v>
       </c>
@@ -6948,7 +9383,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="56" t="s">
         <v>29</v>
       </c>
       <c r="K52" s="12"/>
@@ -6977,7 +9412,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="7"/>
+      <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
@@ -6988,7 +9423,7 @@
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
-      <c r="AH52" s="7"/>
+      <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
@@ -6998,26 +9433,54 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
       <c r="AQ52" s="1"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="8"/>
-      <c r="AT52" s="8"/>
-      <c r="AU52" s="8"/>
-      <c r="AV52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="7"/>
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
-      <c r="BA52" s="9"/>
-      <c r="BB52" s="9"/>
-      <c r="BC52" s="10"/>
-      <c r="BD52" s="10"/>
-      <c r="BE52" s="10"/>
-      <c r="BF52" s="10"/>
-      <c r="BG52" s="10"/>
-      <c r="BH52" s="10"/>
-      <c r="BI52" s="12"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="7"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="2"/>
+      <c r="BR52" s="8"/>
+      <c r="BS52" s="8"/>
+      <c r="BT52" s="8"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="9"/>
+      <c r="CA52" s="9"/>
+      <c r="CB52" s="10"/>
+      <c r="CC52" s="10"/>
+      <c r="CD52" s="10"/>
+      <c r="CE52" s="10"/>
+      <c r="CF52" s="10"/>
+      <c r="CG52" s="10"/>
+      <c r="CH52" s="10"/>
+      <c r="CI52" s="10"/>
+      <c r="CJ52" s="10"/>
+      <c r="CK52" s="12"/>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>361</v>
       </c>
@@ -7041,7 +9504,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K53" s="16"/>
@@ -7064,7 +9527,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="7"/>
+      <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -7075,7 +9538,7 @@
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
-      <c r="AH53" s="7"/>
+      <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
@@ -7085,26 +9548,54 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="8"/>
-      <c r="AT53" s="8"/>
-      <c r="AU53" s="8"/>
-      <c r="AV53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="7"/>
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
-      <c r="BA53" s="9"/>
-      <c r="BB53" s="9"/>
-      <c r="BC53" s="10"/>
-      <c r="BD53" s="10"/>
-      <c r="BE53" s="10"/>
-      <c r="BF53" s="10"/>
-      <c r="BG53" s="10"/>
-      <c r="BH53" s="10"/>
-      <c r="BI53" s="16"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="7"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="2"/>
+      <c r="BR53" s="8"/>
+      <c r="BS53" s="8"/>
+      <c r="BT53" s="8"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="9"/>
+      <c r="CA53" s="9"/>
+      <c r="CB53" s="10"/>
+      <c r="CC53" s="10"/>
+      <c r="CD53" s="10"/>
+      <c r="CE53" s="10"/>
+      <c r="CF53" s="10"/>
+      <c r="CG53" s="10"/>
+      <c r="CH53" s="10"/>
+      <c r="CI53" s="10"/>
+      <c r="CJ53" s="10"/>
+      <c r="CK53" s="16"/>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>378</v>
       </c>
@@ -7128,7 +9619,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K54" s="16"/>
@@ -7154,21 +9645,15 @@
         <v>384</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
@@ -7176,7 +9661,7 @@
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
-      <c r="AH54" s="7"/>
+      <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
@@ -7186,34 +9671,68 @@
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="8"/>
-      <c r="AT54" s="8"/>
-      <c r="AU54" s="8"/>
-      <c r="AV54" s="1"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY54" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ54" s="1"/>
-      <c r="BA54" s="9"/>
-      <c r="BB54" s="9"/>
-      <c r="BC54" s="10"/>
-      <c r="BD54" s="10"/>
-      <c r="BE54" s="10" t="s">
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="7"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="2"/>
+      <c r="BR54" s="8"/>
+      <c r="BS54" s="8"/>
+      <c r="BT54" s="8"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="9"/>
+      <c r="CA54" s="9"/>
+      <c r="CB54" s="10"/>
+      <c r="CC54" s="10"/>
+      <c r="CD54" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF54" s="14" t="s">
+      <c r="CE54" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG54" s="15" t="s">
+      <c r="CF54" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH54" s="10" t="s">
+      <c r="CG54" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI54" s="16"/>
+      <c r="CH54" s="10"/>
+      <c r="CI54" s="10"/>
+      <c r="CJ54" s="10"/>
+      <c r="CK54" s="16"/>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>388</v>
       </c>
@@ -7237,7 +9756,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K55" s="16"/>
@@ -7263,21 +9782,15 @@
         <v>384</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
@@ -7285,7 +9798,7 @@
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
-      <c r="AH55" s="7"/>
+      <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
@@ -7295,34 +9808,68 @@
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
       <c r="AQ55" s="1"/>
-      <c r="AR55" s="2"/>
-      <c r="AS55" s="8"/>
-      <c r="AT55" s="8"/>
-      <c r="AU55" s="8"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="7"/>
+      <c r="AW55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ55" s="1"/>
-      <c r="BA55" s="9"/>
-      <c r="BB55" s="9"/>
-      <c r="BC55" s="10"/>
-      <c r="BD55" s="10"/>
-      <c r="BE55" s="10" t="s">
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="7"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="2"/>
+      <c r="BR55" s="8"/>
+      <c r="BS55" s="8"/>
+      <c r="BT55" s="8"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="9"/>
+      <c r="CA55" s="9"/>
+      <c r="CB55" s="10"/>
+      <c r="CC55" s="10"/>
+      <c r="CD55" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF55" s="14" t="s">
+      <c r="CE55" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG55" s="15" t="s">
+      <c r="CF55" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH55" s="10" t="s">
+      <c r="CG55" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI55" s="16"/>
+      <c r="CH55" s="10"/>
+      <c r="CI55" s="10"/>
+      <c r="CJ55" s="10"/>
+      <c r="CK55" s="16"/>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>391</v>
       </c>
@@ -7346,7 +9893,7 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K56" s="16"/>
@@ -7372,21 +9919,15 @@
         <v>384</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
@@ -7394,7 +9935,7 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
-      <c r="AH56" s="7"/>
+      <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
@@ -7404,34 +9945,68 @@
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
       <c r="AQ56" s="1"/>
-      <c r="AR56" s="2"/>
-      <c r="AS56" s="8"/>
-      <c r="AT56" s="8"/>
-      <c r="AU56" s="8"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY56" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ56" s="1"/>
-      <c r="BA56" s="9"/>
-      <c r="BB56" s="9"/>
-      <c r="BC56" s="10"/>
-      <c r="BD56" s="10"/>
-      <c r="BE56" s="10" t="s">
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="7"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="2"/>
+      <c r="BR56" s="8"/>
+      <c r="BS56" s="8"/>
+      <c r="BT56" s="8"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="9"/>
+      <c r="CA56" s="9"/>
+      <c r="CB56" s="10"/>
+      <c r="CC56" s="10"/>
+      <c r="CD56" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF56" s="14" t="s">
+      <c r="CE56" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG56" s="15" t="s">
+      <c r="CF56" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH56" s="10" t="s">
+      <c r="CG56" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI56" s="16"/>
+      <c r="CH56" s="10"/>
+      <c r="CI56" s="10"/>
+      <c r="CJ56" s="10"/>
+      <c r="CK56" s="16"/>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>394</v>
       </c>
@@ -7455,7 +10030,7 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K57" s="16"/>
@@ -7481,21 +10056,15 @@
         <v>384</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y57" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
@@ -7503,7 +10072,7 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
-      <c r="AH57" s="7"/>
+      <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
@@ -7513,34 +10082,68 @@
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
       <c r="AQ57" s="1"/>
-      <c r="AR57" s="2"/>
-      <c r="AS57" s="8"/>
-      <c r="AT57" s="8"/>
-      <c r="AU57" s="8"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY57" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ57" s="1"/>
-      <c r="BA57" s="9"/>
-      <c r="BB57" s="9"/>
-      <c r="BC57" s="10"/>
-      <c r="BD57" s="10"/>
-      <c r="BE57" s="10" t="s">
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="7"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="2"/>
+      <c r="BR57" s="8"/>
+      <c r="BS57" s="8"/>
+      <c r="BT57" s="8"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="9"/>
+      <c r="CA57" s="9"/>
+      <c r="CB57" s="10"/>
+      <c r="CC57" s="10"/>
+      <c r="CD57" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF57" s="14" t="s">
+      <c r="CE57" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG57" s="15" t="s">
+      <c r="CF57" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH57" s="10" t="s">
+      <c r="CG57" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI57" s="16"/>
+      <c r="CH57" s="10"/>
+      <c r="CI57" s="10"/>
+      <c r="CJ57" s="10"/>
+      <c r="CK57" s="16"/>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>397</v>
       </c>
@@ -7564,7 +10167,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K58" s="16"/>
@@ -7590,21 +10193,15 @@
         <v>384</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y58" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
@@ -7612,7 +10209,7 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
-      <c r="AH58" s="7"/>
+      <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
@@ -7622,34 +10219,68 @@
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
-      <c r="AR58" s="2"/>
-      <c r="AS58" s="8"/>
-      <c r="AT58" s="8"/>
-      <c r="AU58" s="8"/>
-      <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
-      <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="7"/>
+      <c r="AW58" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY58" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ58" s="1"/>
-      <c r="BA58" s="9"/>
-      <c r="BB58" s="9"/>
-      <c r="BC58" s="10"/>
-      <c r="BD58" s="10"/>
-      <c r="BE58" s="10" t="s">
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="7"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="2"/>
+      <c r="BR58" s="8"/>
+      <c r="BS58" s="8"/>
+      <c r="BT58" s="8"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="BY58" s="1"/>
+      <c r="BZ58" s="9"/>
+      <c r="CA58" s="9"/>
+      <c r="CB58" s="10"/>
+      <c r="CC58" s="10"/>
+      <c r="CD58" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF58" s="14" t="s">
+      <c r="CE58" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG58" s="15" t="s">
+      <c r="CF58" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH58" s="10" t="s">
+      <c r="CG58" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI58" s="16"/>
+      <c r="CH58" s="10"/>
+      <c r="CI58" s="10"/>
+      <c r="CJ58" s="10"/>
+      <c r="CK58" s="16"/>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>400</v>
       </c>
@@ -7673,7 +10304,7 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K59" s="16"/>
@@ -7699,21 +10330,15 @@
         <v>384</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y59" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
@@ -7721,7 +10346,7 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
-      <c r="AH59" s="7"/>
+      <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
@@ -7731,34 +10356,68 @@
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
-      <c r="AR59" s="2"/>
-      <c r="AS59" s="8"/>
-      <c r="AT59" s="8"/>
-      <c r="AU59" s="8"/>
-      <c r="AV59" s="1"/>
-      <c r="AW59" s="1"/>
-      <c r="AX59" s="1"/>
-      <c r="AY59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="7"/>
+      <c r="AW59" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX59" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY59" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ59" s="1"/>
-      <c r="BA59" s="9"/>
-      <c r="BB59" s="9"/>
-      <c r="BC59" s="10"/>
-      <c r="BD59" s="10"/>
-      <c r="BE59" s="10" t="s">
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="7"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="2"/>
+      <c r="BR59" s="8"/>
+      <c r="BS59" s="8"/>
+      <c r="BT59" s="8"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="1"/>
+      <c r="BZ59" s="9"/>
+      <c r="CA59" s="9"/>
+      <c r="CB59" s="10"/>
+      <c r="CC59" s="10"/>
+      <c r="CD59" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF59" s="14" t="s">
+      <c r="CE59" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG59" s="15" t="s">
+      <c r="CF59" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH59" s="10" t="s">
+      <c r="CG59" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI59" s="16"/>
+      <c r="CH59" s="10"/>
+      <c r="CI59" s="10"/>
+      <c r="CJ59" s="10"/>
+      <c r="CK59" s="16"/>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>403</v>
       </c>
@@ -7782,7 +10441,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K60" s="16"/>
@@ -7808,21 +10467,15 @@
         <v>384</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
@@ -7830,7 +10483,7 @@
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
-      <c r="AH60" s="7"/>
+      <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
@@ -7840,34 +10493,68 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
-      <c r="AR60" s="2"/>
-      <c r="AS60" s="8"/>
-      <c r="AT60" s="8"/>
-      <c r="AU60" s="8"/>
-      <c r="AV60" s="1"/>
-      <c r="AW60" s="1"/>
-      <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="7"/>
+      <c r="AW60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX60" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AZ60" s="1"/>
-      <c r="BA60" s="9"/>
-      <c r="BB60" s="9"/>
-      <c r="BC60" s="10"/>
-      <c r="BD60" s="10"/>
-      <c r="BE60" s="10" t="s">
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="7"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="2"/>
+      <c r="BR60" s="8"/>
+      <c r="BS60" s="8"/>
+      <c r="BT60" s="8"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="9"/>
+      <c r="CA60" s="9"/>
+      <c r="CB60" s="10"/>
+      <c r="CC60" s="10"/>
+      <c r="CD60" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="BF60" s="14" t="s">
+      <c r="CE60" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="BG60" s="15" t="s">
+      <c r="CF60" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="BH60" s="10" t="s">
+      <c r="CG60" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BI60" s="16"/>
+      <c r="CH60" s="10"/>
+      <c r="CI60" s="10"/>
+      <c r="CJ60" s="10"/>
+      <c r="CK60" s="16"/>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>406</v>
       </c>
@@ -7891,7 +10578,7 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="64" t="s">
         <v>29</v>
       </c>
       <c r="K61" s="16"/>
@@ -7912,7 +10599,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-      <c r="W61" s="7"/>
+      <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
@@ -7923,7 +10610,7 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
-      <c r="AH61" s="7"/>
+      <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
@@ -7933,31 +10620,1101 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="8"/>
-      <c r="AT61" s="8"/>
-      <c r="AU61" s="8"/>
-      <c r="AV61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="7"/>
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
-      <c r="BA61" s="9"/>
-      <c r="BB61" s="9"/>
-      <c r="BC61" s="10"/>
-      <c r="BD61" s="10"/>
-      <c r="BE61" s="10"/>
-      <c r="BF61" s="14"/>
-      <c r="BG61" s="15"/>
-      <c r="BH61" s="10"/>
-      <c r="BI61" s="16"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="7"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="2"/>
+      <c r="BR61" s="8"/>
+      <c r="BS61" s="8"/>
+      <c r="BT61" s="8"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="9"/>
+      <c r="CA61" s="9"/>
+      <c r="CB61" s="10"/>
+      <c r="CC61" s="10"/>
+      <c r="CD61" s="10"/>
+      <c r="CE61" s="14"/>
+      <c r="CF61" s="15"/>
+      <c r="CG61" s="10"/>
+      <c r="CH61" s="10"/>
+      <c r="CI61" s="10"/>
+      <c r="CJ61" s="10"/>
+      <c r="CK61" s="16"/>
+    </row>
+    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="M62" s="16"/>
+      <c r="N62" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="7"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="2"/>
+      <c r="BR62" s="8"/>
+      <c r="BS62" s="8"/>
+      <c r="BT62" s="8"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="BY62" s="1"/>
+      <c r="BZ62" s="9"/>
+      <c r="CA62" s="9"/>
+      <c r="CB62" s="10"/>
+      <c r="CC62" s="10"/>
+      <c r="CD62" s="10"/>
+      <c r="CE62" s="14"/>
+      <c r="CF62" s="15"/>
+      <c r="CG62" s="10"/>
+      <c r="CH62" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="CI62" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ62" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="CK62" s="16"/>
+    </row>
+    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" s="16">
+        <v>153</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD63" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE63" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF63" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AJ63" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK63" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL63" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM63" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN63" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO63" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP63" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR63" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AS63" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT63" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU63" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AV63" s="7"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="7"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="2"/>
+      <c r="BR63" s="8"/>
+      <c r="BS63" s="8"/>
+      <c r="BT63" s="8"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="9"/>
+      <c r="CA63" s="9"/>
+      <c r="CB63" s="10"/>
+      <c r="CC63" s="10"/>
+      <c r="CD63" s="10"/>
+      <c r="CE63" s="14"/>
+      <c r="CF63" s="15"/>
+      <c r="CG63" s="10"/>
+      <c r="CH63" s="10"/>
+      <c r="CI63" s="10"/>
+      <c r="CJ63" s="10"/>
+      <c r="CK63" s="16"/>
+    </row>
+    <row r="64" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="M64" s="16">
+        <v>185</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="7"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="7"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="2"/>
+      <c r="BR64" s="8"/>
+      <c r="BS64" s="8"/>
+      <c r="BT64" s="8"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="BY64" s="1"/>
+      <c r="BZ64" s="9"/>
+      <c r="CA64" s="9"/>
+      <c r="CB64" s="10"/>
+      <c r="CC64" s="10"/>
+      <c r="CD64" s="10"/>
+      <c r="CE64" s="14"/>
+      <c r="CF64" s="15"/>
+      <c r="CG64" s="10"/>
+      <c r="CH64" s="10"/>
+      <c r="CI64" s="10"/>
+      <c r="CJ64" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="CK64" s="16"/>
+    </row>
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="M65" s="16">
+        <v>157</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="7"/>
+      <c r="AW65" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AX65" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AY65" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AZ65" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="7"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="2"/>
+      <c r="BR65" s="8"/>
+      <c r="BS65" s="8"/>
+      <c r="BT65" s="8"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="9"/>
+      <c r="CA65" s="9"/>
+      <c r="CB65" s="10"/>
+      <c r="CC65" s="10"/>
+      <c r="CD65" s="10"/>
+      <c r="CE65" s="14"/>
+      <c r="CF65" s="15"/>
+      <c r="CG65" s="10"/>
+      <c r="CH65" s="10"/>
+      <c r="CI65" s="10"/>
+      <c r="CJ65" s="10"/>
+      <c r="CK65" s="16"/>
+    </row>
+    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="M66" s="16">
+        <v>157</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="7"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="7"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="2"/>
+      <c r="BR66" s="8"/>
+      <c r="BS66" s="8"/>
+      <c r="BT66" s="8"/>
+      <c r="BU66" s="1"/>
+      <c r="BV66" s="1"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="9"/>
+      <c r="CA66" s="9"/>
+      <c r="CB66" s="10"/>
+      <c r="CC66" s="10"/>
+      <c r="CD66" s="10"/>
+      <c r="CE66" s="14"/>
+      <c r="CF66" s="15"/>
+      <c r="CG66" s="10"/>
+      <c r="CH66" s="10"/>
+      <c r="CI66" s="10"/>
+      <c r="CJ66" s="10"/>
+      <c r="CK66" s="16"/>
+    </row>
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="M67" s="16">
+        <v>157</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="7"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="7"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="2"/>
+      <c r="BR67" s="8"/>
+      <c r="BS67" s="8"/>
+      <c r="BT67" s="8"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="9"/>
+      <c r="CA67" s="9"/>
+      <c r="CB67" s="10"/>
+      <c r="CC67" s="10"/>
+      <c r="CD67" s="10"/>
+      <c r="CE67" s="14"/>
+      <c r="CF67" s="15"/>
+      <c r="CG67" s="10"/>
+      <c r="CH67" s="10"/>
+      <c r="CI67" s="10"/>
+      <c r="CJ67" s="10"/>
+      <c r="CK67" s="16"/>
+    </row>
+    <row r="68" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="M68" s="16">
+        <v>157</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="7"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="7"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="2"/>
+      <c r="BR68" s="8"/>
+      <c r="BS68" s="8"/>
+      <c r="BT68" s="8"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="9"/>
+      <c r="CA68" s="9"/>
+      <c r="CB68" s="10"/>
+      <c r="CC68" s="10"/>
+      <c r="CD68" s="10"/>
+      <c r="CE68" s="14"/>
+      <c r="CF68" s="15"/>
+      <c r="CG68" s="10"/>
+      <c r="CH68" s="10"/>
+      <c r="CI68" s="10"/>
+      <c r="CJ68" s="10"/>
+      <c r="CK68" s="16"/>
+    </row>
+    <row r="69" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="M69" s="16">
+        <v>157</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="7"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="7"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="2"/>
+      <c r="BR69" s="8"/>
+      <c r="BS69" s="8"/>
+      <c r="BT69" s="8"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="9"/>
+      <c r="CA69" s="9"/>
+      <c r="CB69" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="CC69" s="10"/>
+      <c r="CD69" s="10"/>
+      <c r="CE69" s="14"/>
+      <c r="CF69" s="15"/>
+      <c r="CG69" s="10"/>
+      <c r="CH69" s="10"/>
+      <c r="CI69" s="10"/>
+      <c r="CJ69" s="10"/>
+      <c r="CK69" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AR25" r:id="rId1" xr:uid="{290B0482-20FF-4A5D-AED1-CC54A70B98E6}"/>
-    <hyperlink ref="BA40" r:id="rId2" xr:uid="{C3A1B44B-AE53-4F99-AE19-43CE736F75D4}"/>
-    <hyperlink ref="BB40" r:id="rId3" xr:uid="{01721FD4-A864-4300-86EE-61435B1297D1}"/>
+    <hyperlink ref="BQ25" r:id="rId1" xr:uid="{290B0482-20FF-4A5D-AED1-CC54A70B98E6}"/>
+    <hyperlink ref="BZ40" r:id="rId2" xr:uid="{C3A1B44B-AE53-4F99-AE19-43CE736F75D4}"/>
+    <hyperlink ref="CA40" r:id="rId3" xr:uid="{01721FD4-A864-4300-86EE-61435B1297D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F460F9-581F-420F-AA18-A46277944409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84237ED0-3151-40D4-AC5F-8D8487B7A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="536">
   <si>
     <t>Environment</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Nadeem</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -1132,9 +1129,6 @@
     <t>Step 2: Navigate to Data module from Home Page using Data module icon from Recent Surveys.</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>toggleData</t>
   </si>
   <si>
@@ -1634,12 +1628,6 @@
   </si>
   <si>
     <t>QDL Readings</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iframe Button not present on page.</t>
   </si>
   <si>
     <t xml:space="preserve"> Loader did not disappear.</t>
@@ -1649,8 +1637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1717,140 +1704,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="84">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1896,371 +1751,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -2324,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2348,55 +1838,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2687,8 +2128,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2715,24 +2156,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2754,9 +2195,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2797,10 +2238,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +2260,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -2833,13 +2274,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2847,13 +2288,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2861,13 +2302,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2875,13 +2316,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2904,24 +2345,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
   <dimension ref="A1:CK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="88" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="89" max="89" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="88" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="18.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.25">
@@ -2935,315 +2376,315 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CC1" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="CD1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="CF1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="CF1" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="CH1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="CI1" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="CK1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="56" t="s">
-        <v>29</v>
+      <c r="J2" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="4">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -3318,52 +2759,52 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="56" t="s">
-        <v>29</v>
+      <c r="J3" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="4">
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -3439,52 +2880,52 @@
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="56" t="s">
-        <v>29</v>
+      <c r="J4" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="4">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -3560,52 +3001,52 @@
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="56" t="s">
-        <v>29</v>
+      <c r="J5" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="4">
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -3681,52 +3122,52 @@
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="56" t="s">
-        <v>29</v>
+      <c r="J6" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -3758,28 +3199,28 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
@@ -3818,52 +3259,52 @@
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="56" t="s">
-        <v>29</v>
+      <c r="J7" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="4">
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3895,28 +3336,28 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BC7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
@@ -3955,49 +3396,49 @@
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="56" t="s">
-        <v>29</v>
+      <c r="J8" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="4">
         <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -4038,10 +3479,10 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE8" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
@@ -4078,49 +3519,49 @@
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="56" t="s">
-        <v>29</v>
+      <c r="J9" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="4">
         <v>3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -4161,13 +3602,13 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
@@ -4203,49 +3644,49 @@
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="56" t="s">
-        <v>29</v>
+      <c r="J10" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="4">
         <v>3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -4278,7 +3719,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
@@ -4288,10 +3729,10 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
@@ -4328,49 +3769,49 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="56" t="s">
-        <v>29</v>
+      <c r="J11" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="4">
         <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -4403,7 +3844,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -4413,10 +3854,10 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
@@ -4453,55 +3894,55 @@
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="56" t="s">
-        <v>29</v>
+      <c r="J12" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4">
         <v>3</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -4532,7 +3973,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -4578,55 +4019,55 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="56" t="s">
-        <v>29</v>
+      <c r="J13" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M13" s="4">
         <v>3</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -4657,7 +4098,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -4670,7 +4111,7 @@
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BH13" s="7"/>
       <c r="BI13" s="7"/>
@@ -4705,55 +4146,55 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="56" t="s">
-        <v>29</v>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="4">
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -4784,7 +4225,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
@@ -4798,7 +4239,7 @@
       <c r="BF14" s="1"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
@@ -4832,52 +4273,52 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="56" t="s">
-        <v>29</v>
+      <c r="J15" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M15" s="4">
         <v>2201</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4953,40 +4394,40 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="56" t="s">
-        <v>29</v>
+      <c r="J16" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M16" s="4">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -5066,52 +4507,52 @@
     </row>
     <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="56" t="s">
-        <v>29</v>
+      <c r="J17" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="4">
         <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5143,7 +4584,7 @@
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
@@ -5189,52 +4630,52 @@
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="56" t="s">
-        <v>29</v>
+      <c r="J18" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="4">
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5266,7 +4707,7 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
@@ -5281,7 +4722,7 @@
       <c r="BG18" s="7"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
@@ -5314,52 +4755,52 @@
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="56" t="s">
-        <v>29</v>
+      <c r="J19" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M19" s="4">
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -5391,7 +4832,7 @@
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
@@ -5406,16 +4847,16 @@
       <c r="BG19" s="7"/>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK19" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BJ19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK19" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="BL19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
@@ -5445,64 +4886,64 @@
     </row>
     <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="56" t="s">
-        <v>29</v>
+      <c r="J20" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20" s="4">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="S20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -5551,10 +4992,10 @@
       </c>
       <c r="BN20" s="1"/>
       <c r="BO20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BP20" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="BP20" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
@@ -5580,52 +5021,52 @@
     </row>
     <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="56" t="s">
-        <v>29</v>
+      <c r="J21" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" s="4">
         <v>3</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -5657,16 +5098,16 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
       <c r="AV21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AX21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AW21" s="1" t="s">
+      <c r="AY21" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AX21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY21" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -5711,52 +5152,52 @@
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="56" t="s">
-        <v>29</v>
+      <c r="J22" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22" s="4">
         <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="R22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -5788,16 +5229,16 @@
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AW22" s="1" t="s">
+      <c r="AY22" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY22" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -5842,49 +5283,49 @@
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="56" t="s">
-        <v>29</v>
+      <c r="J23" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M23" s="4">
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Q23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -5917,7 +5358,7 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
@@ -5965,55 +5406,55 @@
     </row>
     <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="56" t="s">
-        <v>29</v>
+      <c r="J24" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M24" s="4">
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="S24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -6088,61 +5529,61 @@
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="56" t="s">
-        <v>29</v>
+      <c r="J25" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="4">
         <v>3</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="S25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="U25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -6184,7 +5625,7 @@
       <c r="BG25" s="7"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
@@ -6194,7 +5635,7 @@
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BR25" s="2"/>
       <c r="BS25" s="2"/>
@@ -6219,40 +5660,40 @@
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="60" t="s">
-        <v>29</v>
+      <c r="J26" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M26" s="4">
         <v>780</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -6332,64 +5773,64 @@
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="60" t="s">
-        <v>29</v>
+      <c r="J27" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M27" s="4">
         <v>780</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="S27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -6439,14 +5880,14 @@
       <c r="BP27" s="1"/>
       <c r="BQ27" s="2"/>
       <c r="BR27" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS27" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BT27" s="8"/>
       <c r="BU27" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BV27" s="1"/>
       <c r="BW27" s="1"/>
@@ -6467,61 +5908,61 @@
     </row>
     <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="60" t="s">
-        <v>29</v>
+      <c r="J28" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M28" s="4">
         <v>780</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="Q28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="S28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -6572,14 +6013,14 @@
       <c r="BP28" s="1"/>
       <c r="BQ28" s="2"/>
       <c r="BR28" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS28" s="8"/>
       <c r="BT28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU28" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
@@ -6600,61 +6041,61 @@
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="60" t="s">
-        <v>29</v>
+      <c r="J29" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M29" s="4">
         <v>780</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="Q29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="S29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -6705,14 +6146,14 @@
       <c r="BP29" s="1"/>
       <c r="BQ29" s="2"/>
       <c r="BR29" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS29" s="8"/>
       <c r="BT29" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU29" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BV29" s="1"/>
       <c r="BW29" s="1"/>
@@ -6733,40 +6174,40 @@
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="60" t="s">
-        <v>29</v>
+      <c r="J30" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M30" s="4">
         <v>780</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -6824,15 +6265,15 @@
       <c r="BP30" s="1"/>
       <c r="BQ30" s="2"/>
       <c r="BR30" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BS30" s="8"/>
       <c r="BT30" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU30" s="1"/>
       <c r="BV30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BW30" s="1"/>
       <c r="BX30" s="1"/>
@@ -6852,52 +6293,52 @@
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="60" t="s">
-        <v>29</v>
+      <c r="J31" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M31" s="4">
         <v>780</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -6953,15 +6394,15 @@
       <c r="BR31" s="8"/>
       <c r="BS31" s="8"/>
       <c r="BT31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BU31" s="1"/>
       <c r="BV31" s="1"/>
       <c r="BW31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX31" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="BX31" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="BY31" s="1"/>
       <c r="BZ31" s="1"/>
@@ -6979,49 +6420,49 @@
     </row>
     <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="60" t="s">
-        <v>29</v>
+      <c r="J32" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M32" s="4">
         <v>780</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -7077,11 +6518,11 @@
       <c r="BQ32" s="2"/>
       <c r="BR32" s="8"/>
       <c r="BS32" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BT32" s="8"/>
       <c r="BU32" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BV32" s="1"/>
       <c r="BW32" s="1"/>
@@ -7102,46 +6543,46 @@
     </row>
     <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="60" t="s">
-        <v>29</v>
+      <c r="J33" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M33" s="4">
         <v>780</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -7197,7 +6638,7 @@
       <c r="BP33" s="1"/>
       <c r="BQ33" s="2"/>
       <c r="BR33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS33" s="8"/>
       <c r="BT33" s="8"/>
@@ -7221,40 +6662,40 @@
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="60" t="s">
-        <v>29</v>
+      <c r="J34" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M34" s="4">
         <v>780</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -7312,7 +6753,7 @@
       <c r="BP34" s="1"/>
       <c r="BQ34" s="2"/>
       <c r="BR34" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS34" s="8"/>
       <c r="BT34" s="8"/>
@@ -7336,40 +6777,40 @@
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="60" t="s">
-        <v>29</v>
+      <c r="J35" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M35" s="4">
         <v>780</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -7427,7 +6868,7 @@
       <c r="BP35" s="1"/>
       <c r="BQ35" s="2"/>
       <c r="BR35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS35" s="8"/>
       <c r="BT35" s="8"/>
@@ -7451,40 +6892,40 @@
     </row>
     <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="60" t="s">
-        <v>29</v>
+      <c r="J36" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M36" s="4">
         <v>780</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -7542,7 +6983,7 @@
       <c r="BP36" s="1"/>
       <c r="BQ36" s="2"/>
       <c r="BR36" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS36" s="8"/>
       <c r="BT36" s="8"/>
@@ -7566,40 +7007,40 @@
     </row>
     <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="60" t="s">
-        <v>29</v>
+      <c r="J37" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M37" s="4">
         <v>780</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -7657,7 +7098,7 @@
       <c r="BP37" s="1"/>
       <c r="BQ37" s="2"/>
       <c r="BR37" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS37" s="8"/>
       <c r="BT37" s="8"/>
@@ -7681,40 +7122,40 @@
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="60" t="s">
-        <v>29</v>
+      <c r="J38" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M38" s="4">
         <v>780</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -7772,7 +7213,7 @@
       <c r="BP38" s="1"/>
       <c r="BQ38" s="2"/>
       <c r="BR38" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS38" s="8"/>
       <c r="BT38" s="8"/>
@@ -7796,40 +7237,40 @@
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="60" t="s">
-        <v>29</v>
+      <c r="J39" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M39" s="4">
         <v>780</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -7887,7 +7328,7 @@
       <c r="BP39" s="1"/>
       <c r="BQ39" s="2"/>
       <c r="BR39" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS39" s="8"/>
       <c r="BT39" s="8"/>
@@ -7911,46 +7352,46 @@
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="60" t="s">
-        <v>29</v>
+      <c r="J40" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M40" s="4">
         <v>780</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -8013,13 +7454,13 @@
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BZ40" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="CA40" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="CA40" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="CB40" s="10"/>
       <c r="CC40" s="10"/>
@@ -8034,40 +7475,40 @@
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="60" t="s">
-        <v>29</v>
+      <c r="J41" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M41" s="4">
         <v>780</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -8132,12 +7573,12 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BZ41" s="9"/>
       <c r="CA41" s="9"/>
       <c r="CB41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CC41" s="10"/>
       <c r="CD41" s="10"/>
@@ -8151,40 +7592,40 @@
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="60" t="s">
-        <v>29</v>
+      <c r="J42" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M42" s="4">
         <v>780</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -8242,14 +7683,14 @@
       <c r="BP42" s="1"/>
       <c r="BQ42" s="2"/>
       <c r="BR42" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS42" s="8"/>
       <c r="BT42" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BU42" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BV42" s="1"/>
       <c r="BW42" s="1"/>
@@ -8259,7 +7700,7 @@
       <c r="CA42" s="9"/>
       <c r="CB42" s="10"/>
       <c r="CC42" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CD42" s="10"/>
       <c r="CE42" s="10"/>
@@ -8272,40 +7713,40 @@
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="60" t="s">
-        <v>29</v>
+      <c r="J43" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M43" s="4">
         <v>780</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -8363,14 +7804,14 @@
       <c r="BP43" s="1"/>
       <c r="BQ43" s="2"/>
       <c r="BR43" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BT43" s="8"/>
       <c r="BU43" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BV43" s="1"/>
       <c r="BW43" s="1"/>
@@ -8380,7 +7821,7 @@
       <c r="CA43" s="9"/>
       <c r="CB43" s="10"/>
       <c r="CC43" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CD43" s="10"/>
       <c r="CE43" s="10"/>
@@ -8393,40 +7834,40 @@
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="60" t="s">
-        <v>29</v>
+      <c r="J44" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M44" s="4">
         <v>780</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -8484,14 +7925,14 @@
       <c r="BP44" s="1"/>
       <c r="BQ44" s="2"/>
       <c r="BR44" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS44" s="8"/>
       <c r="BT44" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU44" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BV44" s="1"/>
       <c r="BW44" s="1"/>
@@ -8501,7 +7942,7 @@
       <c r="CA44" s="9"/>
       <c r="CB44" s="10"/>
       <c r="CC44" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CD44" s="10"/>
       <c r="CE44" s="10"/>
@@ -8514,55 +7955,55 @@
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="60" t="s">
-        <v>29</v>
+      <c r="J45" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M45" s="4">
         <v>780</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="R45" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="S45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -8617,14 +8058,14 @@
       <c r="BP45" s="1"/>
       <c r="BQ45" s="2"/>
       <c r="BR45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS45" s="8"/>
       <c r="BT45" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BU45" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BV45" s="1"/>
       <c r="BW45" s="1"/>
@@ -8636,7 +8077,7 @@
         <v>4</v>
       </c>
       <c r="CC45" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CD45" s="10"/>
       <c r="CE45" s="10"/>
@@ -8649,40 +8090,40 @@
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="60" t="s">
-        <v>29</v>
+      <c r="J46" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M46" s="4">
         <v>780</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -8740,14 +8181,14 @@
       <c r="BP46" s="1"/>
       <c r="BQ46" s="2"/>
       <c r="BR46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS46" s="8"/>
       <c r="BT46" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU46" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BV46" s="1"/>
       <c r="BW46" s="1"/>
@@ -8757,7 +8198,7 @@
       <c r="CA46" s="9"/>
       <c r="CB46" s="10"/>
       <c r="CC46" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CD46" s="10"/>
       <c r="CE46" s="10"/>
@@ -8770,43 +8211,43 @@
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="60" t="s">
-        <v>29</v>
+      <c r="J47" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M47" s="4">
         <v>780</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -8885,43 +8326,43 @@
     </row>
     <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="60" t="s">
-        <v>29</v>
+      <c r="J48" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M48" s="4">
         <v>780</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -9000,43 +8441,43 @@
     </row>
     <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="60" t="s">
-        <v>29</v>
+      <c r="J49" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M49" s="4">
         <v>780</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -9115,55 +8556,55 @@
     </row>
     <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="60" t="s">
-        <v>29</v>
+      <c r="J50" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M50" s="4">
         <v>780</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="R50" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="S50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -9218,7 +8659,7 @@
       <c r="BR50" s="8"/>
       <c r="BS50" s="8"/>
       <c r="BT50" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BU50" s="1"/>
       <c r="BV50" s="1"/>
@@ -9240,49 +8681,49 @@
     </row>
     <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="56" t="s">
-        <v>29</v>
+      <c r="J51" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M51" s="4">
         <v>3</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="P51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -9316,7 +8757,7 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="7"/>
       <c r="AW51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
@@ -9361,52 +8802,52 @@
     </row>
     <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="56" t="s">
-        <v>29</v>
+      <c r="J52" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M52" s="4">
         <v>3</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="R52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -9482,43 +8923,43 @@
     </row>
     <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="64" t="s">
-        <v>29</v>
+      <c r="J53" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M53" s="16">
         <v>250</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -9597,55 +9038,55 @@
     </row>
     <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="64" t="s">
-        <v>29</v>
+      <c r="J54" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M54" s="16">
         <v>250</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S54" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -9677,13 +9118,13 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="7"/>
       <c r="AW54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY54" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX54" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY54" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9716,16 +9157,16 @@
       <c r="CB54" s="10"/>
       <c r="CC54" s="10"/>
       <c r="CD54" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE54" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF54" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE54" s="14" t="s">
+      <c r="CG54" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF54" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG54" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH54" s="10"/>
       <c r="CI54" s="10"/>
@@ -9734,55 +9175,55 @@
     </row>
     <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="64" t="s">
-        <v>29</v>
+      <c r="J55" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M55" s="16">
         <v>250</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q55" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S55" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -9814,13 +9255,13 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="7"/>
       <c r="AW55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY55" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX55" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY55" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9853,16 +9294,16 @@
       <c r="CB55" s="10"/>
       <c r="CC55" s="10"/>
       <c r="CD55" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE55" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF55" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE55" s="14" t="s">
+      <c r="CG55" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF55" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG55" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH55" s="10"/>
       <c r="CI55" s="10"/>
@@ -9871,55 +9312,55 @@
     </row>
     <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="64" t="s">
-        <v>29</v>
+      <c r="J56" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M56" s="16">
         <v>250</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O56" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S56" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -9951,13 +9392,13 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="7"/>
       <c r="AW56" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY56" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX56" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY56" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -9990,16 +9431,16 @@
       <c r="CB56" s="10"/>
       <c r="CC56" s="10"/>
       <c r="CD56" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE56" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF56" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE56" s="14" t="s">
+      <c r="CG56" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF56" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG56" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH56" s="10"/>
       <c r="CI56" s="10"/>
@@ -10008,55 +9449,55 @@
     </row>
     <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="64" t="s">
-        <v>29</v>
+      <c r="J57" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M57" s="16">
         <v>250</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q57" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S57" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -10088,13 +9529,13 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="7"/>
       <c r="AW57" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY57" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX57" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY57" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -10127,16 +9568,16 @@
       <c r="CB57" s="10"/>
       <c r="CC57" s="10"/>
       <c r="CD57" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE57" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF57" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE57" s="14" t="s">
+      <c r="CG57" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF57" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG57" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH57" s="10"/>
       <c r="CI57" s="10"/>
@@ -10145,55 +9586,55 @@
     </row>
     <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="64" t="s">
-        <v>29</v>
+      <c r="J58" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M58" s="16">
         <v>250</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O58" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q58" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S58" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -10225,13 +9666,13 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="7"/>
       <c r="AW58" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX58" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY58" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX58" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY58" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10264,16 +9705,16 @@
       <c r="CB58" s="10"/>
       <c r="CC58" s="10"/>
       <c r="CD58" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE58" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF58" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE58" s="14" t="s">
+      <c r="CG58" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF58" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG58" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH58" s="10"/>
       <c r="CI58" s="10"/>
@@ -10282,55 +9723,55 @@
     </row>
     <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="64" t="s">
-        <v>29</v>
+      <c r="J59" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M59" s="16">
         <v>250</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O59" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S59" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -10362,13 +9803,13 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="7"/>
       <c r="AW59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY59" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX59" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY59" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -10401,16 +9842,16 @@
       <c r="CB59" s="10"/>
       <c r="CC59" s="10"/>
       <c r="CD59" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE59" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF59" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE59" s="14" t="s">
+      <c r="CG59" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF59" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG59" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH59" s="10"/>
       <c r="CI59" s="10"/>
@@ -10419,55 +9860,55 @@
     </row>
     <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="64" t="s">
-        <v>29</v>
+      <c r="J60" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M60" s="16">
         <v>250</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O60" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="S60" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -10499,13 +9940,13 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="7"/>
       <c r="AW60" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY60" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AX60" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY60" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
@@ -10538,16 +9979,16 @@
       <c r="CB60" s="10"/>
       <c r="CC60" s="10"/>
       <c r="CD60" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="CE60" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF60" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="CE60" s="14" t="s">
+      <c r="CG60" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="CF60" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="CG60" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="CH60" s="10"/>
       <c r="CI60" s="10"/>
@@ -10556,40 +9997,40 @@
     </row>
     <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="64" t="s">
-        <v>29</v>
+      <c r="J61" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M61" s="16">
         <v>250</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -10669,41 +10110,41 @@
     </row>
     <row r="62" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="68" t="s">
-        <v>29</v>
+      <c r="J62" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M62" s="16"/>
       <c r="N62" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -10776,153 +10217,153 @@
       <c r="CF62" s="15"/>
       <c r="CG62" s="10"/>
       <c r="CH62" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="CI62" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CJ62" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="CK62" s="16"/>
     </row>
     <row r="63" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="67" t="s">
-        <v>537</v>
+      <c r="J63" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M63" s="16">
         <v>153</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="S63" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R63" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="U63" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="U63" s="1" t="s">
+      <c r="V63" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="W63" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN63" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AO63" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AP63" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AQ63" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AR63" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS63" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT63" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AS63" s="1" t="s">
+      <c r="AU63" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="AT63" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AU63" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="AV63" s="7"/>
       <c r="AW63" s="1"/>
@@ -10969,55 +10410,55 @@
     </row>
     <row r="64" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="68" t="s">
-        <v>29</v>
+      <c r="J64" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M64" s="16">
         <v>185</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="P64" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -11088,76 +10529,76 @@
       <c r="CH64" s="10"/>
       <c r="CI64" s="10"/>
       <c r="CJ64" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="CK64" s="16"/>
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="68" t="s">
-        <v>29</v>
+      <c r="J65" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M65" s="16">
         <v>157</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P65" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="Q65" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="R65" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="Q65" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="S65" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="U65" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="V65" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="U65" s="1" t="s">
+      <c r="W65" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -11184,16 +10625,16 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="7"/>
       <c r="AW65" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AX65" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AY65" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AZ65" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
@@ -11237,46 +10678,46 @@
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="68" t="s">
-        <v>29</v>
+      <c r="J66" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M66" s="16">
         <v>157</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -11354,58 +10795,58 @@
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="68" t="s">
-        <v>29</v>
+      <c r="J67" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M67" s="16">
         <v>157</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="P67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="R67" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="S67" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -11479,43 +10920,43 @@
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="68" t="s">
-        <v>29</v>
+      <c r="J68" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M68" s="16">
         <v>157</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -11594,43 +11035,43 @@
     </row>
     <row r="69" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="68" t="s">
-        <v>29</v>
+      <c r="J69" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M69" s="16">
         <v>157</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -11697,7 +11138,7 @@
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
       <c r="CB69" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="CC69" s="10"/>
       <c r="CD69" s="10"/>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84237ED0-3151-40D4-AC5F-8D8487B7A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125CB4E-20E9-4993-9255-007BAC153D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="537">
   <si>
     <t>Environment</t>
   </si>
@@ -73,15 +73,9 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>Failure Reason</t>
-  </si>
-  <si>
     <t>https://survey.k12insight.com/Survey1.aspx?k=SsSXQVYsVsPsPsP&amp;lang=0</t>
   </si>
   <si>
-    <t>https://www.sogosurvey.com/</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -397,15 +391,6 @@
     <t>Step 8: Send Now</t>
   </si>
   <si>
-    <t>DNT- Automation DMX 1000 list.xls</t>
-  </si>
-  <si>
-    <t>Type Manually 1000 records.txt</t>
-  </si>
-  <si>
-    <t>Type Manually 999 records.txt</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -424,12 +409,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>DNT- Automation DMX 999 list.xls</t>
-  </si>
-  <si>
-    <t>DNT- Automation DMX 999 list</t>
-  </si>
-  <si>
     <t>Step 6: Reminders ScheduledSelected (100) (diff pages 25 Email from Each page)</t>
   </si>
   <si>
@@ -682,9 +661,6 @@
     <t>PlatformReadings_TC26</t>
   </si>
   <si>
-    <t>Invitation Wizard (1000 records via list)</t>
-  </si>
-  <si>
     <t>Step 1: Select Type Of Survey URL To Be Sent</t>
   </si>
   <si>
@@ -703,9 +679,6 @@
     <t>PlatformReadings_TC27</t>
   </si>
   <si>
-    <t>Invitation Wizard (1000 records via file)</t>
-  </si>
-  <si>
     <t>Step 4 : Mail Merge</t>
   </si>
   <si>
@@ -715,15 +688,9 @@
     <t>PlatformReadings_TC28</t>
   </si>
   <si>
-    <t>Invitation Wizard (1000 records Type Manually)</t>
-  </si>
-  <si>
     <t>PlatformReadings_TC29</t>
   </si>
   <si>
-    <t>Quick Send (999 records)</t>
-  </si>
-  <si>
     <t>Step 1: Send 999 records via Quick Send</t>
   </si>
   <si>
@@ -1051,9 +1018,6 @@
     <t>Email Address/~/First Name</t>
   </si>
   <si>
-    <t>DNT- Automation DMX 1000 list</t>
-  </si>
-  <si>
     <t>Column1/~/Column3/~/Column4</t>
   </si>
   <si>
@@ -1631,13 +1595,52 @@
   </si>
   <si>
     <t xml:space="preserve"> Loader did not disappear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login Image Static not present on page.</t>
+  </si>
+  <si>
+    <t>https://www.sogolytics.com/</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 500 list.xls</t>
+  </si>
+  <si>
+    <t>Type Manually 500 records.txt</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (500 records via file)</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (500 records Type Manually)</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 500 list</t>
+  </si>
+  <si>
+    <t>Invitation Wizard (500 records via list)</t>
+  </si>
+  <si>
+    <t>Quick Send (499 records)</t>
+  </si>
+  <si>
+    <t>Type Manually 499 records.txt</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 499 list.xls</t>
+  </si>
+  <si>
+    <t>DNT- Automation DMX 499 list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,8 +1707,58 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1757,6 +1810,56 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -1814,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1838,6 +1941,16 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2123,7 +2236,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>525</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2156,30 +2269,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{132B2354-4A9B-4433-94FC-F96C1CCDE7E2}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{A0A92BDC-5AF5-4CFD-8ACF-3EF7B429F3AB}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{44343154-2721-4D62-B4CE-0747B4D8E5AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2216,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2260,13 +2374,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -2274,13 +2388,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2288,13 +2402,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2302,13 +2416,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2316,13 +2430,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2345,13 +2459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
   <dimension ref="A1:CK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BR42" sqref="BR42:BR46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2382,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
@@ -2397,294 +2511,294 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CB1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="CD1" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="CE1" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="CF1" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="CG1" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="CH1" s="3" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="CI1" s="3" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="CJ1" s="3" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="CK1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
       <c r="J2" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2759,52 +2873,52 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
       <c r="J3" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4">
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2880,52 +2994,52 @@
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
       <c r="J4" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -3001,52 +3115,52 @@
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="4">
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -3122,52 +3236,52 @@
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
       <c r="J6" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -3199,28 +3313,28 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
@@ -3259,52 +3373,52 @@
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
       <c r="J7" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" s="4">
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3336,28 +3450,28 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
@@ -3396,49 +3510,49 @@
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
       <c r="J8" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="4">
         <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3479,10 +3593,10 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
@@ -3519,49 +3633,49 @@
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
       <c r="J9" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="4">
         <v>3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -3602,13 +3716,13 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BE9" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
@@ -3644,49 +3758,49 @@
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
       <c r="J10" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" s="4">
         <v>3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -3719,7 +3833,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
@@ -3729,10 +3843,10 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
@@ -3769,49 +3883,49 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
       <c r="J11" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="4">
         <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3844,7 +3958,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -3854,10 +3968,10 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
@@ -3894,55 +4008,55 @@
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
       <c r="J12" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="4">
         <v>3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -3973,7 +4087,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -4019,55 +4133,55 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M13" s="4">
         <v>3</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -4098,7 +4212,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -4111,7 +4225,7 @@
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="BH13" s="7"/>
       <c r="BI13" s="7"/>
@@ -4146,55 +4260,55 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
       <c r="J14" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M14" s="4">
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -4225,7 +4339,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
@@ -4239,7 +4353,7 @@
       <c r="BF14" s="1"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
@@ -4273,52 +4387,52 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
       <c r="J15" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M15" s="4">
         <v>2201</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4394,40 +4508,40 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
       <c r="J16" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M16" s="4">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -4507,52 +4621,52 @@
     </row>
     <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
       <c r="J17" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" s="4">
         <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4584,7 +4698,7 @@
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
@@ -4630,52 +4744,52 @@
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
       <c r="J18" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="4">
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4707,7 +4821,7 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
@@ -4722,7 +4836,7 @@
       <c r="BG18" s="7"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
@@ -4755,52 +4869,52 @@
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
       <c r="J19" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19" s="4">
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -4832,7 +4946,7 @@
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
@@ -4847,16 +4961,16 @@
       <c r="BG19" s="7"/>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="BJ19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BK19" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
@@ -4886,64 +5000,64 @@
     </row>
     <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
       <c r="J20" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20" s="4">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="S20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -4992,10 +5106,10 @@
       </c>
       <c r="BN20" s="1"/>
       <c r="BO20" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
@@ -5021,52 +5135,52 @@
     </row>
     <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
       <c r="J21" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="4">
         <v>3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -5098,16 +5212,16 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
       <c r="AV21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -5152,52 +5266,52 @@
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
       <c r="J22" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M22" s="4">
         <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -5229,16 +5343,16 @@
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -5283,49 +5397,49 @@
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
       <c r="J23" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23" s="4">
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -5358,7 +5472,7 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
@@ -5406,55 +5520,55 @@
     </row>
     <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
       <c r="J24" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="4">
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -5529,61 +5643,61 @@
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
       <c r="J25" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M25" s="4">
         <v>3</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -5625,7 +5739,7 @@
       <c r="BG25" s="7"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
@@ -5635,7 +5749,7 @@
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BR25" s="2"/>
       <c r="BS25" s="2"/>
@@ -5660,40 +5774,40 @@
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
       <c r="J26" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M26" s="4">
         <v>780</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -5773,64 +5887,64 @@
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>219</v>
+        <v>532</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="18" t="s">
-        <v>28</v>
+      <c r="J27" s="23" t="s">
+        <v>526</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M27" s="4">
         <v>780</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -5880,14 +5994,14 @@
       <c r="BP27" s="1"/>
       <c r="BQ27" s="2"/>
       <c r="BR27" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS27" s="8" t="s">
-        <v>342</v>
+        <v>531</v>
       </c>
       <c r="BT27" s="8"/>
       <c r="BU27" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="BV27" s="1"/>
       <c r="BW27" s="1"/>
@@ -5908,61 +6022,61 @@
     </row>
     <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>226</v>
+        <v>529</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="18" t="s">
-        <v>28</v>
+      <c r="J28" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M28" s="4">
         <v>780</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="S28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -6013,14 +6127,14 @@
       <c r="BP28" s="1"/>
       <c r="BQ28" s="2"/>
       <c r="BR28" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS28" s="8"/>
       <c r="BT28" s="8" t="s">
-        <v>124</v>
+        <v>527</v>
       </c>
       <c r="BU28" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
@@ -6041,61 +6155,61 @@
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="18" t="s">
-        <v>28</v>
+      <c r="J29" s="21" t="s">
+        <v>526</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M29" s="4">
         <v>780</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="S29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -6146,14 +6260,14 @@
       <c r="BP29" s="1"/>
       <c r="BQ29" s="2"/>
       <c r="BR29" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS29" s="8"/>
       <c r="BT29" s="8" t="s">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="BU29" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="BV29" s="1"/>
       <c r="BW29" s="1"/>
@@ -6174,40 +6288,40 @@
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>232</v>
+        <v>533</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="18" t="s">
-        <v>28</v>
+      <c r="J30" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M30" s="4">
         <v>780</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -6265,15 +6379,15 @@
       <c r="BP30" s="1"/>
       <c r="BQ30" s="2"/>
       <c r="BR30" s="8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="BS30" s="8"/>
       <c r="BT30" s="8" t="s">
-        <v>126</v>
+        <v>534</v>
       </c>
       <c r="BU30" s="1"/>
       <c r="BV30" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="BW30" s="1"/>
       <c r="BX30" s="1"/>
@@ -6293,52 +6407,52 @@
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="18" t="s">
-        <v>28</v>
+      <c r="J31" s="25" t="s">
+        <v>526</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M31" s="4">
         <v>780</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -6394,15 +6508,15 @@
       <c r="BR31" s="8"/>
       <c r="BS31" s="8"/>
       <c r="BT31" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="BU31" s="1"/>
       <c r="BV31" s="1"/>
       <c r="BW31" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="BY31" s="1"/>
       <c r="BZ31" s="1"/>
@@ -6420,49 +6534,49 @@
     </row>
     <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
       <c r="J32" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M32" s="4">
         <v>780</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -6518,11 +6632,11 @@
       <c r="BQ32" s="2"/>
       <c r="BR32" s="8"/>
       <c r="BS32" s="8" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="BT32" s="8"/>
       <c r="BU32" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="BV32" s="1"/>
       <c r="BW32" s="1"/>
@@ -6543,46 +6657,46 @@
     </row>
     <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
       <c r="J33" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M33" s="4">
         <v>780</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -6638,7 +6752,7 @@
       <c r="BP33" s="1"/>
       <c r="BQ33" s="2"/>
       <c r="BR33" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS33" s="8"/>
       <c r="BT33" s="8"/>
@@ -6662,40 +6776,40 @@
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
       <c r="J34" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M34" s="4">
         <v>780</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -6753,7 +6867,7 @@
       <c r="BP34" s="1"/>
       <c r="BQ34" s="2"/>
       <c r="BR34" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS34" s="8"/>
       <c r="BT34" s="8"/>
@@ -6777,40 +6891,40 @@
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
       <c r="J35" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M35" s="4">
         <v>780</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -6868,7 +6982,7 @@
       <c r="BP35" s="1"/>
       <c r="BQ35" s="2"/>
       <c r="BR35" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS35" s="8"/>
       <c r="BT35" s="8"/>
@@ -6892,40 +7006,40 @@
     </row>
     <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
       <c r="J36" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M36" s="4">
         <v>780</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -6983,7 +7097,7 @@
       <c r="BP36" s="1"/>
       <c r="BQ36" s="2"/>
       <c r="BR36" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS36" s="8"/>
       <c r="BT36" s="8"/>
@@ -7007,40 +7121,40 @@
     </row>
     <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
       <c r="J37" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M37" s="4">
         <v>780</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -7098,7 +7212,7 @@
       <c r="BP37" s="1"/>
       <c r="BQ37" s="2"/>
       <c r="BR37" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS37" s="8"/>
       <c r="BT37" s="8"/>
@@ -7122,40 +7236,40 @@
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
       <c r="J38" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M38" s="4">
         <v>780</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -7213,7 +7327,7 @@
       <c r="BP38" s="1"/>
       <c r="BQ38" s="2"/>
       <c r="BR38" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS38" s="8"/>
       <c r="BT38" s="8"/>
@@ -7237,40 +7351,40 @@
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
       <c r="J39" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M39" s="4">
         <v>780</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -7328,7 +7442,7 @@
       <c r="BP39" s="1"/>
       <c r="BQ39" s="2"/>
       <c r="BR39" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS39" s="8"/>
       <c r="BT39" s="8"/>
@@ -7352,46 +7466,46 @@
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
       <c r="J40" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M40" s="4">
         <v>780</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -7454,13 +7568,13 @@
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="BZ40" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="CA40" s="9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="CB40" s="10"/>
       <c r="CC40" s="10"/>
@@ -7475,40 +7589,40 @@
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
       <c r="J41" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M41" s="4">
         <v>780</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -7573,12 +7687,12 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="BZ41" s="9"/>
       <c r="CA41" s="9"/>
       <c r="CB41" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="CC41" s="10"/>
       <c r="CD41" s="10"/>
@@ -7592,40 +7706,40 @@
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="18" t="s">
-        <v>28</v>
+      <c r="J42" s="26" t="s">
+        <v>526</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M42" s="4">
         <v>780</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -7683,14 +7797,14 @@
       <c r="BP42" s="1"/>
       <c r="BQ42" s="2"/>
       <c r="BR42" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS42" s="8"/>
       <c r="BT42" s="8" t="s">
-        <v>133</v>
+        <v>535</v>
       </c>
       <c r="BU42" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="BV42" s="1"/>
       <c r="BW42" s="1"/>
@@ -7700,7 +7814,7 @@
       <c r="CA42" s="9"/>
       <c r="CB42" s="10"/>
       <c r="CC42" s="10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="CD42" s="10"/>
       <c r="CE42" s="10"/>
@@ -7713,40 +7827,40 @@
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="18" t="s">
-        <v>28</v>
+      <c r="J43" s="27" t="s">
+        <v>526</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M43" s="4">
         <v>780</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -7804,14 +7918,14 @@
       <c r="BP43" s="1"/>
       <c r="BQ43" s="2"/>
       <c r="BR43" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS43" s="8" t="s">
-        <v>134</v>
+        <v>536</v>
       </c>
       <c r="BT43" s="8"/>
       <c r="BU43" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="BV43" s="1"/>
       <c r="BW43" s="1"/>
@@ -7821,7 +7935,7 @@
       <c r="CA43" s="9"/>
       <c r="CB43" s="10"/>
       <c r="CC43" s="10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="CD43" s="10"/>
       <c r="CE43" s="10"/>
@@ -7834,40 +7948,40 @@
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="18" t="s">
-        <v>28</v>
+      <c r="J44" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M44" s="4">
         <v>780</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -7925,14 +8039,14 @@
       <c r="BP44" s="1"/>
       <c r="BQ44" s="2"/>
       <c r="BR44" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS44" s="8"/>
       <c r="BT44" s="8" t="s">
-        <v>126</v>
+        <v>534</v>
       </c>
       <c r="BU44" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="BV44" s="1"/>
       <c r="BW44" s="1"/>
@@ -7942,7 +8056,7 @@
       <c r="CA44" s="9"/>
       <c r="CB44" s="10"/>
       <c r="CC44" s="10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="CD44" s="10"/>
       <c r="CE44" s="10"/>
@@ -7955,55 +8069,55 @@
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="18" t="s">
-        <v>28</v>
+      <c r="J45" s="29" t="s">
+        <v>526</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M45" s="4">
         <v>780</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -8058,14 +8172,14 @@
       <c r="BP45" s="1"/>
       <c r="BQ45" s="2"/>
       <c r="BR45" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS45" s="8"/>
       <c r="BT45" s="8" t="s">
-        <v>133</v>
+        <v>535</v>
       </c>
       <c r="BU45" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="BV45" s="1"/>
       <c r="BW45" s="1"/>
@@ -8077,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="CC45" s="10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="CD45" s="10"/>
       <c r="CE45" s="10"/>
@@ -8090,40 +8204,40 @@
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="18" t="s">
-        <v>28</v>
+      <c r="J46" s="30" t="s">
+        <v>526</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M46" s="4">
         <v>780</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -8181,14 +8295,14 @@
       <c r="BP46" s="1"/>
       <c r="BQ46" s="2"/>
       <c r="BR46" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BS46" s="8"/>
       <c r="BT46" s="8" t="s">
-        <v>124</v>
+        <v>527</v>
       </c>
       <c r="BU46" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="BV46" s="1"/>
       <c r="BW46" s="1"/>
@@ -8198,7 +8312,7 @@
       <c r="CA46" s="9"/>
       <c r="CB46" s="10"/>
       <c r="CC46" s="10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="CD46" s="10"/>
       <c r="CE46" s="10"/>
@@ -8211,43 +8325,43 @@
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
       <c r="J47" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M47" s="4">
         <v>780</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -8326,43 +8440,43 @@
     </row>
     <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
       <c r="J48" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M48" s="4">
         <v>780</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -8441,43 +8555,43 @@
     </row>
     <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
       <c r="J49" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M49" s="4">
         <v>780</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -8556,55 +8670,55 @@
     </row>
     <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
       <c r="J50" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M50" s="4">
         <v>780</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -8659,7 +8773,7 @@
       <c r="BR50" s="8"/>
       <c r="BS50" s="8"/>
       <c r="BT50" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="BU50" s="1"/>
       <c r="BV50" s="1"/>
@@ -8681,49 +8795,49 @@
     </row>
     <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
       <c r="J51" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M51" s="4">
         <v>3</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -8757,7 +8871,7 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="7"/>
       <c r="AW51" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
@@ -8802,52 +8916,52 @@
     </row>
     <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
       <c r="J52" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M52" s="4">
         <v>3</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -8923,43 +9037,43 @@
     </row>
     <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="11"/>
       <c r="J53" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M53" s="16">
         <v>250</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -9038,55 +9152,55 @@
     </row>
     <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="11"/>
       <c r="J54" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M54" s="16">
         <v>250</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -9118,13 +9232,13 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="7"/>
       <c r="AW54" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX54" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY54" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9157,16 +9271,16 @@
       <c r="CB54" s="10"/>
       <c r="CC54" s="10"/>
       <c r="CD54" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE54" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF54" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG54" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH54" s="10"/>
       <c r="CI54" s="10"/>
@@ -9175,55 +9289,55 @@
     </row>
     <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="11"/>
       <c r="J55" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M55" s="16">
         <v>250</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -9255,13 +9369,13 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="7"/>
       <c r="AW55" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX55" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY55" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9294,16 +9408,16 @@
       <c r="CB55" s="10"/>
       <c r="CC55" s="10"/>
       <c r="CD55" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE55" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF55" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG55" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH55" s="10"/>
       <c r="CI55" s="10"/>
@@ -9312,55 +9426,55 @@
     </row>
     <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="11"/>
       <c r="J56" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M56" s="16">
         <v>250</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -9392,13 +9506,13 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="7"/>
       <c r="AW56" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX56" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY56" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -9431,16 +9545,16 @@
       <c r="CB56" s="10"/>
       <c r="CC56" s="10"/>
       <c r="CD56" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE56" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF56" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG56" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH56" s="10"/>
       <c r="CI56" s="10"/>
@@ -9449,55 +9563,55 @@
     </row>
     <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="11"/>
       <c r="J57" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M57" s="16">
         <v>250</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -9529,13 +9643,13 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="7"/>
       <c r="AW57" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX57" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY57" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -9568,16 +9682,16 @@
       <c r="CB57" s="10"/>
       <c r="CC57" s="10"/>
       <c r="CD57" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE57" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF57" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG57" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH57" s="10"/>
       <c r="CI57" s="10"/>
@@ -9586,55 +9700,55 @@
     </row>
     <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="11"/>
       <c r="J58" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M58" s="16">
         <v>250</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -9666,13 +9780,13 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="7"/>
       <c r="AW58" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX58" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY58" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -9705,16 +9819,16 @@
       <c r="CB58" s="10"/>
       <c r="CC58" s="10"/>
       <c r="CD58" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE58" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF58" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG58" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH58" s="10"/>
       <c r="CI58" s="10"/>
@@ -9723,55 +9837,55 @@
     </row>
     <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="11"/>
       <c r="J59" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M59" s="16">
         <v>250</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -9803,13 +9917,13 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="7"/>
       <c r="AW59" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX59" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY59" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -9842,16 +9956,16 @@
       <c r="CB59" s="10"/>
       <c r="CC59" s="10"/>
       <c r="CD59" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE59" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF59" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG59" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH59" s="10"/>
       <c r="CI59" s="10"/>
@@ -9860,55 +9974,55 @@
     </row>
     <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="11"/>
       <c r="J60" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M60" s="16">
         <v>250</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -9940,13 +10054,13 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="7"/>
       <c r="AW60" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AX60" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AY60" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
@@ -9979,16 +10093,16 @@
       <c r="CB60" s="10"/>
       <c r="CC60" s="10"/>
       <c r="CD60" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="CE60" s="14" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="CF60" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="CG60" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="CH60" s="10"/>
       <c r="CI60" s="10"/>
@@ -9997,40 +10111,40 @@
     </row>
     <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11"/>
       <c r="J61" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M61" s="16">
         <v>250</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -10110,41 +10224,41 @@
     </row>
     <row r="62" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="11"/>
       <c r="J62" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M62" s="16"/>
       <c r="N62" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -10217,153 +10331,153 @@
       <c r="CF62" s="15"/>
       <c r="CG62" s="10"/>
       <c r="CH62" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="CI62" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="CJ62" s="10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="CK62" s="16"/>
     </row>
     <row r="63" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="11"/>
       <c r="J63" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="M63" s="16">
         <v>153</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="O63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="X63" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="Y63" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="S63" s="1" t="s">
+      <c r="Z63" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="AA63" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="U63" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="V63" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="X63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="Y63" s="1" t="s">
+      <c r="AE63" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Z63" s="1" t="s">
+      <c r="AF63" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AG63" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AH63" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AC63" s="1" t="s">
+      <c r="AI63" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AD63" s="1" t="s">
+      <c r="AJ63" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AE63" s="1" t="s">
+      <c r="AK63" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="AF63" s="1" t="s">
+      <c r="AL63" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="AG63" s="1" t="s">
+      <c r="AM63" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AH63" s="1" t="s">
+      <c r="AN63" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AI63" s="1" t="s">
+      <c r="AO63" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AJ63" s="1" t="s">
+      <c r="AP63" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="AK63" s="1" t="s">
+      <c r="AQ63" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AL63" s="1" t="s">
+      <c r="AR63" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AM63" s="1" t="s">
+      <c r="AS63" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AN63" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AO63" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AP63" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ63" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AR63" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AS63" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="AT63" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="AV63" s="7"/>
       <c r="AW63" s="1"/>
@@ -10410,55 +10524,55 @@
     </row>
     <row r="64" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="11"/>
       <c r="J64" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="M64" s="16">
         <v>185</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -10529,76 +10643,76 @@
       <c r="CH64" s="10"/>
       <c r="CI64" s="10"/>
       <c r="CJ64" s="10" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="CK64" s="16"/>
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="11"/>
       <c r="J65" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M65" s="16">
         <v>157</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="W65" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -10625,16 +10739,16 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="7"/>
       <c r="AW65" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="AX65" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="AY65" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="AZ65" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
@@ -10678,46 +10792,46 @@
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="11"/>
       <c r="J66" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M66" s="16">
         <v>157</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -10795,58 +10909,58 @@
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="11"/>
       <c r="J67" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M67" s="16">
         <v>157</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -10920,43 +11034,43 @@
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="11"/>
       <c r="J68" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M68" s="16">
         <v>157</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -11035,43 +11149,43 @@
     </row>
     <row r="69" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="11"/>
       <c r="J69" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M69" s="16">
         <v>157</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -11138,7 +11252,7 @@
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
       <c r="CB69" s="10" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="CC69" s="10"/>
       <c r="CD69" s="10"/>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125CB4E-20E9-4993-9255-007BAC153D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0355957-6512-4755-BC08-8D0B97321732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="548">
   <si>
     <t>Environment</t>
   </si>
@@ -1634,13 +1634,47 @@
   </si>
   <si>
     <t>DNT- Automation DMX 499 list</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC69</t>
+  </si>
+  <si>
+    <t>Survey Setting</t>
+  </si>
+  <si>
+    <t>Survey Setting (QM -&gt; Survey Settings) (Click on Survey details) -load ( SID 157)</t>
+  </si>
+  <si>
+    <t>Final Step of Survey Settings (Save on Thank you page) - save ( SID 157)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC70</t>
+  </si>
+  <si>
+    <t>Assessment Settings (Assign Scores)</t>
+  </si>
+  <si>
+    <t>Assessment Settings (Assign Scores) - load (sid - 158)</t>
+  </si>
+  <si>
+    <t>Apply scores on 10 questions with (use category 1) - save ( (sid - 158))</t>
+  </si>
+  <si>
+    <t>SMX reading Assessment</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC71</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,12 +1787,82 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="74">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,8 +1962,273 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -1917,14 +2286,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1950,7 +2319,38 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2241,8 +2641,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,9 +2709,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,10 +2752,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,26 +2857,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:CK69"/>
+  <dimension ref="A1:CK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BR42" sqref="BR42:BR46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="88" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="88" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.25">
@@ -2772,7 +3172,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6"/>
@@ -2895,7 +3295,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="6"/>
@@ -3016,7 +3416,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="6"/>
@@ -3137,7 +3537,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="12"/>
@@ -3258,7 +3658,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="12"/>
@@ -3395,7 +3795,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="12"/>
@@ -3532,7 +3932,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="12"/>
@@ -3655,7 +4055,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="12"/>
@@ -3780,7 +4180,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="12"/>
@@ -3905,7 +4305,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="12"/>
@@ -4030,7 +4430,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="12"/>
@@ -4155,7 +4555,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="12"/>
@@ -4282,7 +4682,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="12"/>
@@ -4409,7 +4809,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="12"/>
@@ -4530,7 +4930,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="12"/>
@@ -4643,7 +5043,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="12"/>
@@ -4766,7 +5166,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="12"/>
@@ -4891,7 +5291,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="12"/>
@@ -5022,7 +5422,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="12"/>
@@ -5157,7 +5557,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="12"/>
@@ -5288,7 +5688,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K22" s="12"/>
@@ -5419,7 +5819,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K23" s="12"/>
@@ -5542,7 +5942,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="12"/>
@@ -5665,7 +6065,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="12"/>
@@ -5796,7 +6196,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="12"/>
@@ -5890,7 +6290,7 @@
         <v>211</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>21</v>
@@ -5909,8 +6309,8 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="23" t="s">
-        <v>526</v>
+      <c r="J27" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
@@ -6025,7 +6425,7 @@
         <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -6044,8 +6444,8 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="22" t="s">
-        <v>526</v>
+      <c r="J28" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
@@ -6158,7 +6558,7 @@
         <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>21</v>
@@ -6177,8 +6577,8 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="21" t="s">
-        <v>526</v>
+      <c r="J29" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
@@ -6291,7 +6691,7 @@
         <v>221</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>21</v>
@@ -6310,8 +6710,8 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="24" t="s">
-        <v>526</v>
+      <c r="J30" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="4" t="s">
@@ -6410,7 +6810,7 @@
         <v>223</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -6429,8 +6829,8 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="25" t="s">
-        <v>526</v>
+      <c r="J31" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="4" t="s">
@@ -6556,7 +6956,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K32" s="12"/>
@@ -6679,7 +7079,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="12"/>
@@ -6798,7 +7198,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="12"/>
@@ -6913,7 +7313,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="12"/>
@@ -7028,7 +7428,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K36" s="12"/>
@@ -7143,7 +7543,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="12"/>
@@ -7258,7 +7658,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K38" s="12"/>
@@ -7373,7 +7773,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K39" s="12"/>
@@ -7488,7 +7888,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K40" s="12"/>
@@ -7611,7 +8011,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K41" s="12"/>
@@ -7709,7 +8109,7 @@
         <v>267</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>21</v>
@@ -7728,8 +8128,8 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="26" t="s">
-        <v>526</v>
+      <c r="J42" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="4" t="s">
@@ -7830,7 +8230,7 @@
         <v>270</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>21</v>
@@ -7849,8 +8249,8 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="27" t="s">
-        <v>526</v>
+      <c r="J43" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="4" t="s">
@@ -7951,7 +8351,7 @@
         <v>273</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>21</v>
@@ -7970,8 +8370,8 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="28" t="s">
-        <v>526</v>
+      <c r="J44" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="4" t="s">
@@ -8072,7 +8472,7 @@
         <v>276</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -8091,8 +8491,8 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="29" t="s">
-        <v>526</v>
+      <c r="J45" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="4" t="s">
@@ -8207,7 +8607,7 @@
         <v>283</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>21</v>
@@ -8226,8 +8626,8 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="30" t="s">
-        <v>526</v>
+      <c r="J46" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="4" t="s">
@@ -8347,7 +8747,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="12"/>
@@ -8462,7 +8862,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="12"/>
@@ -8577,7 +8977,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K49" s="12"/>
@@ -8692,7 +9092,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="12"/>
@@ -8817,7 +9217,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K51" s="12"/>
@@ -8938,7 +9338,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K52" s="12"/>
@@ -9059,7 +9459,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="16"/>
@@ -9174,7 +9574,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K54" s="16"/>
@@ -9311,7 +9711,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="16"/>
@@ -9448,7 +9848,7 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K56" s="16"/>
@@ -9585,7 +9985,7 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="16"/>
@@ -9722,7 +10122,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="16"/>
@@ -9859,7 +10259,7 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K59" s="16"/>
@@ -9996,7 +10396,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K60" s="16"/>
@@ -10133,7 +10533,7 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K61" s="16"/>
@@ -10227,7 +10627,7 @@
         <v>398</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>21</v>
@@ -10246,8 +10646,8 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="20" t="s">
-        <v>26</v>
+      <c r="J62" s="25" t="s">
+        <v>526</v>
       </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16" t="s">
@@ -10346,7 +10746,7 @@
         <v>409</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>21</v>
@@ -10365,8 +10765,8 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="20" t="s">
-        <v>26</v>
+      <c r="J63" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>523</v>
@@ -10527,7 +10927,7 @@
         <v>470</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -10546,7 +10946,7 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K64" s="16"/>
@@ -10652,7 +11052,7 @@
         <v>479</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>21</v>
@@ -10671,8 +11071,8 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="20" t="s">
-        <v>26</v>
+      <c r="J65" s="21" t="s">
+        <v>526</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
@@ -10795,7 +11195,7 @@
         <v>496</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>21</v>
@@ -10814,8 +11214,8 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="20" t="s">
-        <v>26</v>
+      <c r="J66" s="22" t="s">
+        <v>526</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16" t="s">
@@ -10912,7 +11312,7 @@
         <v>501</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>21</v>
@@ -10931,8 +11331,8 @@
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="20" t="s">
-        <v>26</v>
+      <c r="J67" s="23" t="s">
+        <v>526</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16" t="s">
@@ -11037,7 +11437,7 @@
         <v>510</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>21</v>
@@ -11056,8 +11456,8 @@
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="20" t="s">
-        <v>26</v>
+      <c r="J68" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16" t="s">
@@ -11152,7 +11552,7 @@
         <v>514</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>21</v>
@@ -11171,8 +11571,8 @@
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="20" t="s">
-        <v>26</v>
+      <c r="J69" s="26" t="s">
+        <v>526</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16" t="s">
@@ -11264,6 +11664,345 @@
       <c r="CJ69" s="10"/>
       <c r="CK69" s="16"/>
     </row>
+    <row r="70" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M70" s="16">
+        <v>157</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="7"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="7"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="2"/>
+      <c r="BR70" s="8"/>
+      <c r="BS70" s="8"/>
+      <c r="BT70" s="8"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="9"/>
+      <c r="CA70" s="9"/>
+      <c r="CB70" s="10"/>
+      <c r="CC70" s="10"/>
+      <c r="CD70" s="10"/>
+      <c r="CE70" s="14"/>
+      <c r="CF70" s="15"/>
+      <c r="CG70" s="10"/>
+      <c r="CH70" s="10"/>
+      <c r="CI70" s="10"/>
+      <c r="CJ70" s="10"/>
+      <c r="CK70" s="16"/>
+    </row>
+    <row r="71" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="M71" s="16">
+        <v>158</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="7"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="7"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="2"/>
+      <c r="BR71" s="8"/>
+      <c r="BS71" s="8"/>
+      <c r="BT71" s="8"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="9"/>
+      <c r="CA71" s="9"/>
+      <c r="CB71" s="10"/>
+      <c r="CC71" s="10"/>
+      <c r="CD71" s="10"/>
+      <c r="CE71" s="14"/>
+      <c r="CF71" s="15"/>
+      <c r="CG71" s="10"/>
+      <c r="CH71" s="10"/>
+      <c r="CI71" s="10"/>
+      <c r="CJ71" s="10"/>
+      <c r="CK71" s="16"/>
+    </row>
+    <row r="72" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" s="16">
+        <v>157</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="7"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="7"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="2"/>
+      <c r="BR72" s="8"/>
+      <c r="BS72" s="8"/>
+      <c r="BT72" s="8"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="9"/>
+      <c r="CA72" s="9"/>
+      <c r="CB72" s="10"/>
+      <c r="CC72" s="10"/>
+      <c r="CD72" s="10"/>
+      <c r="CE72" s="14"/>
+      <c r="CF72" s="15"/>
+      <c r="CG72" s="10"/>
+      <c r="CH72" s="10"/>
+      <c r="CI72" s="10"/>
+      <c r="CJ72" s="10"/>
+      <c r="CK72" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0355957-6512-4755-BC08-8D0B97321732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436D607F-968B-4313-969F-5D6BCF932C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="554">
   <si>
     <t>Environment</t>
   </si>
@@ -1666,7 +1666,25 @@
     <t>PlatformReadings_TC71</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Advance Branching page - load (sid - 157) (Page 2)</t>
+  </si>
+  <si>
+    <t>Apply branching on 5 questions page 1 - save (sid - 157)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC72</t>
+  </si>
+  <si>
+    <t>Multi-Question Branching</t>
+  </si>
+  <si>
+    <t>Single-Question Branching</t>
+  </si>
+  <si>
+    <t>Branching page - load (sid - 157) (Page 1)</t>
+  </si>
+  <si>
+    <t>Apply branching on 5 questions - Save (Take reading on 5th Save) (sid - 157)</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1692,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,46 +1805,9 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1862,7 +1843,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="74">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1962,183 +1943,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2286,7 +2092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2319,38 +2125,19 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2857,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:CK72"/>
+  <dimension ref="A1:CK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="BV61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11913,11 +11700,13 @@
       <c r="F72" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="59" t="s">
-        <v>547</v>
+      <c r="J72" s="30" t="s">
+        <v>526</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16" t="s">
@@ -11926,8 +11715,12 @@
       <c r="M72" s="16">
         <v>157</v>
       </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -12003,6 +11796,121 @@
       <c r="CJ72" s="10"/>
       <c r="CK72" s="16"/>
     </row>
+    <row r="73" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M73" s="16">
+        <v>157</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="7"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="2"/>
+      <c r="BR73" s="8"/>
+      <c r="BS73" s="8"/>
+      <c r="BT73" s="8"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="9"/>
+      <c r="CA73" s="9"/>
+      <c r="CB73" s="10"/>
+      <c r="CC73" s="10"/>
+      <c r="CD73" s="10"/>
+      <c r="CE73" s="14"/>
+      <c r="CF73" s="15"/>
+      <c r="CG73" s="10"/>
+      <c r="CH73" s="10"/>
+      <c r="CI73" s="10"/>
+      <c r="CJ73" s="10"/>
+      <c r="CK73" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436D607F-968B-4313-969F-5D6BCF932C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB709F-2F32-4A8D-8D7B-89FB3663ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="599">
   <si>
     <t>Environment</t>
   </si>
@@ -1594,9 +1594,6 @@
     <t>QDL Readings</t>
   </si>
   <si>
-    <t xml:space="preserve"> Loader did not disappear.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Login Image Static not present on page.</t>
   </si>
   <si>
@@ -1636,55 +1633,193 @@
     <t>DNT- Automation DMX 499 list</t>
   </si>
   <si>
+    <t>Survey Setting</t>
+  </si>
+  <si>
+    <t>Survey Setting (QM -&gt; Survey Settings) (Click on Survey details) -load ( SID 157)</t>
+  </si>
+  <si>
+    <t>Final Step of Survey Settings (Save on Thank you page) - save ( SID 157)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC70</t>
+  </si>
+  <si>
+    <t>Assessment Settings (Assign Scores)</t>
+  </si>
+  <si>
+    <t>Assessment Settings (Assign Scores) - load (sid - 158)</t>
+  </si>
+  <si>
+    <t>Apply scores on 10 questions with (use category 1) - save ( (sid - 158))</t>
+  </si>
+  <si>
+    <t>SMX reading Assessment</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC71</t>
+  </si>
+  <si>
+    <t>Advance Branching page - load (sid - 157) (Page 2)</t>
+  </si>
+  <si>
+    <t>Apply branching on 5 questions page 1 - save (sid - 157)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC72</t>
+  </si>
+  <si>
+    <t>Multi-Question Branching</t>
+  </si>
+  <si>
+    <t>Single-Question Branching</t>
+  </si>
+  <si>
+    <t>Branching page - load (sid - 157) (Page 1)</t>
+  </si>
+  <si>
+    <t>Apply branching on 5 questions - Save (Take reading on 5th Save) (sid - 157)</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC62.1</t>
+  </si>
+  <si>
+    <t>Drop Down Question Readings</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC63_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC64_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC65_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC66_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC67_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC68_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC70_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC71_1</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC72_1</t>
+  </si>
+  <si>
+    <t>Radio Button Question Readings</t>
+  </si>
+  <si>
+    <t>Horizontal Radio Button Readings</t>
+  </si>
+  <si>
+    <t>Multiselect Check box Readings</t>
+  </si>
+  <si>
     <t>PlatformReadings_TC69</t>
   </si>
   <si>
-    <t>Survey Setting</t>
-  </si>
-  <si>
-    <t>Survey Setting (QM -&gt; Survey Settings) (Click on Survey details) -load ( SID 157)</t>
-  </si>
-  <si>
-    <t>Final Step of Survey Settings (Save on Thank you page) - save ( SID 157)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC70</t>
-  </si>
-  <si>
-    <t>Assessment Settings (Assign Scores)</t>
-  </si>
-  <si>
-    <t>Assessment Settings (Assign Scores) - load (sid - 158)</t>
-  </si>
-  <si>
-    <t>Apply scores on 10 questions with (use category 1) - save ( (sid - 158))</t>
-  </si>
-  <si>
-    <t>SMX reading Assessment</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC71</t>
-  </si>
-  <si>
-    <t>Advance Branching page - load (sid - 157) (Page 2)</t>
-  </si>
-  <si>
-    <t>Apply branching on 5 questions page 1 - save (sid - 157)</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC72</t>
-  </si>
-  <si>
-    <t>Multi-Question Branching</t>
-  </si>
-  <si>
-    <t>Single-Question Branching</t>
-  </si>
-  <si>
-    <t>Branching page - load (sid - 157) (Page 1)</t>
-  </si>
-  <si>
-    <t>Apply branching on 5 questions - Save (Take reading on 5th Save) (sid - 157)</t>
+    <t>PlatformReadings_TC73</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC74</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC75</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC76</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC77</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC78</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC79</t>
+  </si>
+  <si>
+    <t>Text Box Question Readings</t>
+  </si>
+  <si>
+    <t>Ranking Question Readings</t>
+  </si>
+  <si>
+    <t>Date Question Readings</t>
+  </si>
+  <si>
+    <t>Multiselect List box Readings</t>
+  </si>
+  <si>
+    <t>Numeric Allocation Readings</t>
+  </si>
+  <si>
+    <t>Rating Scale Button Readings</t>
+  </si>
+  <si>
+    <t>Rating Radio Button Readings</t>
+  </si>
+  <si>
+    <t>Multiple Text Box Question Readings</t>
+  </si>
+  <si>
+    <t>Multiple Drop  Down Question Readings</t>
+  </si>
+  <si>
+    <t>Demographic Question Readings</t>
+  </si>
+  <si>
+    <t>Matrix Grid Question Readings</t>
+  </si>
+  <si>
+    <t>Description Readings</t>
+  </si>
+  <si>
+    <t>Attachment Question Reading</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC80</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC81</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC83</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC84</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC85</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC86</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC87</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC88</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC90</t>
+  </si>
+  <si>
+    <t>Expiry Rule Readings</t>
+  </si>
+  <si>
+    <t>Visual Setting Readings</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC91</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1827,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1743,66 +1878,55 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1842,8 +1966,19 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1879,7 +2014,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -1904,7 +2044,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1918,7 +2068,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1928,23 +2078,23 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2092,7 +2242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2118,26 +2268,27 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2448,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2644,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:CK73"/>
+  <dimension ref="A1:CK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2849,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>36</v>
@@ -2959,7 +3110,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6"/>
@@ -3082,7 +3233,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="6"/>
@@ -3203,7 +3354,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="6"/>
@@ -3324,7 +3475,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="12"/>
@@ -3445,7 +3596,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="12"/>
@@ -3582,7 +3733,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="12"/>
@@ -3719,7 +3870,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="12"/>
@@ -3842,7 +3993,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="12"/>
@@ -3967,7 +4118,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="12"/>
@@ -4092,7 +4243,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="12"/>
@@ -4217,7 +4368,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="12"/>
@@ -4342,7 +4493,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="12"/>
@@ -4469,7 +4620,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="12"/>
@@ -4596,7 +4747,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="12"/>
@@ -4717,7 +4868,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="12"/>
@@ -4830,7 +4981,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="12"/>
@@ -4953,7 +5104,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="12"/>
@@ -5078,7 +5229,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="12"/>
@@ -5209,7 +5360,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="12"/>
@@ -5344,7 +5495,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="12"/>
@@ -5475,7 +5626,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K22" s="12"/>
@@ -5606,7 +5757,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K23" s="12"/>
@@ -5729,7 +5880,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="12"/>
@@ -5852,7 +6003,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="12"/>
@@ -5983,7 +6134,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="12"/>
@@ -6092,11 +6243,11 @@
         <v>340</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="12"/>
@@ -6184,7 +6335,7 @@
         <v>118</v>
       </c>
       <c r="BS27" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BT27" s="8"/>
       <c r="BU27" s="1" t="s">
@@ -6227,11 +6378,11 @@
         <v>340</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="12"/>
@@ -6318,7 +6469,7 @@
       </c>
       <c r="BS28" s="8"/>
       <c r="BT28" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BU28" s="1" t="s">
         <v>331</v>
@@ -6360,11 +6511,11 @@
         <v>340</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="12"/>
@@ -6451,7 +6602,7 @@
       </c>
       <c r="BS29" s="8"/>
       <c r="BT29" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BU29" s="1" t="s">
         <v>331</v>
@@ -6493,11 +6644,11 @@
         <v>340</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K30" s="12"/>
@@ -6570,7 +6721,7 @@
       </c>
       <c r="BS30" s="8"/>
       <c r="BT30" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BU30" s="1"/>
       <c r="BV30" s="1" t="s">
@@ -6616,7 +6767,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K31" s="12"/>
@@ -6743,7 +6894,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K32" s="12"/>
@@ -6866,7 +7017,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="12"/>
@@ -6985,7 +7136,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="12"/>
@@ -7100,7 +7251,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="12"/>
@@ -7215,7 +7366,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K36" s="12"/>
@@ -7330,7 +7481,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="12"/>
@@ -7445,7 +7596,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K38" s="12"/>
@@ -7560,7 +7711,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K39" s="12"/>
@@ -7675,7 +7826,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K40" s="12"/>
@@ -7798,7 +7949,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K41" s="12"/>
@@ -7915,7 +8066,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K42" s="12"/>
@@ -7988,7 +8139,7 @@
       </c>
       <c r="BS42" s="8"/>
       <c r="BT42" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BU42" s="1" t="s">
         <v>331</v>
@@ -8036,7 +8187,7 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K43" s="12"/>
@@ -8108,7 +8259,7 @@
         <v>118</v>
       </c>
       <c r="BS43" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BT43" s="8"/>
       <c r="BU43" s="1" t="s">
@@ -8157,7 +8308,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="12"/>
@@ -8230,7 +8381,7 @@
       </c>
       <c r="BS44" s="8"/>
       <c r="BT44" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BU44" s="1" t="s">
         <v>331</v>
@@ -8278,7 +8429,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K45" s="12"/>
@@ -8363,7 +8514,7 @@
       </c>
       <c r="BS45" s="8"/>
       <c r="BT45" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BU45" s="1" t="s">
         <v>331</v>
@@ -8413,7 +8564,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K46" s="12"/>
@@ -8486,7 +8637,7 @@
       </c>
       <c r="BS46" s="8"/>
       <c r="BT46" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BU46" s="1" t="s">
         <v>331</v>
@@ -8534,7 +8685,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="12"/>
@@ -8649,7 +8800,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="12"/>
@@ -8764,7 +8915,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K49" s="12"/>
@@ -8879,7 +9030,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="12"/>
@@ -9004,7 +9155,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K51" s="12"/>
@@ -9125,7 +9276,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K52" s="12"/>
@@ -9246,7 +9397,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="16"/>
@@ -9361,7 +9512,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K54" s="16"/>
@@ -9498,7 +9649,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="16"/>
@@ -9635,7 +9786,7 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K56" s="16"/>
@@ -9772,7 +9923,7 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="16"/>
@@ -9909,7 +10060,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="20" t="s">
+      <c r="J58" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="16"/>
@@ -10046,7 +10197,7 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K59" s="16"/>
@@ -10183,7 +10334,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K60" s="16"/>
@@ -10320,7 +10471,7 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="20" t="s">
+      <c r="J61" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K61" s="16"/>
@@ -10414,7 +10565,7 @@
         <v>398</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>21</v>
@@ -10433,8 +10584,8 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="25" t="s">
-        <v>526</v>
+      <c r="J62" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16" t="s">
@@ -10533,7 +10684,7 @@
         <v>409</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>21</v>
@@ -10548,124 +10699,58 @@
         <v>399</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>523</v>
-      </c>
+      <c r="J63" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="16"/>
       <c r="L63" s="16" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="M63" s="16">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y63" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA63" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC63" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD63" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE63" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF63" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG63" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH63" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI63" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AJ63" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK63" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL63" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM63" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="AN63" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AO63" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AP63" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AQ63" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AR63" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AS63" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT63" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AU63" s="1" t="s">
-        <v>467</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
       <c r="AV63" s="7"/>
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
@@ -10714,7 +10799,7 @@
         <v>470</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -10729,38 +10814,30 @@
         <v>399</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="23" t="s">
         <v>26</v>
       </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="M64" s="16">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -10829,9 +10906,7 @@
       <c r="CG64" s="10"/>
       <c r="CH64" s="10"/>
       <c r="CI64" s="10"/>
-      <c r="CJ64" s="10" t="s">
-        <v>477</v>
-      </c>
+      <c r="CJ64" s="10"/>
       <c r="CK64" s="16"/>
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.25">
@@ -10839,7 +10914,7 @@
         <v>479</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>21</v>
@@ -10854,53 +10929,35 @@
         <v>399</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="21" t="s">
-        <v>526</v>
+      <c r="J65" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M65" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>481</v>
+        <v>411</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>495</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -10925,18 +10982,10 @@
       <c r="AT65" s="1"/>
       <c r="AU65" s="1"/>
       <c r="AV65" s="7"/>
-      <c r="AW65" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AX65" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY65" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AZ65" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
       <c r="BC65" s="1"/>
@@ -10949,9 +10998,7 @@
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
-      <c r="BM65" s="1">
-        <v>19</v>
-      </c>
+      <c r="BM65" s="1"/>
       <c r="BN65" s="1"/>
       <c r="BO65" s="1"/>
       <c r="BP65" s="1"/>
@@ -10982,7 +11029,7 @@
         <v>496</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>21</v>
@@ -10997,29 +11044,27 @@
         <v>399</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="22" t="s">
-        <v>526</v>
+      <c r="J66" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M66" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>497</v>
+        <v>415</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>499</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -11099,7 +11144,7 @@
         <v>501</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>21</v>
@@ -11114,41 +11159,31 @@
         <v>399</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="11"/>
       <c r="J67" s="23" t="s">
-        <v>526</v>
+        <v>26</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M67" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>503</v>
+        <v>417</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>509</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -11224,7 +11259,7 @@
         <v>510</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>21</v>
@@ -11239,25 +11274,25 @@
         <v>399</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="24" t="s">
-        <v>526</v>
+      <c r="J68" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M68" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -11339,7 +11374,7 @@
         <v>514</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>21</v>
@@ -11354,25 +11389,25 @@
         <v>399</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="26" t="s">
-        <v>526</v>
+      <c r="J69" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M69" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -11438,9 +11473,7 @@
       <c r="BY69" s="1"/>
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
-      <c r="CB69" s="10" t="s">
-        <v>518</v>
-      </c>
+      <c r="CB69" s="10"/>
       <c r="CC69" s="10"/>
       <c r="CD69" s="10"/>
       <c r="CE69" s="14"/>
@@ -11453,10 +11486,10 @@
     </row>
     <row r="70" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>21</v>
@@ -11471,25 +11504,25 @@
         <v>399</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="27" t="s">
-        <v>526</v>
+      <c r="J70" s="24" t="s">
+        <v>525</v>
       </c>
       <c r="K70" s="16"/>
       <c r="L70" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M70" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>539</v>
+        <v>428</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>540</v>
+        <v>429</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -11568,10 +11601,10 @@
     </row>
     <row r="71" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>21</v>
@@ -11586,25 +11619,25 @@
         <v>399</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="29" t="s">
-        <v>526</v>
+      <c r="J71" s="22" t="s">
+        <v>525</v>
       </c>
       <c r="K71" s="16"/>
       <c r="L71" s="16" t="s">
-        <v>545</v>
+        <v>410</v>
       </c>
       <c r="M71" s="16">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>543</v>
+        <v>432</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>544</v>
+        <v>433</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -11683,10 +11716,10 @@
     </row>
     <row r="72" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>21</v>
@@ -11701,25 +11734,25 @@
         <v>399</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="30" t="s">
-        <v>526</v>
+      <c r="J72" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M72" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>548</v>
+        <v>437</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -11798,10 +11831,10 @@
     </row>
     <row r="73" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>21</v>
@@ -11816,25 +11849,25 @@
         <v>399</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="39" t="s">
-        <v>526</v>
+      <c r="J73" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="K73" s="16"/>
       <c r="L73" s="16" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="M73" s="16">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>552</v>
+        <v>440</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>553</v>
+        <v>441</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -11911,6 +11944,3261 @@
       <c r="CJ73" s="10"/>
       <c r="CK73" s="16"/>
     </row>
+    <row r="74" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M74" s="16">
+        <v>153</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="7"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="7"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="2"/>
+      <c r="BR74" s="8"/>
+      <c r="BS74" s="8"/>
+      <c r="BT74" s="8"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="9"/>
+      <c r="CA74" s="9"/>
+      <c r="CB74" s="10"/>
+      <c r="CC74" s="10"/>
+      <c r="CD74" s="10"/>
+      <c r="CE74" s="14"/>
+      <c r="CF74" s="15"/>
+      <c r="CG74" s="10"/>
+      <c r="CH74" s="10"/>
+      <c r="CI74" s="10"/>
+      <c r="CJ74" s="10"/>
+      <c r="CK74" s="16"/>
+    </row>
+    <row r="75" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M75" s="16">
+        <v>153</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="7"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="7"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="2"/>
+      <c r="BR75" s="8"/>
+      <c r="BS75" s="8"/>
+      <c r="BT75" s="8"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="9"/>
+      <c r="CA75" s="9"/>
+      <c r="CB75" s="10"/>
+      <c r="CC75" s="10"/>
+      <c r="CD75" s="10"/>
+      <c r="CE75" s="14"/>
+      <c r="CF75" s="15"/>
+      <c r="CG75" s="10"/>
+      <c r="CH75" s="10"/>
+      <c r="CI75" s="10"/>
+      <c r="CJ75" s="10"/>
+      <c r="CK75" s="16"/>
+    </row>
+    <row r="76" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M76" s="16">
+        <v>153</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="7"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="7"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="2"/>
+      <c r="BR76" s="8"/>
+      <c r="BS76" s="8"/>
+      <c r="BT76" s="8"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="9"/>
+      <c r="CA76" s="9"/>
+      <c r="CB76" s="10"/>
+      <c r="CC76" s="10"/>
+      <c r="CD76" s="10"/>
+      <c r="CE76" s="14"/>
+      <c r="CF76" s="15"/>
+      <c r="CG76" s="10"/>
+      <c r="CH76" s="10"/>
+      <c r="CI76" s="10"/>
+      <c r="CJ76" s="10"/>
+      <c r="CK76" s="16"/>
+    </row>
+    <row r="77" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M77" s="16">
+        <v>153</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="7"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="7"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="2"/>
+      <c r="BR77" s="8"/>
+      <c r="BS77" s="8"/>
+      <c r="BT77" s="8"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="9"/>
+      <c r="CA77" s="9"/>
+      <c r="CB77" s="10"/>
+      <c r="CC77" s="10"/>
+      <c r="CD77" s="10"/>
+      <c r="CE77" s="14"/>
+      <c r="CF77" s="15"/>
+      <c r="CG77" s="10"/>
+      <c r="CH77" s="10"/>
+      <c r="CI77" s="10"/>
+      <c r="CJ77" s="10"/>
+      <c r="CK77" s="16"/>
+    </row>
+    <row r="78" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M78" s="16">
+        <v>153</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="7"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="7"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="2"/>
+      <c r="BR78" s="8"/>
+      <c r="BS78" s="8"/>
+      <c r="BT78" s="8"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="9"/>
+      <c r="CA78" s="9"/>
+      <c r="CB78" s="10"/>
+      <c r="CC78" s="10"/>
+      <c r="CD78" s="10"/>
+      <c r="CE78" s="14"/>
+      <c r="CF78" s="15"/>
+      <c r="CG78" s="10"/>
+      <c r="CH78" s="10"/>
+      <c r="CI78" s="10"/>
+      <c r="CJ78" s="10"/>
+      <c r="CK78" s="16"/>
+    </row>
+    <row r="79" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M79" s="16">
+        <v>153</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="7"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="7"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="2"/>
+      <c r="BR79" s="8"/>
+      <c r="BS79" s="8"/>
+      <c r="BT79" s="8"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="9"/>
+      <c r="CA79" s="9"/>
+      <c r="CB79" s="10"/>
+      <c r="CC79" s="10"/>
+      <c r="CD79" s="10"/>
+      <c r="CE79" s="14"/>
+      <c r="CF79" s="15"/>
+      <c r="CG79" s="10"/>
+      <c r="CH79" s="10"/>
+      <c r="CI79" s="10"/>
+      <c r="CJ79" s="10"/>
+      <c r="CK79" s="16"/>
+    </row>
+    <row r="80" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M80" s="16">
+        <v>153</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="7"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="2"/>
+      <c r="BR80" s="8"/>
+      <c r="BS80" s="8"/>
+      <c r="BT80" s="8"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="9"/>
+      <c r="CA80" s="9"/>
+      <c r="CB80" s="10"/>
+      <c r="CC80" s="10"/>
+      <c r="CD80" s="10"/>
+      <c r="CE80" s="14"/>
+      <c r="CF80" s="15"/>
+      <c r="CG80" s="10"/>
+      <c r="CH80" s="10"/>
+      <c r="CI80" s="10"/>
+      <c r="CJ80" s="10"/>
+      <c r="CK80" s="16"/>
+    </row>
+    <row r="81" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M81" s="16">
+        <v>157</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="7"/>
+      <c r="AW81" s="1"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="7"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="2"/>
+      <c r="BR81" s="8"/>
+      <c r="BS81" s="8"/>
+      <c r="BT81" s="8"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="1"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="1"/>
+      <c r="BZ81" s="9"/>
+      <c r="CA81" s="9"/>
+      <c r="CB81" s="10"/>
+      <c r="CC81" s="10"/>
+      <c r="CD81" s="10"/>
+      <c r="CE81" s="14"/>
+      <c r="CF81" s="15"/>
+      <c r="CG81" s="10"/>
+      <c r="CH81" s="10"/>
+      <c r="CI81" s="10"/>
+      <c r="CJ81" s="10"/>
+      <c r="CK81" s="16"/>
+    </row>
+    <row r="82" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M82" s="16">
+        <v>157</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="7"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="2"/>
+      <c r="BR82" s="8"/>
+      <c r="BS82" s="8"/>
+      <c r="BT82" s="8"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="1"/>
+      <c r="BX82" s="1"/>
+      <c r="BY82" s="1"/>
+      <c r="BZ82" s="9"/>
+      <c r="CA82" s="9"/>
+      <c r="CB82" s="10"/>
+      <c r="CC82" s="10"/>
+      <c r="CD82" s="10"/>
+      <c r="CE82" s="14"/>
+      <c r="CF82" s="15"/>
+      <c r="CG82" s="10"/>
+      <c r="CH82" s="10"/>
+      <c r="CI82" s="10"/>
+      <c r="CJ82" s="10"/>
+      <c r="CK82" s="16"/>
+    </row>
+    <row r="83" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="M83" s="16">
+        <v>158</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="7"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="7"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="2"/>
+      <c r="BR83" s="8"/>
+      <c r="BS83" s="8"/>
+      <c r="BT83" s="8"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="9"/>
+      <c r="CA83" s="9"/>
+      <c r="CB83" s="10"/>
+      <c r="CC83" s="10"/>
+      <c r="CD83" s="10"/>
+      <c r="CE83" s="14"/>
+      <c r="CF83" s="15"/>
+      <c r="CG83" s="10"/>
+      <c r="CH83" s="10"/>
+      <c r="CI83" s="10"/>
+      <c r="CJ83" s="10"/>
+      <c r="CK83" s="16"/>
+    </row>
+    <row r="84" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M84" s="16">
+        <v>157</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="7"/>
+      <c r="AW84" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AY84" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AZ84" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="7"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="2"/>
+      <c r="BR84" s="8"/>
+      <c r="BS84" s="8"/>
+      <c r="BT84" s="8"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="9"/>
+      <c r="CA84" s="9"/>
+      <c r="CB84" s="10"/>
+      <c r="CC84" s="10"/>
+      <c r="CD84" s="10"/>
+      <c r="CE84" s="14"/>
+      <c r="CF84" s="15"/>
+      <c r="CG84" s="10"/>
+      <c r="CH84" s="10"/>
+      <c r="CI84" s="10"/>
+      <c r="CJ84" s="10"/>
+      <c r="CK84" s="16"/>
+    </row>
+    <row r="85" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M85" s="16">
+        <v>157</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="7"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="7"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="2"/>
+      <c r="BR85" s="8"/>
+      <c r="BS85" s="8"/>
+      <c r="BT85" s="8"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="9"/>
+      <c r="CA85" s="9"/>
+      <c r="CB85" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="CC85" s="10"/>
+      <c r="CD85" s="10"/>
+      <c r="CE85" s="14"/>
+      <c r="CF85" s="15"/>
+      <c r="CG85" s="10"/>
+      <c r="CH85" s="10"/>
+      <c r="CI85" s="10"/>
+      <c r="CJ85" s="10"/>
+      <c r="CK85" s="16"/>
+    </row>
+    <row r="86" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M86" s="16">
+        <v>157</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="7"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="7"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="2"/>
+      <c r="BR86" s="8"/>
+      <c r="BS86" s="8"/>
+      <c r="BT86" s="8"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="9"/>
+      <c r="CA86" s="9"/>
+      <c r="CB86" s="10"/>
+      <c r="CC86" s="10"/>
+      <c r="CD86" s="10"/>
+      <c r="CE86" s="14"/>
+      <c r="CF86" s="15"/>
+      <c r="CG86" s="10"/>
+      <c r="CH86" s="10"/>
+      <c r="CI86" s="10"/>
+      <c r="CJ86" s="10"/>
+      <c r="CK86" s="16"/>
+    </row>
+    <row r="87" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M87" s="16">
+        <v>157</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="7"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="7"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="2"/>
+      <c r="BR87" s="8"/>
+      <c r="BS87" s="8"/>
+      <c r="BT87" s="8"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="9"/>
+      <c r="CA87" s="9"/>
+      <c r="CB87" s="10"/>
+      <c r="CC87" s="10"/>
+      <c r="CD87" s="10"/>
+      <c r="CE87" s="14"/>
+      <c r="CF87" s="15"/>
+      <c r="CG87" s="10"/>
+      <c r="CH87" s="10"/>
+      <c r="CI87" s="10"/>
+      <c r="CJ87" s="10"/>
+      <c r="CK87" s="16"/>
+    </row>
+    <row r="88" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M88" s="16">
+        <v>157</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="7"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="2"/>
+      <c r="BR88" s="8"/>
+      <c r="BS88" s="8"/>
+      <c r="BT88" s="8"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="9"/>
+      <c r="CA88" s="9"/>
+      <c r="CB88" s="10"/>
+      <c r="CC88" s="10"/>
+      <c r="CD88" s="10"/>
+      <c r="CE88" s="14"/>
+      <c r="CF88" s="15"/>
+      <c r="CG88" s="10"/>
+      <c r="CH88" s="10"/>
+      <c r="CI88" s="10"/>
+      <c r="CJ88" s="10"/>
+      <c r="CK88" s="16"/>
+    </row>
+    <row r="89" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M89" s="16">
+        <v>157</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="7"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="7"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="2"/>
+      <c r="BR89" s="8"/>
+      <c r="BS89" s="8"/>
+      <c r="BT89" s="8"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="9"/>
+      <c r="CA89" s="9"/>
+      <c r="CB89" s="10"/>
+      <c r="CC89" s="10"/>
+      <c r="CD89" s="10"/>
+      <c r="CE89" s="14"/>
+      <c r="CF89" s="15"/>
+      <c r="CG89" s="10"/>
+      <c r="CH89" s="10"/>
+      <c r="CI89" s="10"/>
+      <c r="CJ89" s="10"/>
+      <c r="CK89" s="16"/>
+    </row>
+    <row r="90" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M90" s="16">
+        <v>157</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="7"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="7"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="2"/>
+      <c r="BR90" s="8"/>
+      <c r="BS90" s="8"/>
+      <c r="BT90" s="8"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="9"/>
+      <c r="CA90" s="9"/>
+      <c r="CB90" s="10"/>
+      <c r="CC90" s="10"/>
+      <c r="CD90" s="10"/>
+      <c r="CE90" s="14"/>
+      <c r="CF90" s="15"/>
+      <c r="CG90" s="10"/>
+      <c r="CH90" s="10"/>
+      <c r="CI90" s="10"/>
+      <c r="CJ90" s="10"/>
+      <c r="CK90" s="16"/>
+    </row>
+    <row r="91" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M91" s="16">
+        <v>153</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD91" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE91" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF91" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG91" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI91" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ91" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK91" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL91" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AM91" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO91" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AP91" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AQ91" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AR91" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AS91" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AT91" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="2"/>
+      <c r="BR91" s="8"/>
+      <c r="BS91" s="8"/>
+      <c r="BT91" s="8"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="9"/>
+      <c r="CA91" s="9"/>
+      <c r="CB91" s="10"/>
+      <c r="CC91" s="10"/>
+      <c r="CD91" s="10"/>
+      <c r="CE91" s="14"/>
+      <c r="CF91" s="15"/>
+      <c r="CG91" s="10"/>
+      <c r="CH91" s="10"/>
+      <c r="CI91" s="10"/>
+      <c r="CJ91" s="10"/>
+      <c r="CK91" s="16"/>
+    </row>
+    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="M92" s="16">
+        <v>185</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="7"/>
+      <c r="AW92" s="1"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="7"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="2"/>
+      <c r="BR92" s="8"/>
+      <c r="BS92" s="8"/>
+      <c r="BT92" s="8"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="9"/>
+      <c r="CA92" s="9"/>
+      <c r="CB92" s="10"/>
+      <c r="CC92" s="10"/>
+      <c r="CD92" s="10"/>
+      <c r="CE92" s="14"/>
+      <c r="CF92" s="15"/>
+      <c r="CG92" s="10"/>
+      <c r="CH92" s="10"/>
+      <c r="CI92" s="10"/>
+      <c r="CJ92" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="CK92" s="16"/>
+    </row>
+    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M93" s="16">
+        <v>157</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="7"/>
+      <c r="AW93" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX93" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AY93" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AZ93" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="2"/>
+      <c r="BR93" s="8"/>
+      <c r="BS93" s="8"/>
+      <c r="BT93" s="8"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="9"/>
+      <c r="CA93" s="9"/>
+      <c r="CB93" s="10"/>
+      <c r="CC93" s="10"/>
+      <c r="CD93" s="10"/>
+      <c r="CE93" s="14"/>
+      <c r="CF93" s="15"/>
+      <c r="CG93" s="10"/>
+      <c r="CH93" s="10"/>
+      <c r="CI93" s="10"/>
+      <c r="CJ93" s="10"/>
+      <c r="CK93" s="16"/>
+    </row>
+    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M94" s="16">
+        <v>157</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="7"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="7"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="2"/>
+      <c r="BR94" s="8"/>
+      <c r="BS94" s="8"/>
+      <c r="BT94" s="8"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="9"/>
+      <c r="CA94" s="9"/>
+      <c r="CB94" s="10"/>
+      <c r="CC94" s="10"/>
+      <c r="CD94" s="10"/>
+      <c r="CE94" s="14"/>
+      <c r="CF94" s="15"/>
+      <c r="CG94" s="10"/>
+      <c r="CH94" s="10"/>
+      <c r="CI94" s="10"/>
+      <c r="CJ94" s="10"/>
+      <c r="CK94" s="16"/>
+    </row>
+    <row r="95" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M95" s="16">
+        <v>157</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="7"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="7"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="2"/>
+      <c r="BR95" s="8"/>
+      <c r="BS95" s="8"/>
+      <c r="BT95" s="8"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="9"/>
+      <c r="CA95" s="9"/>
+      <c r="CB95" s="10"/>
+      <c r="CC95" s="10"/>
+      <c r="CD95" s="10"/>
+      <c r="CE95" s="14"/>
+      <c r="CF95" s="15"/>
+      <c r="CG95" s="10"/>
+      <c r="CH95" s="10"/>
+      <c r="CI95" s="10"/>
+      <c r="CJ95" s="10"/>
+      <c r="CK95" s="16"/>
+    </row>
+    <row r="96" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M96" s="16">
+        <v>157</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="7"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="7"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="2"/>
+      <c r="BR96" s="8"/>
+      <c r="BS96" s="8"/>
+      <c r="BT96" s="8"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="1"/>
+      <c r="BX96" s="1"/>
+      <c r="BY96" s="1"/>
+      <c r="BZ96" s="9"/>
+      <c r="CA96" s="9"/>
+      <c r="CB96" s="10"/>
+      <c r="CC96" s="10"/>
+      <c r="CD96" s="10"/>
+      <c r="CE96" s="14"/>
+      <c r="CF96" s="15"/>
+      <c r="CG96" s="10"/>
+      <c r="CH96" s="10"/>
+      <c r="CI96" s="10"/>
+      <c r="CJ96" s="10"/>
+      <c r="CK96" s="16"/>
+    </row>
+    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M97" s="16">
+        <v>157</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="7"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="7"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+      <c r="BO97" s="1"/>
+      <c r="BP97" s="1"/>
+      <c r="BQ97" s="2"/>
+      <c r="BR97" s="8"/>
+      <c r="BS97" s="8"/>
+      <c r="BT97" s="8"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="1"/>
+      <c r="BX97" s="1"/>
+      <c r="BY97" s="1"/>
+      <c r="BZ97" s="9"/>
+      <c r="CA97" s="9"/>
+      <c r="CB97" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="CC97" s="10"/>
+      <c r="CD97" s="10"/>
+      <c r="CE97" s="14"/>
+      <c r="CF97" s="15"/>
+      <c r="CG97" s="10"/>
+      <c r="CH97" s="10"/>
+      <c r="CI97" s="10"/>
+      <c r="CJ97" s="10"/>
+      <c r="CK97" s="16"/>
+    </row>
+    <row r="98" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="M98" s="16">
+        <v>158</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="7"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="7"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="2"/>
+      <c r="BR98" s="8"/>
+      <c r="BS98" s="8"/>
+      <c r="BT98" s="8"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="1"/>
+      <c r="BX98" s="1"/>
+      <c r="BY98" s="1"/>
+      <c r="BZ98" s="9"/>
+      <c r="CA98" s="9"/>
+      <c r="CB98" s="10"/>
+      <c r="CC98" s="10"/>
+      <c r="CD98" s="10"/>
+      <c r="CE98" s="14"/>
+      <c r="CF98" s="15"/>
+      <c r="CG98" s="10"/>
+      <c r="CH98" s="10"/>
+      <c r="CI98" s="10"/>
+      <c r="CJ98" s="10"/>
+      <c r="CK98" s="16"/>
+    </row>
+    <row r="99" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M99" s="16">
+        <v>157</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="7"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="7"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="2"/>
+      <c r="BR99" s="8"/>
+      <c r="BS99" s="8"/>
+      <c r="BT99" s="8"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="1"/>
+      <c r="BX99" s="1"/>
+      <c r="BY99" s="1"/>
+      <c r="BZ99" s="9"/>
+      <c r="CA99" s="9"/>
+      <c r="CB99" s="10"/>
+      <c r="CC99" s="10"/>
+      <c r="CD99" s="10"/>
+      <c r="CE99" s="14"/>
+      <c r="CF99" s="15"/>
+      <c r="CG99" s="10"/>
+      <c r="CH99" s="10"/>
+      <c r="CI99" s="10"/>
+      <c r="CJ99" s="10"/>
+      <c r="CK99" s="16"/>
+    </row>
+    <row r="100" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="M100" s="16">
+        <v>157</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="7"/>
+      <c r="AW100" s="1"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="1"/>
+      <c r="BF100" s="1"/>
+      <c r="BG100" s="7"/>
+      <c r="BH100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1"/>
+      <c r="BN100" s="1"/>
+      <c r="BO100" s="1"/>
+      <c r="BP100" s="1"/>
+      <c r="BQ100" s="2"/>
+      <c r="BR100" s="8"/>
+      <c r="BS100" s="8"/>
+      <c r="BT100" s="8"/>
+      <c r="BU100" s="1"/>
+      <c r="BV100" s="1"/>
+      <c r="BW100" s="1"/>
+      <c r="BX100" s="1"/>
+      <c r="BY100" s="1"/>
+      <c r="BZ100" s="9"/>
+      <c r="CA100" s="9"/>
+      <c r="CB100" s="10"/>
+      <c r="CC100" s="10"/>
+      <c r="CD100" s="10"/>
+      <c r="CE100" s="14"/>
+      <c r="CF100" s="15"/>
+      <c r="CG100" s="10"/>
+      <c r="CH100" s="10"/>
+      <c r="CI100" s="10"/>
+      <c r="CJ100" s="10"/>
+      <c r="CK100" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB709F-2F32-4A8D-8D7B-89FB3663ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BF56FF-CEEF-481C-9985-C9FA88E9D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="583">
   <si>
     <t>Environment</t>
   </si>
@@ -1438,30 +1438,6 @@
     <t>PlatformReadings_TC63</t>
   </si>
   <si>
-    <t>ML page - load(1487 Survey copied from )  (sid - 157)</t>
-  </si>
-  <si>
-    <t>Autotranslate all question and messages(Arabic language) - completion</t>
-  </si>
-  <si>
-    <t>Autotranslate all question and messages(Arabic language) - save</t>
-  </si>
-  <si>
-    <t>Autotranslate all question and messages(Arabic language) - reset</t>
-  </si>
-  <si>
-    <t>Spell check on Entire survey - load  (SID 157)</t>
-  </si>
-  <si>
-    <t>Spell check on Entire survey - save (SID 157)</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Readings - 20-Apr-2022 20:42:36</t>
-  </si>
-  <si>
     <t>PlatformReadings_TC64</t>
   </si>
   <si>
@@ -1585,12 +1561,6 @@
     <t>Survey Creation Readings</t>
   </si>
   <si>
-    <t>All question type readings</t>
-  </si>
-  <si>
-    <t>AutoTranslation Readings</t>
-  </si>
-  <si>
     <t>QDL Readings</t>
   </si>
   <si>
@@ -1681,39 +1651,9 @@
     <t>Apply branching on 5 questions - Save (Take reading on 5th Save) (sid - 157)</t>
   </si>
   <si>
-    <t>PlatformReadings_TC62.1</t>
-  </si>
-  <si>
     <t>Drop Down Question Readings</t>
   </si>
   <si>
-    <t>PlatformReadings_TC63_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC64_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC65_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC66_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC67_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC68_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC70_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC71_1</t>
-  </si>
-  <si>
-    <t>PlatformReadings_TC72_1</t>
-  </si>
-  <si>
     <t>Radio Button Question Readings</t>
   </si>
   <si>
@@ -1820,6 +1760,18 @@
   </si>
   <si>
     <t>PlatformReadings_TC91</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC82</t>
+  </si>
+  <si>
+    <t>Re-arrange Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange page - load </t>
+  </si>
+  <si>
+    <t>Rearrange 10 questions - save  (sid - 157)</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,13 +1872,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1944,41 +1894,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2010,16 +1927,6 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -2068,93 +1975,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2242,7 +2069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2266,8 +2093,8 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2277,18 +2104,6 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2599,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2795,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:CK100"/>
+  <dimension ref="A1:CK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>36</v>
@@ -3110,7 +2925,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6"/>
@@ -3233,7 +3048,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="6"/>
@@ -3354,7 +3169,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="6"/>
@@ -3475,7 +3290,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="12"/>
@@ -3596,7 +3411,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="12"/>
@@ -3733,7 +3548,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="12"/>
@@ -3870,7 +3685,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="12"/>
@@ -3993,7 +3808,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="12"/>
@@ -4118,7 +3933,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="12"/>
@@ -4243,7 +4058,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="12"/>
@@ -4368,7 +4183,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="12"/>
@@ -4493,7 +4308,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="12"/>
@@ -4620,7 +4435,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="12"/>
@@ -4747,7 +4562,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="12"/>
@@ -4868,7 +4683,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="12"/>
@@ -4981,7 +4796,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="12"/>
@@ -5104,7 +4919,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="12"/>
@@ -5229,7 +5044,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="12"/>
@@ -5360,7 +5175,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="12"/>
@@ -5495,7 +5310,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="12"/>
@@ -5626,7 +5441,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K22" s="12"/>
@@ -5757,7 +5572,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K23" s="12"/>
@@ -5880,7 +5695,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="12"/>
@@ -6003,7 +5818,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="12"/>
@@ -6134,7 +5949,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="12"/>
@@ -6243,11 +6058,11 @@
         <v>340</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="12"/>
@@ -6335,7 +6150,7 @@
         <v>118</v>
       </c>
       <c r="BS27" s="8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="BT27" s="8"/>
       <c r="BU27" s="1" t="s">
@@ -6378,11 +6193,11 @@
         <v>340</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K28" s="12"/>
@@ -6469,7 +6284,7 @@
       </c>
       <c r="BS28" s="8"/>
       <c r="BT28" s="8" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="BU28" s="1" t="s">
         <v>331</v>
@@ -6511,11 +6326,11 @@
         <v>340</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="12"/>
@@ -6602,7 +6417,7 @@
       </c>
       <c r="BS29" s="8"/>
       <c r="BT29" s="8" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="BU29" s="1" t="s">
         <v>331</v>
@@ -6644,11 +6459,11 @@
         <v>340</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K30" s="12"/>
@@ -6721,7 +6536,7 @@
       </c>
       <c r="BS30" s="8"/>
       <c r="BT30" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="BU30" s="1"/>
       <c r="BV30" s="1" t="s">
@@ -6767,7 +6582,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K31" s="12"/>
@@ -6894,7 +6709,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K32" s="12"/>
@@ -7017,7 +6832,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="12"/>
@@ -7136,7 +6951,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="12"/>
@@ -7251,7 +7066,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="12"/>
@@ -7366,7 +7181,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K36" s="12"/>
@@ -7481,7 +7296,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="12"/>
@@ -7596,7 +7411,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K38" s="12"/>
@@ -7711,7 +7526,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K39" s="12"/>
@@ -7826,7 +7641,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K40" s="12"/>
@@ -7949,7 +7764,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K41" s="12"/>
@@ -8066,7 +7881,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K42" s="12"/>
@@ -8139,7 +7954,7 @@
       </c>
       <c r="BS42" s="8"/>
       <c r="BT42" s="8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="BU42" s="1" t="s">
         <v>331</v>
@@ -8187,7 +8002,7 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K43" s="12"/>
@@ -8259,7 +8074,7 @@
         <v>118</v>
       </c>
       <c r="BS43" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="BT43" s="8"/>
       <c r="BU43" s="1" t="s">
@@ -8308,7 +8123,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="12"/>
@@ -8381,7 +8196,7 @@
       </c>
       <c r="BS44" s="8"/>
       <c r="BT44" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="BU44" s="1" t="s">
         <v>331</v>
@@ -8429,7 +8244,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K45" s="12"/>
@@ -8514,7 +8329,7 @@
       </c>
       <c r="BS45" s="8"/>
       <c r="BT45" s="8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="BU45" s="1" t="s">
         <v>331</v>
@@ -8564,7 +8379,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K46" s="12"/>
@@ -8637,7 +8452,7 @@
       </c>
       <c r="BS46" s="8"/>
       <c r="BT46" s="8" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="BU46" s="1" t="s">
         <v>331</v>
@@ -8685,7 +8500,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K47" s="12"/>
@@ -8800,7 +8615,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="12"/>
@@ -8915,7 +8730,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K49" s="12"/>
@@ -9030,7 +8845,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K50" s="12"/>
@@ -9155,7 +8970,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K51" s="12"/>
@@ -9276,7 +9091,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K52" s="12"/>
@@ -9397,7 +9212,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="16"/>
@@ -9512,7 +9327,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="21" t="s">
+      <c r="J54" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K54" s="16"/>
@@ -9649,7 +9464,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="21" t="s">
+      <c r="J55" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K55" s="16"/>
@@ -9786,7 +9601,7 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K56" s="16"/>
@@ -9923,7 +9738,7 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="21" t="s">
+      <c r="J57" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="16"/>
@@ -10060,7 +9875,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="21" t="s">
+      <c r="J58" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K58" s="16"/>
@@ -10197,7 +10012,7 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="21" t="s">
+      <c r="J59" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K59" s="16"/>
@@ -10334,7 +10149,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="21" t="s">
+      <c r="J60" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K60" s="16"/>
@@ -10471,7 +10286,7 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="21" t="s">
+      <c r="J61" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K61" s="16"/>
@@ -10580,11 +10395,11 @@
         <v>399</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="42" t="s">
+      <c r="J62" s="26" t="s">
         <v>26</v>
       </c>
       <c r="K62" s="16"/>
@@ -10699,25 +10514,25 @@
         <v>399</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M63" s="16">
         <v>157</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -10814,11 +10629,11 @@
         <v>399</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K64" s="16"/>
@@ -10911,7 +10726,7 @@
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
@@ -10929,11 +10744,11 @@
         <v>399</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="23" t="s">
+      <c r="J65" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K65" s="16"/>
@@ -11026,7 +10841,7 @@
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>22</v>
@@ -11044,11 +10859,11 @@
         <v>399</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="23" t="s">
+      <c r="J66" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K66" s="16"/>
@@ -11141,7 +10956,7 @@
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>22</v>
@@ -11159,11 +10974,11 @@
         <v>399</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="23" t="s">
+      <c r="J67" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K67" s="16"/>
@@ -11256,7 +11071,7 @@
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>22</v>
@@ -11274,11 +11089,11 @@
         <v>399</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="23" t="s">
+      <c r="J68" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K68" s="16"/>
@@ -11371,7 +11186,7 @@
     </row>
     <row r="69" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>22</v>
@@ -11389,11 +11204,11 @@
         <v>399</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="23" t="s">
+      <c r="J69" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K69" s="16"/>
@@ -11486,7 +11301,7 @@
     </row>
     <row r="70" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>22</v>
@@ -11504,12 +11319,12 @@
         <v>399</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="24" t="s">
-        <v>525</v>
+      <c r="J70" s="22" t="s">
+        <v>515</v>
       </c>
       <c r="K70" s="16"/>
       <c r="L70" s="16" t="s">
@@ -11601,7 +11416,7 @@
     </row>
     <row r="71" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>22</v>
@@ -11619,12 +11434,12 @@
         <v>399</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="22" t="s">
-        <v>525</v>
+      <c r="J71" s="20" t="s">
+        <v>515</v>
       </c>
       <c r="K71" s="16"/>
       <c r="L71" s="16" t="s">
@@ -11716,7 +11531,7 @@
     </row>
     <row r="72" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
@@ -11734,11 +11549,11 @@
         <v>399</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K72" s="16"/>
@@ -11831,7 +11646,7 @@
     </row>
     <row r="73" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>22</v>
@@ -11849,11 +11664,11 @@
         <v>399</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="23" t="s">
+      <c r="J73" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K73" s="16"/>
@@ -11946,7 +11761,7 @@
     </row>
     <row r="74" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>22</v>
@@ -11964,11 +11779,11 @@
         <v>399</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="23" t="s">
+      <c r="J74" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K74" s="16"/>
@@ -12061,7 +11876,7 @@
     </row>
     <row r="75" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>22</v>
@@ -12079,11 +11894,11 @@
         <v>399</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="23" t="s">
+      <c r="J75" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K75" s="16"/>
@@ -12176,7 +11991,7 @@
     </row>
     <row r="76" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
@@ -12194,11 +12009,11 @@
         <v>399</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="23" t="s">
+      <c r="J76" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K76" s="16"/>
@@ -12291,7 +12106,7 @@
     </row>
     <row r="77" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
@@ -12309,11 +12124,11 @@
         <v>399</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="23" t="s">
+      <c r="J77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K77" s="16"/>
@@ -12406,7 +12221,7 @@
     </row>
     <row r="78" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>22</v>
@@ -12424,11 +12239,11 @@
         <v>399</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K78" s="16"/>
@@ -12521,7 +12336,7 @@
     </row>
     <row r="79" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>22</v>
@@ -12539,11 +12354,11 @@
         <v>399</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="23" t="s">
+      <c r="J79" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K79" s="16"/>
@@ -12636,7 +12451,7 @@
     </row>
     <row r="80" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>22</v>
@@ -12654,11 +12469,11 @@
         <v>399</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="23" t="s">
+      <c r="J80" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K80" s="16"/>
@@ -12751,7 +12566,7 @@
     </row>
     <row r="81" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>22</v>
@@ -12769,25 +12584,25 @@
         <v>399</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="25" t="s">
+      <c r="J81" s="23" t="s">
         <v>26</v>
       </c>
       <c r="K81" s="16"/>
       <c r="L81" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M81" s="16">
         <v>157</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -12866,7 +12681,7 @@
     </row>
     <row r="82" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>3</v>
@@ -12884,25 +12699,25 @@
         <v>399</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="23" t="s">
+      <c r="J82" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M82" s="16">
         <v>157</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -12981,7 +12796,7 @@
     </row>
     <row r="83" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>3</v>
@@ -12999,25 +12814,25 @@
         <v>399</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="23" t="s">
-        <v>26</v>
+      <c r="J83" s="28" t="s">
+        <v>515</v>
       </c>
       <c r="K83" s="16"/>
       <c r="L83" s="16" t="s">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="M83" s="16">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -13096,10 +12911,10 @@
     </row>
     <row r="84" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>21</v>
@@ -13114,35 +12929,29 @@
         <v>399</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="23" t="s">
+      <c r="J84" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K84" s="16"/>
       <c r="L84" s="16" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="M84" s="16">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -13173,18 +12982,10 @@
       <c r="AT84" s="1"/>
       <c r="AU84" s="1"/>
       <c r="AV84" s="7"/>
-      <c r="AW84" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AX84" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY84" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AZ84" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="AW84" s="1"/>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
       <c r="BC84" s="1"/>
@@ -13197,9 +12998,7 @@
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
-      <c r="BM84" s="1">
-        <v>19</v>
-      </c>
+      <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
       <c r="BO84" s="1"/>
       <c r="BP84" s="1"/>
@@ -13227,7 +13026,7 @@
     </row>
     <row r="85" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>22</v>
@@ -13245,29 +13044,35 @@
         <v>399</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K85" s="16"/>
       <c r="L85" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M85" s="16">
         <v>157</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+        <v>474</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -13298,10 +13103,18 @@
       <c r="AT85" s="1"/>
       <c r="AU85" s="1"/>
       <c r="AV85" s="7"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
+      <c r="AW85" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX85" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AY85" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ85" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
       <c r="BC85" s="1"/>
@@ -13314,7 +13127,9 @@
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
-      <c r="BM85" s="1"/>
+      <c r="BM85" s="1">
+        <v>19</v>
+      </c>
       <c r="BN85" s="1"/>
       <c r="BO85" s="1"/>
       <c r="BP85" s="1"/>
@@ -13329,9 +13144,7 @@
       <c r="BY85" s="1"/>
       <c r="BZ85" s="9"/>
       <c r="CA85" s="9"/>
-      <c r="CB85" s="10" t="s">
-        <v>518</v>
-      </c>
+      <c r="CB85" s="10"/>
       <c r="CC85" s="10"/>
       <c r="CD85" s="10"/>
       <c r="CE85" s="14"/>
@@ -13344,10 +13157,10 @@
     </row>
     <row r="86" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>21</v>
@@ -13362,41 +13175,31 @@
         <v>399</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="11"/>
-      <c r="J86" s="27" t="s">
-        <v>525</v>
+      <c r="J86" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M86" s="16">
         <v>157</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="T86" s="1" t="s">
         <v>509</v>
       </c>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
@@ -13456,7 +13259,9 @@
       <c r="BY86" s="1"/>
       <c r="BZ86" s="9"/>
       <c r="CA86" s="9"/>
-      <c r="CB86" s="10"/>
+      <c r="CB86" s="10" t="s">
+        <v>510</v>
+      </c>
       <c r="CC86" s="10"/>
       <c r="CD86" s="10"/>
       <c r="CE86" s="14"/>
@@ -13469,10 +13274,10 @@
     </row>
     <row r="87" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
@@ -13487,31 +13292,41 @@
         <v>399</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>596</v>
+        <v>494</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="23" t="s">
-        <v>26</v>
+      <c r="J87" s="25" t="s">
+        <v>515</v>
       </c>
       <c r="K87" s="16"/>
       <c r="L87" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M87" s="16">
         <v>157</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
@@ -13584,7 +13399,7 @@
     </row>
     <row r="88" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>22</v>
@@ -13602,25 +13417,25 @@
         <v>399</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="26" t="s">
-        <v>525</v>
+      <c r="J88" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M88" s="16">
         <v>157</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -13699,7 +13514,7 @@
     </row>
     <row r="89" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>22</v>
@@ -13717,32 +13532,28 @@
         <v>399</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>597</v>
+        <v>503</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="23" t="s">
-        <v>26</v>
+      <c r="J89" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="K89" s="16"/>
       <c r="L89" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M89" s="16">
         <v>157</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>495</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -13818,7 +13629,7 @@
     </row>
     <row r="90" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>22</v>
@@ -13836,30 +13647,32 @@
         <v>399</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="23" t="s">
+      <c r="J90" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M90" s="16">
         <v>157</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q90" s="1"/>
+        <v>486</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -13935,7 +13748,7 @@
     </row>
     <row r="91" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>22</v>
@@ -13953,122 +13766,60 @@
         <v>399</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="11"/>
-      <c r="J91" s="17" t="s">
-        <v>525</v>
+      <c r="J91" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="M91" s="16">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="W91" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="X91" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y91" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z91" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA91" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB91" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC91" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD91" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE91" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF91" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG91" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH91" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI91" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AJ91" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK91" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL91" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM91" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="AN91" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AO91" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AP91" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AQ91" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AR91" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AS91" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT91" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AU91" s="1" t="s">
-        <v>467</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
       <c r="AV91" s="7"/>
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
@@ -14112,1093 +13863,6 @@
       <c r="CJ91" s="10"/>
       <c r="CK91" s="16"/>
     </row>
-    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="M92" s="16">
-        <v>185</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
-      <c r="AO92" s="1"/>
-      <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-      <c r="AR92" s="1"/>
-      <c r="AS92" s="1"/>
-      <c r="AT92" s="1"/>
-      <c r="AU92" s="1"/>
-      <c r="AV92" s="7"/>
-      <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
-      <c r="BA92" s="1"/>
-      <c r="BB92" s="1"/>
-      <c r="BC92" s="1"/>
-      <c r="BD92" s="1"/>
-      <c r="BE92" s="1"/>
-      <c r="BF92" s="1"/>
-      <c r="BG92" s="7"/>
-      <c r="BH92" s="1"/>
-      <c r="BI92" s="1"/>
-      <c r="BJ92" s="1"/>
-      <c r="BK92" s="1"/>
-      <c r="BL92" s="1"/>
-      <c r="BM92" s="1"/>
-      <c r="BN92" s="1"/>
-      <c r="BO92" s="1"/>
-      <c r="BP92" s="1"/>
-      <c r="BQ92" s="2"/>
-      <c r="BR92" s="8"/>
-      <c r="BS92" s="8"/>
-      <c r="BT92" s="8"/>
-      <c r="BU92" s="1"/>
-      <c r="BV92" s="1"/>
-      <c r="BW92" s="1"/>
-      <c r="BX92" s="1"/>
-      <c r="BY92" s="1"/>
-      <c r="BZ92" s="9"/>
-      <c r="CA92" s="9"/>
-      <c r="CB92" s="10"/>
-      <c r="CC92" s="10"/>
-      <c r="CD92" s="10"/>
-      <c r="CE92" s="14"/>
-      <c r="CF92" s="15"/>
-      <c r="CG92" s="10"/>
-      <c r="CH92" s="10"/>
-      <c r="CI92" s="10"/>
-      <c r="CJ92" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="CK92" s="16"/>
-    </row>
-    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M93" s="16">
-        <v>157</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="X93" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-      <c r="AR93" s="1"/>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
-      <c r="AU93" s="1"/>
-      <c r="AV93" s="7"/>
-      <c r="AW93" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AX93" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY93" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AZ93" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="BA93" s="1"/>
-      <c r="BB93" s="1"/>
-      <c r="BC93" s="1"/>
-      <c r="BD93" s="1"/>
-      <c r="BE93" s="1"/>
-      <c r="BF93" s="1"/>
-      <c r="BG93" s="7"/>
-      <c r="BH93" s="1"/>
-      <c r="BI93" s="1"/>
-      <c r="BJ93" s="1"/>
-      <c r="BK93" s="1"/>
-      <c r="BL93" s="1"/>
-      <c r="BM93" s="1">
-        <v>19</v>
-      </c>
-      <c r="BN93" s="1"/>
-      <c r="BO93" s="1"/>
-      <c r="BP93" s="1"/>
-      <c r="BQ93" s="2"/>
-      <c r="BR93" s="8"/>
-      <c r="BS93" s="8"/>
-      <c r="BT93" s="8"/>
-      <c r="BU93" s="1"/>
-      <c r="BV93" s="1"/>
-      <c r="BW93" s="1"/>
-      <c r="BX93" s="1"/>
-      <c r="BY93" s="1"/>
-      <c r="BZ93" s="9"/>
-      <c r="CA93" s="9"/>
-      <c r="CB93" s="10"/>
-      <c r="CC93" s="10"/>
-      <c r="CD93" s="10"/>
-      <c r="CE93" s="14"/>
-      <c r="CF93" s="15"/>
-      <c r="CG93" s="10"/>
-      <c r="CH93" s="10"/>
-      <c r="CI93" s="10"/>
-      <c r="CJ93" s="10"/>
-      <c r="CK93" s="16"/>
-    </row>
-    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M94" s="16">
-        <v>157</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="7"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
-      <c r="BG94" s="7"/>
-      <c r="BH94" s="1"/>
-      <c r="BI94" s="1"/>
-      <c r="BJ94" s="1"/>
-      <c r="BK94" s="1"/>
-      <c r="BL94" s="1"/>
-      <c r="BM94" s="1"/>
-      <c r="BN94" s="1"/>
-      <c r="BO94" s="1"/>
-      <c r="BP94" s="1"/>
-      <c r="BQ94" s="2"/>
-      <c r="BR94" s="8"/>
-      <c r="BS94" s="8"/>
-      <c r="BT94" s="8"/>
-      <c r="BU94" s="1"/>
-      <c r="BV94" s="1"/>
-      <c r="BW94" s="1"/>
-      <c r="BX94" s="1"/>
-      <c r="BY94" s="1"/>
-      <c r="BZ94" s="9"/>
-      <c r="CA94" s="9"/>
-      <c r="CB94" s="10"/>
-      <c r="CC94" s="10"/>
-      <c r="CD94" s="10"/>
-      <c r="CE94" s="14"/>
-      <c r="CF94" s="15"/>
-      <c r="CG94" s="10"/>
-      <c r="CH94" s="10"/>
-      <c r="CI94" s="10"/>
-      <c r="CJ94" s="10"/>
-      <c r="CK94" s="16"/>
-    </row>
-    <row r="95" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M95" s="16">
-        <v>157</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
-      <c r="AF95" s="1"/>
-      <c r="AG95" s="1"/>
-      <c r="AH95" s="1"/>
-      <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
-      <c r="AK95" s="1"/>
-      <c r="AL95" s="1"/>
-      <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
-      <c r="AO95" s="1"/>
-      <c r="AP95" s="1"/>
-      <c r="AQ95" s="1"/>
-      <c r="AR95" s="1"/>
-      <c r="AS95" s="1"/>
-      <c r="AT95" s="1"/>
-      <c r="AU95" s="1"/>
-      <c r="AV95" s="7"/>
-      <c r="AW95" s="1"/>
-      <c r="AX95" s="1"/>
-      <c r="AY95" s="1"/>
-      <c r="AZ95" s="1"/>
-      <c r="BA95" s="1"/>
-      <c r="BB95" s="1"/>
-      <c r="BC95" s="1"/>
-      <c r="BD95" s="1"/>
-      <c r="BE95" s="1"/>
-      <c r="BF95" s="1"/>
-      <c r="BG95" s="7"/>
-      <c r="BH95" s="1"/>
-      <c r="BI95" s="1"/>
-      <c r="BJ95" s="1"/>
-      <c r="BK95" s="1"/>
-      <c r="BL95" s="1"/>
-      <c r="BM95" s="1"/>
-      <c r="BN95" s="1"/>
-      <c r="BO95" s="1"/>
-      <c r="BP95" s="1"/>
-      <c r="BQ95" s="2"/>
-      <c r="BR95" s="8"/>
-      <c r="BS95" s="8"/>
-      <c r="BT95" s="8"/>
-      <c r="BU95" s="1"/>
-      <c r="BV95" s="1"/>
-      <c r="BW95" s="1"/>
-      <c r="BX95" s="1"/>
-      <c r="BY95" s="1"/>
-      <c r="BZ95" s="9"/>
-      <c r="CA95" s="9"/>
-      <c r="CB95" s="10"/>
-      <c r="CC95" s="10"/>
-      <c r="CD95" s="10"/>
-      <c r="CE95" s="14"/>
-      <c r="CF95" s="15"/>
-      <c r="CG95" s="10"/>
-      <c r="CH95" s="10"/>
-      <c r="CI95" s="10"/>
-      <c r="CJ95" s="10"/>
-      <c r="CK95" s="16"/>
-    </row>
-    <row r="96" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M96" s="16">
-        <v>157</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="1"/>
-      <c r="AF96" s="1"/>
-      <c r="AG96" s="1"/>
-      <c r="AH96" s="1"/>
-      <c r="AI96" s="1"/>
-      <c r="AJ96" s="1"/>
-      <c r="AK96" s="1"/>
-      <c r="AL96" s="1"/>
-      <c r="AM96" s="1"/>
-      <c r="AN96" s="1"/>
-      <c r="AO96" s="1"/>
-      <c r="AP96" s="1"/>
-      <c r="AQ96" s="1"/>
-      <c r="AR96" s="1"/>
-      <c r="AS96" s="1"/>
-      <c r="AT96" s="1"/>
-      <c r="AU96" s="1"/>
-      <c r="AV96" s="7"/>
-      <c r="AW96" s="1"/>
-      <c r="AX96" s="1"/>
-      <c r="AY96" s="1"/>
-      <c r="AZ96" s="1"/>
-      <c r="BA96" s="1"/>
-      <c r="BB96" s="1"/>
-      <c r="BC96" s="1"/>
-      <c r="BD96" s="1"/>
-      <c r="BE96" s="1"/>
-      <c r="BF96" s="1"/>
-      <c r="BG96" s="7"/>
-      <c r="BH96" s="1"/>
-      <c r="BI96" s="1"/>
-      <c r="BJ96" s="1"/>
-      <c r="BK96" s="1"/>
-      <c r="BL96" s="1"/>
-      <c r="BM96" s="1"/>
-      <c r="BN96" s="1"/>
-      <c r="BO96" s="1"/>
-      <c r="BP96" s="1"/>
-      <c r="BQ96" s="2"/>
-      <c r="BR96" s="8"/>
-      <c r="BS96" s="8"/>
-      <c r="BT96" s="8"/>
-      <c r="BU96" s="1"/>
-      <c r="BV96" s="1"/>
-      <c r="BW96" s="1"/>
-      <c r="BX96" s="1"/>
-      <c r="BY96" s="1"/>
-      <c r="BZ96" s="9"/>
-      <c r="CA96" s="9"/>
-      <c r="CB96" s="10"/>
-      <c r="CC96" s="10"/>
-      <c r="CD96" s="10"/>
-      <c r="CE96" s="14"/>
-      <c r="CF96" s="15"/>
-      <c r="CG96" s="10"/>
-      <c r="CH96" s="10"/>
-      <c r="CI96" s="10"/>
-      <c r="CJ96" s="10"/>
-      <c r="CK96" s="16"/>
-    </row>
-    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M97" s="16">
-        <v>157</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-      <c r="AH97" s="1"/>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-      <c r="AM97" s="1"/>
-      <c r="AN97" s="1"/>
-      <c r="AO97" s="1"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-      <c r="AR97" s="1"/>
-      <c r="AS97" s="1"/>
-      <c r="AT97" s="1"/>
-      <c r="AU97" s="1"/>
-      <c r="AV97" s="7"/>
-      <c r="AW97" s="1"/>
-      <c r="AX97" s="1"/>
-      <c r="AY97" s="1"/>
-      <c r="AZ97" s="1"/>
-      <c r="BA97" s="1"/>
-      <c r="BB97" s="1"/>
-      <c r="BC97" s="1"/>
-      <c r="BD97" s="1"/>
-      <c r="BE97" s="1"/>
-      <c r="BF97" s="1"/>
-      <c r="BG97" s="7"/>
-      <c r="BH97" s="1"/>
-      <c r="BI97" s="1"/>
-      <c r="BJ97" s="1"/>
-      <c r="BK97" s="1"/>
-      <c r="BL97" s="1"/>
-      <c r="BM97" s="1"/>
-      <c r="BN97" s="1"/>
-      <c r="BO97" s="1"/>
-      <c r="BP97" s="1"/>
-      <c r="BQ97" s="2"/>
-      <c r="BR97" s="8"/>
-      <c r="BS97" s="8"/>
-      <c r="BT97" s="8"/>
-      <c r="BU97" s="1"/>
-      <c r="BV97" s="1"/>
-      <c r="BW97" s="1"/>
-      <c r="BX97" s="1"/>
-      <c r="BY97" s="1"/>
-      <c r="BZ97" s="9"/>
-      <c r="CA97" s="9"/>
-      <c r="CB97" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="CC97" s="10"/>
-      <c r="CD97" s="10"/>
-      <c r="CE97" s="14"/>
-      <c r="CF97" s="15"/>
-      <c r="CG97" s="10"/>
-      <c r="CH97" s="10"/>
-      <c r="CI97" s="10"/>
-      <c r="CJ97" s="10"/>
-      <c r="CK97" s="16"/>
-    </row>
-    <row r="98" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="M98" s="16">
-        <v>158</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
-      <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
-      <c r="AN98" s="1"/>
-      <c r="AO98" s="1"/>
-      <c r="AP98" s="1"/>
-      <c r="AQ98" s="1"/>
-      <c r="AR98" s="1"/>
-      <c r="AS98" s="1"/>
-      <c r="AT98" s="1"/>
-      <c r="AU98" s="1"/>
-      <c r="AV98" s="7"/>
-      <c r="AW98" s="1"/>
-      <c r="AX98" s="1"/>
-      <c r="AY98" s="1"/>
-      <c r="AZ98" s="1"/>
-      <c r="BA98" s="1"/>
-      <c r="BB98" s="1"/>
-      <c r="BC98" s="1"/>
-      <c r="BD98" s="1"/>
-      <c r="BE98" s="1"/>
-      <c r="BF98" s="1"/>
-      <c r="BG98" s="7"/>
-      <c r="BH98" s="1"/>
-      <c r="BI98" s="1"/>
-      <c r="BJ98" s="1"/>
-      <c r="BK98" s="1"/>
-      <c r="BL98" s="1"/>
-      <c r="BM98" s="1"/>
-      <c r="BN98" s="1"/>
-      <c r="BO98" s="1"/>
-      <c r="BP98" s="1"/>
-      <c r="BQ98" s="2"/>
-      <c r="BR98" s="8"/>
-      <c r="BS98" s="8"/>
-      <c r="BT98" s="8"/>
-      <c r="BU98" s="1"/>
-      <c r="BV98" s="1"/>
-      <c r="BW98" s="1"/>
-      <c r="BX98" s="1"/>
-      <c r="BY98" s="1"/>
-      <c r="BZ98" s="9"/>
-      <c r="CA98" s="9"/>
-      <c r="CB98" s="10"/>
-      <c r="CC98" s="10"/>
-      <c r="CD98" s="10"/>
-      <c r="CE98" s="14"/>
-      <c r="CF98" s="15"/>
-      <c r="CG98" s="10"/>
-      <c r="CH98" s="10"/>
-      <c r="CI98" s="10"/>
-      <c r="CJ98" s="10"/>
-      <c r="CK98" s="16"/>
-    </row>
-    <row r="99" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M99" s="16">
-        <v>157</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="1"/>
-      <c r="AP99" s="1"/>
-      <c r="AQ99" s="1"/>
-      <c r="AR99" s="1"/>
-      <c r="AS99" s="1"/>
-      <c r="AT99" s="1"/>
-      <c r="AU99" s="1"/>
-      <c r="AV99" s="7"/>
-      <c r="AW99" s="1"/>
-      <c r="AX99" s="1"/>
-      <c r="AY99" s="1"/>
-      <c r="AZ99" s="1"/>
-      <c r="BA99" s="1"/>
-      <c r="BB99" s="1"/>
-      <c r="BC99" s="1"/>
-      <c r="BD99" s="1"/>
-      <c r="BE99" s="1"/>
-      <c r="BF99" s="1"/>
-      <c r="BG99" s="7"/>
-      <c r="BH99" s="1"/>
-      <c r="BI99" s="1"/>
-      <c r="BJ99" s="1"/>
-      <c r="BK99" s="1"/>
-      <c r="BL99" s="1"/>
-      <c r="BM99" s="1"/>
-      <c r="BN99" s="1"/>
-      <c r="BO99" s="1"/>
-      <c r="BP99" s="1"/>
-      <c r="BQ99" s="2"/>
-      <c r="BR99" s="8"/>
-      <c r="BS99" s="8"/>
-      <c r="BT99" s="8"/>
-      <c r="BU99" s="1"/>
-      <c r="BV99" s="1"/>
-      <c r="BW99" s="1"/>
-      <c r="BX99" s="1"/>
-      <c r="BY99" s="1"/>
-      <c r="BZ99" s="9"/>
-      <c r="CA99" s="9"/>
-      <c r="CB99" s="10"/>
-      <c r="CC99" s="10"/>
-      <c r="CD99" s="10"/>
-      <c r="CE99" s="14"/>
-      <c r="CF99" s="15"/>
-      <c r="CG99" s="10"/>
-      <c r="CH99" s="10"/>
-      <c r="CI99" s="10"/>
-      <c r="CJ99" s="10"/>
-      <c r="CK99" s="16"/>
-    </row>
-    <row r="100" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="M100" s="16">
-        <v>157</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
-      <c r="AN100" s="1"/>
-      <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-      <c r="AQ100" s="1"/>
-      <c r="AR100" s="1"/>
-      <c r="AS100" s="1"/>
-      <c r="AT100" s="1"/>
-      <c r="AU100" s="1"/>
-      <c r="AV100" s="7"/>
-      <c r="AW100" s="1"/>
-      <c r="AX100" s="1"/>
-      <c r="AY100" s="1"/>
-      <c r="AZ100" s="1"/>
-      <c r="BA100" s="1"/>
-      <c r="BB100" s="1"/>
-      <c r="BC100" s="1"/>
-      <c r="BD100" s="1"/>
-      <c r="BE100" s="1"/>
-      <c r="BF100" s="1"/>
-      <c r="BG100" s="7"/>
-      <c r="BH100" s="1"/>
-      <c r="BI100" s="1"/>
-      <c r="BJ100" s="1"/>
-      <c r="BK100" s="1"/>
-      <c r="BL100" s="1"/>
-      <c r="BM100" s="1"/>
-      <c r="BN100" s="1"/>
-      <c r="BO100" s="1"/>
-      <c r="BP100" s="1"/>
-      <c r="BQ100" s="2"/>
-      <c r="BR100" s="8"/>
-      <c r="BS100" s="8"/>
-      <c r="BT100" s="8"/>
-      <c r="BU100" s="1"/>
-      <c r="BV100" s="1"/>
-      <c r="BW100" s="1"/>
-      <c r="BX100" s="1"/>
-      <c r="BY100" s="1"/>
-      <c r="BZ100" s="9"/>
-      <c r="CA100" s="9"/>
-      <c r="CB100" s="10"/>
-      <c r="CC100" s="10"/>
-      <c r="CD100" s="10"/>
-      <c r="CE100" s="14"/>
-      <c r="CF100" s="15"/>
-      <c r="CG100" s="10"/>
-      <c r="CH100" s="10"/>
-      <c r="CI100" s="10"/>
-      <c r="CJ100" s="10"/>
-      <c r="CK100" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BF56FF-CEEF-481C-9985-C9FA88E9D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A1A4C7-F22A-490F-B86D-33FB16027D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="584">
   <si>
     <t>Environment</t>
   </si>
@@ -1772,6 +1772,9 @@
   </si>
   <si>
     <t>Rearrange 10 questions - save  (sid - 157)</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,7 +1869,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1891,11 +1893,16 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <u val="single"/>
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1971,17 +1978,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2069,7 +2106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2103,7 +2140,10 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2613,7 +2653,7 @@
   <dimension ref="A1:CK91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10399,7 +10439,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="26" t="s">
+      <c r="J62" s="25" t="s">
         <v>26</v>
       </c>
       <c r="K62" s="16"/>
@@ -12818,7 +12858,7 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="28" t="s">
+      <c r="J83" s="26" t="s">
         <v>515</v>
       </c>
       <c r="K83" s="16"/>
@@ -13296,7 +13336,7 @@
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="25" t="s">
+      <c r="J87" s="24" t="s">
         <v>515</v>
       </c>
       <c r="K87" s="16"/>
@@ -13517,7 +13557,7 @@
         <v>574</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>21</v>
@@ -13536,7 +13576,7 @@
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="24" t="s">
+      <c r="J89" s="27" t="s">
         <v>515</v>
       </c>
       <c r="K89" s="16"/>
@@ -13751,7 +13791,7 @@
         <v>578</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>21</v>
@@ -13770,8 +13810,8 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="11"/>
-      <c r="J91" s="21" t="s">
-        <v>26</v>
+      <c r="J91" s="31" t="s">
+        <v>515</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16" t="s">

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_PlatformReadings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A1A4C7-F22A-490F-B86D-33FB16027D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9075EB-B682-489B-9B94-DE0863671DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="591">
   <si>
     <t>Environment</t>
   </si>
@@ -1774,7 +1774,28 @@
     <t>Rearrange 10 questions - save  (sid - 157)</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PlatformReadings_TC89</t>
+  </si>
+  <si>
+    <t>Add Radio Button in Poll</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Poll</t>
+  </si>
+  <si>
+    <t>Add Drop Down in Poll</t>
+  </si>
+  <si>
+    <t>Add Check box in Poll</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC92</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC93</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1803,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1886,9 +1907,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1902,7 +1939,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1979,6 +2016,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -2106,7 +2153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2137,13 +2184,16 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2650,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
-  <dimension ref="A1:CK91"/>
+  <dimension ref="A1:CK94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13669,10 +13719,10 @@
     </row>
     <row r="90" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>21</v>
@@ -13687,32 +13737,26 @@
         <v>399</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="21" t="s">
-        <v>26</v>
+      <c r="J90" s="29" t="s">
+        <v>515</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="M90" s="16">
-        <v>157</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M90" s="16"/>
       <c r="N90" s="1" t="s">
-        <v>484</v>
+        <v>411</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>487</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -13783,12 +13827,14 @@
       <c r="CG90" s="10"/>
       <c r="CH90" s="10"/>
       <c r="CI90" s="10"/>
-      <c r="CJ90" s="10"/>
+      <c r="CJ90" s="10" t="s">
+        <v>585</v>
+      </c>
       <c r="CK90" s="16"/>
     </row>
     <row r="91" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>3</v>
@@ -13806,29 +13852,25 @@
         <v>399</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>492</v>
+        <v>587</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="11"/>
-      <c r="J91" s="31" t="s">
+      <c r="J91" s="34" t="s">
         <v>515</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="M91" s="16">
-        <v>157</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M91" s="16"/>
       <c r="N91" s="1" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>491</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -13900,8 +13942,361 @@
       <c r="CG91" s="10"/>
       <c r="CH91" s="10"/>
       <c r="CI91" s="10"/>
-      <c r="CJ91" s="10"/>
+      <c r="CJ91" s="10" t="s">
+        <v>585</v>
+      </c>
       <c r="CK91" s="16"/>
+    </row>
+    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="M92" s="16"/>
+      <c r="N92" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="7"/>
+      <c r="AW92" s="1"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="7"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="2"/>
+      <c r="BR92" s="8"/>
+      <c r="BS92" s="8"/>
+      <c r="BT92" s="8"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="9"/>
+      <c r="CA92" s="9"/>
+      <c r="CB92" s="10"/>
+      <c r="CC92" s="10"/>
+      <c r="CD92" s="10"/>
+      <c r="CE92" s="14"/>
+      <c r="CF92" s="15"/>
+      <c r="CG92" s="10"/>
+      <c r="CH92" s="10"/>
+      <c r="CI92" s="10"/>
+      <c r="CJ92" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="CK92" s="16"/>
+    </row>
+    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="M93" s="16">
+        <v>157</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="7"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="2"/>
+      <c r="BR93" s="8"/>
+      <c r="BS93" s="8"/>
+      <c r="BT93" s="8"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="9"/>
+      <c r="CA93" s="9"/>
+      <c r="CB93" s="10"/>
+      <c r="CC93" s="10"/>
+      <c r="CD93" s="10"/>
+      <c r="CE93" s="14"/>
+      <c r="CF93" s="15"/>
+      <c r="CG93" s="10"/>
+      <c r="CH93" s="10"/>
+      <c r="CI93" s="10"/>
+      <c r="CJ93" s="10"/>
+      <c r="CK93" s="16"/>
+    </row>
+    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="M94" s="16">
+        <v>157</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="7"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="7"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="2"/>
+      <c r="BR94" s="8"/>
+      <c r="BS94" s="8"/>
+      <c r="BT94" s="8"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="9"/>
+      <c r="CA94" s="9"/>
+      <c r="CB94" s="10"/>
+      <c r="CC94" s="10"/>
+      <c r="CD94" s="10"/>
+      <c r="CE94" s="14"/>
+      <c r="CF94" s="15"/>
+      <c r="CG94" s="10"/>
+      <c r="CH94" s="10"/>
+      <c r="CI94" s="10"/>
+      <c r="CJ94" s="10"/>
+      <c r="CK94" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
